--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB17D40-CC4F-4460-B053-54B9FBD75735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14ED5A9-6E14-4BCB-89D9-810C6102324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,9 +614,6 @@
     <t>https://drive.google.com/file/d/1PzNsPYc91KW5HGDPAhoEef6WrtJLFnEX/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pSEizCVZ624LRVDuo9Zn0sl_PZbpDZY2/view?usp=sharingNO</t>
-  </si>
-  <si>
     <t>gol fatti pp</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1UCljJWbcOCFbjsTDKtGyk8uLIEUDLJwg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pSEizCVZ624LRVDuo9Zn0sl_PZbpDZY2/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -918,22 +918,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +932,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:I104"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L279" sqref="L279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,7 +3181,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4969,7 +4969,7 @@
         <v>15</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4998,7 +4998,7 @@
         <v>15</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>15</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -6374,7 +6374,7 @@
         <v>15</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -7388,7 +7388,7 @@
         <v>15</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7417,7 +7417,7 @@
         <v>15</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7567,7 +7567,7 @@
         <v>15</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7596,7 +7596,7 @@
         <v>16</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -8259,7 +8259,7 @@
         <v>17</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8950,7 +8950,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9054,7 +9054,7 @@
         <v>15</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>17</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9607,7 +9607,7 @@
         <v>15</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9636,7 +9636,7 @@
         <v>15</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9665,7 +9665,7 @@
         <v>15</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -10155,7 +10155,7 @@
         <v>15</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
         <v>15</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10420,7 +10420,7 @@
         <v>15</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10691,7 +10691,7 @@
         <v>15</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11347,7 +11347,7 @@
         <v>15</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11376,7 +11376,7 @@
         <v>15</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11405,7 +11405,7 @@
         <v>15</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -11434,7 +11434,7 @@
         <v>15</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -11509,7 +11509,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -11814,7 +11814,7 @@
         <v>15</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -11843,7 +11843,7 @@
         <v>15</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12274,24 +12274,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="M1" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="M1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
@@ -13175,10 +13175,10 @@
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G27" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M27" s="5">
         <v>15</v>
@@ -13215,10 +13215,10 @@
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E29" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>122</v>
@@ -13228,10 +13228,10 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -13264,135 +13264,135 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="D31" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="M31" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="22"/>
+      <c r="M31" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="18"/>
+      <c r="D32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="I32" s="18"/>
+      <c r="H32" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="15"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N32" s="18"/>
+      <c r="M32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="N32" s="15"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="R32" s="18"/>
+      <c r="Q32" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="17">
+      <c r="D33" s="14">
         <f>COUNTIF($I$3:$I$20,"1")</f>
         <v>6</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <f>COUNTIF($I$3:$I$20,"2")</f>
         <v>12</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="17">
+      <c r="M33" s="14">
         <f>COUNTIF($R$3:$R$27,"1")</f>
         <v>12</v>
       </c>
-      <c r="N33" s="18"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="17">
+      <c r="Q33" s="14">
         <f>COUNTIF($R$3:$R$27,"2")</f>
         <v>13</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="D34" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="M34" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="16"/>
+      <c r="M34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="M35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="36" spans="4:18" x14ac:dyDescent="0.25">
@@ -13448,86 +13448,86 @@
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="D37" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="16"/>
+      <c r="M37" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" s="15"/>
+      <c r="O38" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="17" t="s">
+      <c r="P38" s="15"/>
+      <c r="Q38" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="R38" s="18"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <f>COUNTIF($H$3:$H$20,"&lt;=29")</f>
         <v>5</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17">
+      <c r="E39" s="15"/>
+      <c r="F39" s="14">
         <f>E30-D39-H39</f>
         <v>8</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17">
+      <c r="G39" s="15"/>
+      <c r="H39" s="14">
         <f>COUNTIF($H$3:$H$20,"&gt;=60")</f>
         <v>5</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="17">
+      <c r="M39" s="14">
         <f>COUNTIF($Q$3:$Q$27,"&lt;=29")</f>
         <v>7</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="17">
+      <c r="N39" s="15"/>
+      <c r="O39" s="14">
         <f>N30-M39-Q39</f>
         <v>9</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="17">
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14">
         <f>COUNTIF($Q$3:$Q$27,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="R39" s="18"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
@@ -13723,13 +13723,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
@@ -13746,11 +13744,13 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682943A-D3C1-4C18-A37B-95B99ABD5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2148C4-19F8-4047-AEFA-FFB71F4A1317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,13 +761,13 @@
     <t>https://drive.google.com/file/d/1pSEizCVZ624LRVDuo9Zn0sl_PZbpDZY2/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://video_non_presente</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO </t>
   </si>
   <si>
     <t>VIDEO</t>
+  </si>
+  <si>
+    <t>https://video_non_presente=</t>
   </si>
 </sst>
 </file>
@@ -918,22 +918,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +932,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3054,7 +3054,7 @@
   <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I3" sqref="I3:I360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,13 +3117,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3146,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,13 +3206,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3237,13 +3237,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3268,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3299,13 +3299,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3357,13 +3357,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3386,13 +3386,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3415,13 +3415,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3444,13 +3444,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,13 +3473,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3502,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3531,13 +3531,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3560,13 +3560,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3589,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3618,13 +3618,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3647,13 +3647,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3676,13 +3676,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3705,13 +3705,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,13 +3734,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3763,13 +3763,13 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,13 +3792,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3821,13 +3821,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3850,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3879,13 +3879,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,13 +3908,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,13 +3937,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,13 +3966,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,13 +3995,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,13 +4024,13 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,13 +4053,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4082,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,13 +4111,13 @@
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4140,13 +4140,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,13 +4169,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4198,13 +4198,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4227,13 +4227,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4256,13 +4256,13 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4285,13 +4285,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4314,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,13 +4343,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4372,13 +4372,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4401,13 +4401,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4430,13 +4430,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4459,13 +4459,13 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4488,13 +4488,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4517,13 +4517,13 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4546,13 +4546,13 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,13 +4575,13 @@
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4604,13 +4604,13 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4633,13 +4633,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,13 +4662,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4691,13 +4691,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4720,13 +4720,13 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4749,13 +4749,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4778,13 +4778,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4807,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4836,13 +4836,13 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4865,13 +4865,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4894,13 +4894,13 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,13 +4923,13 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4952,13 +4952,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,13 +4981,13 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,13 +5010,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5039,13 +5039,13 @@
         <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5068,13 +5068,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5097,13 +5097,13 @@
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5126,13 +5126,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5155,13 +5155,13 @@
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5184,13 +5184,13 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5213,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,13 +5242,13 @@
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5271,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5300,13 +5300,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5445,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5474,13 +5474,13 @@
         <v>1</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5503,13 +5503,13 @@
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5532,13 +5532,13 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5561,13 +5561,13 @@
         <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,13 +5590,13 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5619,13 +5619,13 @@
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5648,13 +5648,13 @@
         <v>2</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5677,13 +5677,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5706,13 +5706,13 @@
         <v>1</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5735,13 +5735,13 @@
         <v>1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5764,13 +5764,13 @@
         <v>2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5793,13 +5793,13 @@
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5822,13 +5822,13 @@
         <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5851,13 +5851,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5880,13 +5880,13 @@
         <v>2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5938,13 +5938,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5967,13 +5967,13 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5996,13 +5996,13 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6025,13 +6025,13 @@
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -6054,13 +6054,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -6083,13 +6083,13 @@
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -6112,13 +6112,13 @@
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -6141,13 +6141,13 @@
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -6170,13 +6170,13 @@
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6199,13 +6199,13 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6228,13 +6228,13 @@
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6257,13 +6257,13 @@
         <v>1</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -6286,13 +6286,13 @@
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -6315,13 +6315,13 @@
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -6344,13 +6344,13 @@
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -6373,13 +6373,13 @@
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -6402,13 +6402,13 @@
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -6431,13 +6431,13 @@
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6460,13 +6460,13 @@
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,13 +6489,13 @@
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6518,13 +6518,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -6547,13 +6547,13 @@
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6576,13 +6576,13 @@
         <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6605,13 +6605,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6634,13 +6634,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6663,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6692,13 +6692,13 @@
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6721,13 +6721,13 @@
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -6750,13 +6750,13 @@
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -6779,13 +6779,13 @@
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6808,13 +6808,13 @@
         <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6837,13 +6837,13 @@
         <v>2</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6866,13 +6866,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6895,13 +6895,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6924,13 +6924,13 @@
         <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6953,13 +6953,13 @@
         <v>2</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6982,13 +6982,13 @@
         <v>2</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -7011,13 +7011,13 @@
         <v>2</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -7069,13 +7069,13 @@
         <v>1</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -7098,13 +7098,13 @@
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -7127,13 +7127,13 @@
         <v>2</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -7156,13 +7156,13 @@
         <v>2</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -7185,13 +7185,13 @@
         <v>2</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -7214,13 +7214,13 @@
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -7243,13 +7243,13 @@
         <v>1</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -7272,13 +7272,13 @@
         <v>1</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -7301,13 +7301,13 @@
         <v>2</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -7330,13 +7330,13 @@
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -7359,13 +7359,13 @@
         <v>2</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -7388,13 +7388,13 @@
         <v>2</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -7475,13 +7475,13 @@
         <v>2</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -7504,13 +7504,13 @@
         <v>2</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -7533,13 +7533,13 @@
         <v>2</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7562,13 +7562,13 @@
         <v>2</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7591,13 +7591,13 @@
         <v>2</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -7620,13 +7620,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -7649,13 +7649,13 @@
         <v>2</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -7678,13 +7678,13 @@
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7707,13 +7707,13 @@
         <v>2</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,13 +7736,13 @@
         <v>2</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7910,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7939,13 +7939,13 @@
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7968,13 +7968,13 @@
         <v>2</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7997,13 +7997,13 @@
         <v>1</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -8026,13 +8026,13 @@
         <v>2</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -8055,13 +8055,13 @@
         <v>2</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -8084,13 +8084,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -8113,13 +8113,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -8142,13 +8142,13 @@
         <v>2</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -8171,13 +8171,13 @@
         <v>2</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -8200,13 +8200,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -8229,13 +8229,13 @@
         <v>2</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -8316,13 +8316,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -8345,13 +8345,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -8374,13 +8374,13 @@
         <v>2</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -8403,13 +8403,13 @@
         <v>2</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -8432,13 +8432,13 @@
         <v>2</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -8519,13 +8519,13 @@
         <v>1</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -8548,13 +8548,13 @@
         <v>2</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -8577,13 +8577,13 @@
         <v>2</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -8606,13 +8606,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8635,13 +8635,13 @@
         <v>2</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -8664,13 +8664,13 @@
         <v>2</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8693,13 +8693,13 @@
         <v>1</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8722,13 +8722,13 @@
         <v>2</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8751,13 +8751,13 @@
         <v>2</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8780,13 +8780,13 @@
         <v>2</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -8809,13 +8809,13 @@
         <v>1</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8838,13 +8838,13 @@
         <v>2</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8867,13 +8867,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8896,13 +8896,13 @@
         <v>2</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8925,13 +8925,13 @@
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8954,13 +8954,13 @@
         <v>2</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8983,13 +8983,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -9012,13 +9012,13 @@
         <v>1</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -9041,13 +9041,13 @@
         <v>2</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -9070,13 +9070,13 @@
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -9099,13 +9099,13 @@
         <v>2</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -9128,13 +9128,13 @@
         <v>1</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -9157,13 +9157,13 @@
         <v>2</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -9186,13 +9186,13 @@
         <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -9215,13 +9215,13 @@
         <v>2</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -9244,13 +9244,13 @@
         <v>2</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -9302,13 +9302,13 @@
         <v>1</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -9331,13 +9331,13 @@
         <v>1</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -9360,13 +9360,13 @@
         <v>2</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -9389,13 +9389,13 @@
         <v>2</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -9418,13 +9418,13 @@
         <v>1</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -9447,13 +9447,13 @@
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9476,13 +9476,13 @@
         <v>2</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9505,13 +9505,13 @@
         <v>1</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9534,13 +9534,13 @@
         <v>1</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -9563,13 +9563,13 @@
         <v>1</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -9592,13 +9592,13 @@
         <v>1</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -9621,13 +9621,13 @@
         <v>2</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9650,13 +9650,13 @@
         <v>2</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -9679,13 +9679,13 @@
         <v>2</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -9708,13 +9708,13 @@
         <v>2</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -9737,13 +9737,13 @@
         <v>2</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9766,13 +9766,13 @@
         <v>1</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -9795,13 +9795,13 @@
         <v>1</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -9824,13 +9824,13 @@
         <v>1</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -9853,13 +9853,13 @@
         <v>1</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -9882,13 +9882,13 @@
         <v>2</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -9911,13 +9911,13 @@
         <v>2</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -9940,13 +9940,13 @@
         <v>2</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -9969,13 +9969,13 @@
         <v>2</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9998,13 +9998,13 @@
         <v>2</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -10027,13 +10027,13 @@
         <v>2</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -10056,13 +10056,13 @@
         <v>2</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -10085,13 +10085,13 @@
         <v>1</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -10143,13 +10143,13 @@
         <v>1</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -10172,13 +10172,13 @@
         <v>2</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -10288,13 +10288,13 @@
         <v>1</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -10317,13 +10317,13 @@
         <v>1</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10346,13 +10346,13 @@
         <v>1</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10375,13 +10375,13 @@
         <v>2</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10404,13 +10404,13 @@
         <v>1</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,13 +10433,13 @@
         <v>1</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -10462,13 +10462,13 @@
         <v>1</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10491,13 +10491,13 @@
         <v>1</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10520,13 +10520,13 @@
         <v>2</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10549,13 +10549,13 @@
         <v>2</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10578,13 +10578,13 @@
         <v>2</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10607,13 +10607,13 @@
         <v>2</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10636,13 +10636,13 @@
         <v>1</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -10665,13 +10665,13 @@
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10694,13 +10694,13 @@
         <v>2</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10723,13 +10723,13 @@
         <v>1</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10752,13 +10752,13 @@
         <v>2</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10781,13 +10781,13 @@
         <v>2</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -10810,13 +10810,13 @@
         <v>2</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10839,13 +10839,13 @@
         <v>2</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10984,13 +10984,13 @@
         <v>2</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -11013,13 +11013,13 @@
         <v>1</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -11042,13 +11042,13 @@
         <v>2</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11071,13 +11071,13 @@
         <v>1</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -11100,13 +11100,13 @@
         <v>2</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -11129,13 +11129,13 @@
         <v>2</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -11274,13 +11274,13 @@
         <v>1</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -11303,13 +11303,13 @@
         <v>2</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -11332,13 +11332,13 @@
         <v>2</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -11361,13 +11361,13 @@
         <v>2</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -11390,13 +11390,13 @@
         <v>2</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -11419,13 +11419,13 @@
         <v>2</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -11448,13 +11448,13 @@
         <v>1</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -11477,13 +11477,13 @@
         <v>1</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -11506,13 +11506,13 @@
         <v>2</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -11593,13 +11593,13 @@
         <v>2</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -11622,13 +11622,13 @@
         <v>2</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -11651,13 +11651,13 @@
         <v>2</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -11680,13 +11680,13 @@
         <v>1</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -11709,13 +11709,13 @@
         <v>1</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11738,13 +11738,13 @@
         <v>2</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -11767,13 +11767,13 @@
         <v>2</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -11796,13 +11796,13 @@
         <v>2</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -11825,13 +11825,13 @@
         <v>2</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -11883,13 +11883,13 @@
         <v>2</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -11912,13 +11912,13 @@
         <v>2</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -11941,13 +11941,13 @@
         <v>1</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11970,13 +11970,13 @@
         <v>2</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11999,13 +11999,13 @@
         <v>2</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -12028,13 +12028,13 @@
         <v>2</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -12057,13 +12057,13 @@
         <v>2</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -12086,13 +12086,13 @@
         <v>1</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -12115,13 +12115,13 @@
         <v>2</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -12144,13 +12144,13 @@
         <v>2</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -12202,13 +12202,13 @@
         <v>1</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -12231,13 +12231,13 @@
         <v>1</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -12260,13 +12260,13 @@
         <v>2</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -12289,13 +12289,13 @@
         <v>2</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -12318,13 +12318,13 @@
         <v>1</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -12347,13 +12347,13 @@
         <v>1</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -12376,13 +12376,13 @@
         <v>2</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -12405,13 +12405,13 @@
         <v>1</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -12434,13 +12434,13 @@
         <v>1</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -12463,13 +12463,13 @@
         <v>2</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -12492,13 +12492,13 @@
         <v>2</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -12521,13 +12521,13 @@
         <v>2</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -12550,13 +12550,13 @@
         <v>2</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -12579,13 +12579,13 @@
         <v>1</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -12608,13 +12608,13 @@
         <v>2</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -12637,13 +12637,13 @@
         <v>1</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -12666,13 +12666,13 @@
         <v>2</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -12695,13 +12695,13 @@
         <v>1</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -12724,13 +12724,13 @@
         <v>1</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -12753,13 +12753,13 @@
         <v>1</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -12782,13 +12782,13 @@
         <v>2</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -12811,13 +12811,13 @@
         <v>1</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -12840,13 +12840,13 @@
         <v>1</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -12869,13 +12869,13 @@
         <v>2</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -12898,13 +12898,13 @@
         <v>2</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -12927,13 +12927,13 @@
         <v>2</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -12956,13 +12956,13 @@
         <v>2</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -13101,13 +13101,13 @@
         <v>1</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -13130,13 +13130,13 @@
         <v>2</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -13188,13 +13188,13 @@
         <v>1</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -13217,13 +13217,13 @@
         <v>2</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -13246,13 +13246,13 @@
         <v>2</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -13275,13 +13275,13 @@
         <v>1</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -13304,13 +13304,13 @@
         <v>1</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -13333,13 +13333,13 @@
         <v>1</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -13362,13 +13362,13 @@
         <v>2</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -13391,13 +13391,13 @@
         <v>1</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -13420,13 +13420,13 @@
         <v>1</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -13449,13 +13449,13 @@
         <v>1</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -13478,13 +13478,13 @@
         <v>2</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -13507,13 +13507,13 @@
         <v>2</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -13971,24 +13971,24 @@
     <hyperlink ref="I271" r:id="rId40" xr:uid="{AA260070-2A35-4376-8AAF-CE768079B4F8}"/>
     <hyperlink ref="I303" r:id="rId41" xr:uid="{7328BAE7-7BDD-4BC4-821E-EABB464003D7}"/>
     <hyperlink ref="I2" r:id="rId42" xr:uid="{0F5F7454-BC9E-47A6-8A89-25D72A9FD088}"/>
-    <hyperlink ref="I3" r:id="rId43" xr:uid="{C93C2658-B213-47DB-B509-627DF61878A2}"/>
-    <hyperlink ref="I5:I77" r:id="rId44" display="https://video_non_presente" xr:uid="{924AB146-5B33-4BB1-93A5-2C1963A3CD1A}"/>
-    <hyperlink ref="I82:I136" r:id="rId45" display="https://video_non_presente" xr:uid="{A0901B4B-8899-4A0E-816E-BD2547A75B03}"/>
-    <hyperlink ref="I138:I149" r:id="rId46" display="https://video_non_presente" xr:uid="{948F9012-E6CA-406A-AC4F-5448A9531ADF}"/>
-    <hyperlink ref="I152:I161" r:id="rId47" display="https://video_non_presente" xr:uid="{D87C37AA-C05E-4D84-9072-F08303597893}"/>
-    <hyperlink ref="I167:I178" r:id="rId48" display="https://video_non_presente" xr:uid="{75CA226A-EB60-42A1-AA7B-5EFFB2398B8D}"/>
-    <hyperlink ref="I181:I185" r:id="rId49" display="https://video_non_presente" xr:uid="{896C410B-D908-485F-80D4-EBCAB0AE42D7}"/>
-    <hyperlink ref="I188:I213" r:id="rId50" display="https://video_non_presente" xr:uid="{8ED1BF4F-FBB6-4D12-A42D-C72DC9DD828B}"/>
-    <hyperlink ref="I215:I242" r:id="rId51" display="https://video_non_presente" xr:uid="{F7652BE4-3D60-4995-9BE8-E892C6E5A559}"/>
-    <hyperlink ref="I244:I245" r:id="rId52" display="https://video_non_presente" xr:uid="{38634942-D152-4F38-85F5-FFF205DF19C5}"/>
-    <hyperlink ref="I249:I268" r:id="rId53" display="https://video_non_presente" xr:uid="{4AD227E5-C36E-445B-BB3A-740A394F5F4F}"/>
-    <hyperlink ref="I273:I278" r:id="rId54" display="https://video_non_presente" xr:uid="{6DD49DCF-3189-4846-843B-1775DCF538D5}"/>
-    <hyperlink ref="I283:I291" r:id="rId55" display="https://video_non_presente" xr:uid="{63C9E7A9-D7BE-4849-BBA1-A189333EF8E4}"/>
-    <hyperlink ref="I294:I302" r:id="rId56" display="https://video_non_presente" xr:uid="{C65710ED-3576-4D61-A5BC-E7789D5FBCFF}"/>
-    <hyperlink ref="I304:I313" r:id="rId57" display="https://video_non_presente" xr:uid="{ADABFBFC-47A5-4A78-904E-ACF15997BDAC}"/>
-    <hyperlink ref="I315:I341" r:id="rId58" display="https://video_non_presente" xr:uid="{69DF7E1B-1B17-4DC9-BE6C-99A7D109A1FC}"/>
-    <hyperlink ref="I346:I347" r:id="rId59" display="https://video_non_presente" xr:uid="{EABF1BDD-B308-4B78-AA17-E9852AC5492A}"/>
-    <hyperlink ref="I349:I360" r:id="rId60" display="https://video_non_presente" xr:uid="{5556098A-A185-4583-BD89-73A01B069BE4}"/>
+    <hyperlink ref="I3" r:id="rId43" xr:uid="{F9CFBF8D-A409-4CC2-816C-53E0B3894274}"/>
+    <hyperlink ref="I5:I77" r:id="rId44" display="https://video_non_presente=" xr:uid="{6F80C9DA-3EB9-45F3-968C-A4E3F7368235}"/>
+    <hyperlink ref="I82:I136" r:id="rId45" display="https://video_non_presente=" xr:uid="{481D78DF-0EE4-43B5-A2F7-9E1BD5C106BF}"/>
+    <hyperlink ref="I138:I149" r:id="rId46" display="https://video_non_presente=" xr:uid="{CA264760-86DF-4276-BACA-EEAEB0C73175}"/>
+    <hyperlink ref="I152:I161" r:id="rId47" display="https://video_non_presente=" xr:uid="{C4464D8A-3EFE-47B6-A0F4-54A98243E171}"/>
+    <hyperlink ref="I167:I178" r:id="rId48" display="https://video_non_presente=" xr:uid="{2E3A05BE-C09D-414B-B405-7607B76294E9}"/>
+    <hyperlink ref="I181:I185" r:id="rId49" display="https://video_non_presente=" xr:uid="{B2A2C558-7986-40AA-93BD-211588CC1C3E}"/>
+    <hyperlink ref="I188:I213" r:id="rId50" display="https://video_non_presente=" xr:uid="{4BFD9A14-F8F8-4A55-9969-F9B57AFAA45A}"/>
+    <hyperlink ref="I215:I242" r:id="rId51" display="https://video_non_presente=" xr:uid="{0A58804D-09C8-43B7-BD8A-E0BA491A1763}"/>
+    <hyperlink ref="I244:I245" r:id="rId52" display="https://video_non_presente=" xr:uid="{2DB9F709-8924-4D9E-8A2D-8B2EE78AA3DC}"/>
+    <hyperlink ref="I249:I268" r:id="rId53" display="https://video_non_presente=" xr:uid="{6AE1EBBA-B011-4A92-876A-6713B3F990C9}"/>
+    <hyperlink ref="I273:I278" r:id="rId54" display="https://video_non_presente=" xr:uid="{B607B16B-5E18-4BAF-B62D-B3D4C97D6511}"/>
+    <hyperlink ref="I283:I291" r:id="rId55" display="https://video_non_presente=" xr:uid="{BA51F096-4995-4C05-872D-1E75EE2E47C6}"/>
+    <hyperlink ref="I294:I302" r:id="rId56" display="https://video_non_presente=" xr:uid="{62BDB321-227B-4DAE-BF3A-B6CE7CA52F90}"/>
+    <hyperlink ref="I304:I313" r:id="rId57" display="https://video_non_presente=" xr:uid="{5ECADAB7-DDEC-425C-88A5-1E543B374C3C}"/>
+    <hyperlink ref="I315:I341" r:id="rId58" display="https://video_non_presente=" xr:uid="{7EA670D5-6A00-4F74-800C-5D350000F00D}"/>
+    <hyperlink ref="I346:I347" r:id="rId59" display="https://video_non_presente=" xr:uid="{3C4CEDF1-A5FA-4193-B17E-7AAFBAC047AC}"/>
+    <hyperlink ref="I349:I360" r:id="rId60" display="https://video_non_presente=" xr:uid="{EDB679CD-83C5-40F9-A4CC-E0FA64001B27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14021,24 +14021,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
@@ -15011,96 +15011,96 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="22"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="18"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="R32" s="18"/>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="17">
+      <c r="D33" s="14">
         <f>COUNTIF($I$3:$I$20,"1")</f>
         <v>6</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <f>COUNTIF($I$3:$I$20,"2")</f>
         <v>12</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="17">
+      <c r="M33" s="14">
         <f>COUNTIF($R$3:$R$27,"1")</f>
         <v>12</v>
       </c>
-      <c r="N33" s="18"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="17">
+      <c r="Q33" s="14">
         <f>COUNTIF($R$3:$R$27,"2")</f>
         <v>13</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="16"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
@@ -15195,86 +15195,86 @@
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="16"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="17" t="s">
+      <c r="N38" s="15"/>
+      <c r="O38" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="17" t="s">
+      <c r="P38" s="15"/>
+      <c r="Q38" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="R38" s="18"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <f>COUNTIF($H$3:$H$20,"&lt;=29")</f>
         <v>5</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17">
+      <c r="E39" s="15"/>
+      <c r="F39" s="14">
         <f>E30-D39-H39</f>
         <v>8</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17">
+      <c r="G39" s="15"/>
+      <c r="H39" s="14">
         <f>COUNTIF($H$3:$H$20,"&gt;=60")</f>
         <v>5</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="17">
+      <c r="M39" s="14">
         <f>COUNTIF($Q$3:$Q$27,"&lt;=29")</f>
         <v>7</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="17">
+      <c r="N39" s="15"/>
+      <c r="O39" s="14">
         <f>N30-M39-Q39</f>
         <v>9</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="17">
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14">
         <f>COUNTIF($Q$3:$Q$27,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="R39" s="18"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
@@ -15470,13 +15470,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
@@ -15493,11 +15491,13 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2148C4-19F8-4047-AEFA-FFB71F4A1317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9823C7A-8079-4BBE-AF77-3929F3B1D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
     <t>VIDEO</t>
   </si>
   <si>
-    <t>https://video_non_presente=</t>
+    <t>https://video_non_presente=NO</t>
   </si>
 </sst>
 </file>
@@ -918,10 +918,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,18 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3054,7 +3054,7 @@
   <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I360"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13971,24 +13971,24 @@
     <hyperlink ref="I271" r:id="rId40" xr:uid="{AA260070-2A35-4376-8AAF-CE768079B4F8}"/>
     <hyperlink ref="I303" r:id="rId41" xr:uid="{7328BAE7-7BDD-4BC4-821E-EABB464003D7}"/>
     <hyperlink ref="I2" r:id="rId42" xr:uid="{0F5F7454-BC9E-47A6-8A89-25D72A9FD088}"/>
-    <hyperlink ref="I3" r:id="rId43" xr:uid="{F9CFBF8D-A409-4CC2-816C-53E0B3894274}"/>
-    <hyperlink ref="I5:I77" r:id="rId44" display="https://video_non_presente=" xr:uid="{6F80C9DA-3EB9-45F3-968C-A4E3F7368235}"/>
-    <hyperlink ref="I82:I136" r:id="rId45" display="https://video_non_presente=" xr:uid="{481D78DF-0EE4-43B5-A2F7-9E1BD5C106BF}"/>
-    <hyperlink ref="I138:I149" r:id="rId46" display="https://video_non_presente=" xr:uid="{CA264760-86DF-4276-BACA-EEAEB0C73175}"/>
-    <hyperlink ref="I152:I161" r:id="rId47" display="https://video_non_presente=" xr:uid="{C4464D8A-3EFE-47B6-A0F4-54A98243E171}"/>
-    <hyperlink ref="I167:I178" r:id="rId48" display="https://video_non_presente=" xr:uid="{2E3A05BE-C09D-414B-B405-7607B76294E9}"/>
-    <hyperlink ref="I181:I185" r:id="rId49" display="https://video_non_presente=" xr:uid="{B2A2C558-7986-40AA-93BD-211588CC1C3E}"/>
-    <hyperlink ref="I188:I213" r:id="rId50" display="https://video_non_presente=" xr:uid="{4BFD9A14-F8F8-4A55-9969-F9B57AFAA45A}"/>
-    <hyperlink ref="I215:I242" r:id="rId51" display="https://video_non_presente=" xr:uid="{0A58804D-09C8-43B7-BD8A-E0BA491A1763}"/>
-    <hyperlink ref="I244:I245" r:id="rId52" display="https://video_non_presente=" xr:uid="{2DB9F709-8924-4D9E-8A2D-8B2EE78AA3DC}"/>
-    <hyperlink ref="I249:I268" r:id="rId53" display="https://video_non_presente=" xr:uid="{6AE1EBBA-B011-4A92-876A-6713B3F990C9}"/>
-    <hyperlink ref="I273:I278" r:id="rId54" display="https://video_non_presente=" xr:uid="{B607B16B-5E18-4BAF-B62D-B3D4C97D6511}"/>
-    <hyperlink ref="I283:I291" r:id="rId55" display="https://video_non_presente=" xr:uid="{BA51F096-4995-4C05-872D-1E75EE2E47C6}"/>
-    <hyperlink ref="I294:I302" r:id="rId56" display="https://video_non_presente=" xr:uid="{62BDB321-227B-4DAE-BF3A-B6CE7CA52F90}"/>
-    <hyperlink ref="I304:I313" r:id="rId57" display="https://video_non_presente=" xr:uid="{5ECADAB7-DDEC-425C-88A5-1E543B374C3C}"/>
-    <hyperlink ref="I315:I341" r:id="rId58" display="https://video_non_presente=" xr:uid="{7EA670D5-6A00-4F74-800C-5D350000F00D}"/>
-    <hyperlink ref="I346:I347" r:id="rId59" display="https://video_non_presente=" xr:uid="{3C4CEDF1-A5FA-4193-B17E-7AAFBAC047AC}"/>
-    <hyperlink ref="I349:I360" r:id="rId60" display="https://video_non_presente=" xr:uid="{EDB679CD-83C5-40F9-A4CC-E0FA64001B27}"/>
+    <hyperlink ref="I3" r:id="rId43" xr:uid="{261BAB5B-5416-4392-8FF9-8832E75A309B}"/>
+    <hyperlink ref="I5:I77" r:id="rId44" display="https://video_non_presente=NO" xr:uid="{E3AC5AE0-287F-48A3-80F8-4891F26F57E7}"/>
+    <hyperlink ref="I82:I136" r:id="rId45" display="https://video_non_presente=NO" xr:uid="{D7FA44DD-A0D3-490A-98D9-C3116D4148D3}"/>
+    <hyperlink ref="I138:I149" r:id="rId46" display="https://video_non_presente=NO" xr:uid="{777B68BF-3EDF-4231-9B5E-7E110B1F8985}"/>
+    <hyperlink ref="I152:I161" r:id="rId47" display="https://video_non_presente=NO" xr:uid="{DA12F5CA-869A-4031-8FD0-7AD8619F89E0}"/>
+    <hyperlink ref="I167:I178" r:id="rId48" display="https://video_non_presente=NO" xr:uid="{56B20CA1-DA0F-4527-A8E3-A472E7319B55}"/>
+    <hyperlink ref="I181:I185" r:id="rId49" display="https://video_non_presente=NO" xr:uid="{234F997E-8A34-4E8D-A3BF-4A8E86ED3CB6}"/>
+    <hyperlink ref="I188:I213" r:id="rId50" display="https://video_non_presente=NO" xr:uid="{854F47DD-60D1-4199-96FA-90C948DEB791}"/>
+    <hyperlink ref="I215:I242" r:id="rId51" display="https://video_non_presente=NO" xr:uid="{AB67ABF5-6100-4196-83D6-BD142B005978}"/>
+    <hyperlink ref="I244:I245" r:id="rId52" display="https://video_non_presente=NO" xr:uid="{FAF95B93-E36F-4436-BE81-6EF97072C8B2}"/>
+    <hyperlink ref="I249:I268" r:id="rId53" display="https://video_non_presente=NO" xr:uid="{A7F103E0-6129-49BC-AD80-AAD78E2F2B0A}"/>
+    <hyperlink ref="I273:I278" r:id="rId54" display="https://video_non_presente=NO" xr:uid="{B4D97DCE-A35D-459F-B748-3770CDD3C518}"/>
+    <hyperlink ref="I283:I291" r:id="rId55" display="https://video_non_presente=NO" xr:uid="{3E9B8E64-377F-4399-A023-92CB8E9D2030}"/>
+    <hyperlink ref="I294:I302" r:id="rId56" display="https://video_non_presente=NO" xr:uid="{511C2CBC-E1B3-4449-9C1D-7EF745F73C74}"/>
+    <hyperlink ref="I304:I313" r:id="rId57" display="https://video_non_presente=NO" xr:uid="{677552EF-316E-4376-B2AA-CBC1B5D42A11}"/>
+    <hyperlink ref="I315:I341" r:id="rId58" display="https://video_non_presente=NO" xr:uid="{9727F3C4-0936-4020-B3E4-57909B2D2A54}"/>
+    <hyperlink ref="I346:I347" r:id="rId59" display="https://video_non_presente=NO" xr:uid="{7D1AD430-9D94-4C1E-82A2-34E88BBF0C09}"/>
+    <hyperlink ref="I349:I360" r:id="rId60" display="https://video_non_presente=NO" xr:uid="{E4B6D057-B235-4761-B9D4-0D3183444B49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14021,24 +14021,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
@@ -15011,96 +15011,96 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="15"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="R32" s="15"/>
+      <c r="R32" s="18"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="14">
+      <c r="D33" s="17">
         <f>COUNTIF($I$3:$I$20,"1")</f>
         <v>6</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="14">
+      <c r="H33" s="17">
         <f>COUNTIF($I$3:$I$20,"2")</f>
         <v>12</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="14">
+      <c r="M33" s="17">
         <f>COUNTIF($R$3:$R$27,"1")</f>
         <v>12</v>
       </c>
-      <c r="N33" s="15"/>
+      <c r="N33" s="18"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="14">
+      <c r="Q33" s="17">
         <f>COUNTIF($R$3:$R$27,"2")</f>
         <v>13</v>
       </c>
-      <c r="R33" s="15"/>
+      <c r="R33" s="18"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="21"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="16"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
@@ -15195,86 +15195,86 @@
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="21"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="14" t="s">
+      <c r="N38" s="18"/>
+      <c r="O38" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="14" t="s">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="R38" s="15"/>
+      <c r="R38" s="18"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="14">
+      <c r="D39" s="17">
         <f>COUNTIF($H$3:$H$20,"&lt;=29")</f>
         <v>5</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="14">
+      <c r="E39" s="18"/>
+      <c r="F39" s="17">
         <f>E30-D39-H39</f>
         <v>8</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="14">
+      <c r="G39" s="18"/>
+      <c r="H39" s="17">
         <f>COUNTIF($H$3:$H$20,"&gt;=60")</f>
         <v>5</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="14">
+      <c r="M39" s="17">
         <f>COUNTIF($Q$3:$Q$27,"&lt;=29")</f>
         <v>7</v>
       </c>
-      <c r="N39" s="15"/>
-      <c r="O39" s="14">
+      <c r="N39" s="18"/>
+      <c r="O39" s="17">
         <f>N30-M39-Q39</f>
         <v>9</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="14">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="17">
         <f>COUNTIF($Q$3:$Q$27,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="R39" s="15"/>
+      <c r="R39" s="18"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
@@ -15470,11 +15470,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
@@ -15491,13 +15493,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9823C7A-8079-4BBE-AF77-3929F3B1D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE14E4C-A8CA-478D-9BCB-C5C7CFAD5C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="248">
   <si>
     <t>GIORNATA</t>
   </si>
@@ -918,22 +918,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +932,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="I370" sqref="I370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13593,6 +13593,15 @@
       <c r="F363" s="1">
         <v>1</v>
       </c>
+      <c r="G363" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
@@ -13613,6 +13622,15 @@
       <c r="F364" s="1">
         <v>2</v>
       </c>
+      <c r="G364" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
@@ -13633,6 +13651,15 @@
       <c r="F365" s="1">
         <v>1</v>
       </c>
+      <c r="G365" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
@@ -13653,6 +13680,15 @@
       <c r="F366" s="1">
         <v>2</v>
       </c>
+      <c r="G366" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
@@ -13673,6 +13709,15 @@
       <c r="F367" s="1">
         <v>2</v>
       </c>
+      <c r="G367" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
@@ -13693,8 +13738,17 @@
       <c r="F368" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G368" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>15</v>
       </c>
@@ -13713,8 +13767,17 @@
       <c r="F369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G369" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>15</v>
       </c>
@@ -13733,8 +13796,17 @@
       <c r="F370" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G370" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>15</v>
       </c>
@@ -13754,13 +13826,16 @@
         <v>1</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>15</v>
       </c>
@@ -13779,8 +13854,17 @@
       <c r="F372" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G372" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>15</v>
       </c>
@@ -13799,8 +13883,17 @@
       <c r="F373" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G373" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>15</v>
       </c>
@@ -13819,8 +13912,17 @@
       <c r="F374" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G374" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>15</v>
       </c>
@@ -13839,8 +13941,17 @@
       <c r="F375" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G375" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>15</v>
       </c>
@@ -13860,13 +13971,16 @@
         <v>1</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>15</v>
       </c>
@@ -13885,8 +13999,17 @@
       <c r="F377" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G377" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I377" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>15</v>
       </c>
@@ -13905,8 +14028,17 @@
       <c r="F378" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G378" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>15</v>
       </c>
@@ -13924,6 +14056,15 @@
       </c>
       <c r="F379" s="1">
         <v>1</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -13989,6 +14130,23 @@
     <hyperlink ref="I315:I341" r:id="rId58" display="https://video_non_presente=NO" xr:uid="{9727F3C4-0936-4020-B3E4-57909B2D2A54}"/>
     <hyperlink ref="I346:I347" r:id="rId59" display="https://video_non_presente=NO" xr:uid="{7D1AD430-9D94-4C1E-82A2-34E88BBF0C09}"/>
     <hyperlink ref="I349:I360" r:id="rId60" display="https://video_non_presente=NO" xr:uid="{E4B6D057-B235-4761-B9D4-0D3183444B49}"/>
+    <hyperlink ref="I363" r:id="rId61" xr:uid="{1866B4DB-7650-4DB6-AEC7-E241F1716376}"/>
+    <hyperlink ref="I364" r:id="rId62" xr:uid="{3A2CA22D-8557-4ED8-B2F8-5146E6AC57B7}"/>
+    <hyperlink ref="I365" r:id="rId63" xr:uid="{173DCA44-5B6E-4040-9314-97CB315F0413}"/>
+    <hyperlink ref="I366" r:id="rId64" xr:uid="{5D31142B-E504-48FC-928D-4872B461798F}"/>
+    <hyperlink ref="I367" r:id="rId65" xr:uid="{400DEB08-43A6-49C1-8832-7E0E1BF13865}"/>
+    <hyperlink ref="I368" r:id="rId66" xr:uid="{C30578ED-E32B-46F2-8089-C7986264C171}"/>
+    <hyperlink ref="I369" r:id="rId67" xr:uid="{B52F242D-8B94-438B-ADD0-0E9246E35F98}"/>
+    <hyperlink ref="I370" r:id="rId68" xr:uid="{9A396E56-E02E-4DD1-84D5-FF08C303862D}"/>
+    <hyperlink ref="I371" r:id="rId69" xr:uid="{4C0A792F-AF70-4A40-A928-76477A192676}"/>
+    <hyperlink ref="I372" r:id="rId70" xr:uid="{627A3FA8-50E7-430E-82A1-A4CCA8A43704}"/>
+    <hyperlink ref="I373" r:id="rId71" xr:uid="{9F46E9D9-40DA-4B6D-92EB-C62025206431}"/>
+    <hyperlink ref="I374" r:id="rId72" xr:uid="{702B6EAD-3BF0-4DC9-BEEA-D95575FFE51A}"/>
+    <hyperlink ref="I375" r:id="rId73" xr:uid="{E37D8155-D549-49FA-B51A-E9E768C7AC95}"/>
+    <hyperlink ref="I376" r:id="rId74" xr:uid="{447D599A-4245-4193-91E8-A390541C4AA4}"/>
+    <hyperlink ref="I377" r:id="rId75" xr:uid="{76004F12-91EE-48C2-B86B-2B51C80B0ABD}"/>
+    <hyperlink ref="I378" r:id="rId76" xr:uid="{83ED0139-F7AF-4DD2-B6BA-850FBD2F66B1}"/>
+    <hyperlink ref="I379" r:id="rId77" xr:uid="{F9817051-95F2-4B53-901C-BE8E05B3669B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14021,24 +14179,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
@@ -15011,96 +15169,96 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="22"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="18"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="R32" s="18"/>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="17">
+      <c r="D33" s="14">
         <f>COUNTIF($I$3:$I$20,"1")</f>
         <v>6</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <f>COUNTIF($I$3:$I$20,"2")</f>
         <v>12</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="17">
+      <c r="M33" s="14">
         <f>COUNTIF($R$3:$R$27,"1")</f>
         <v>12</v>
       </c>
-      <c r="N33" s="18"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="17">
+      <c r="Q33" s="14">
         <f>COUNTIF($R$3:$R$27,"2")</f>
         <v>13</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="16"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
@@ -15195,86 +15353,86 @@
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="16"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="17" t="s">
+      <c r="N38" s="15"/>
+      <c r="O38" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="17" t="s">
+      <c r="P38" s="15"/>
+      <c r="Q38" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="R38" s="18"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="17">
+      <c r="D39" s="14">
         <f>COUNTIF($H$3:$H$20,"&lt;=29")</f>
         <v>5</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17">
+      <c r="E39" s="15"/>
+      <c r="F39" s="14">
         <f>E30-D39-H39</f>
         <v>8</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17">
+      <c r="G39" s="15"/>
+      <c r="H39" s="14">
         <f>COUNTIF($H$3:$H$20,"&gt;=60")</f>
         <v>5</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="17">
+      <c r="M39" s="14">
         <f>COUNTIF($Q$3:$Q$27,"&lt;=29")</f>
         <v>7</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="17">
+      <c r="N39" s="15"/>
+      <c r="O39" s="14">
         <f>N30-M39-Q39</f>
         <v>9</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="17">
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14">
         <f>COUNTIF($Q$3:$Q$27,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="R39" s="18"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
@@ -15470,13 +15628,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
@@ -15493,11 +15649,13 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE14E4C-A8CA-478D-9BCB-C5C7CFAD5C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049EF73-2CD8-4A8B-9677-14FDF407F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="247">
   <si>
     <t>GIORNATA</t>
   </si>
@@ -761,13 +761,10 @@
     <t>https://drive.google.com/file/d/1pSEizCVZ624LRVDuo9Zn0sl_PZbpDZY2/view?usp=sharing</t>
   </si>
   <si>
-    <t xml:space="preserve">NO </t>
-  </si>
-  <si>
-    <t>VIDEO</t>
-  </si>
-  <si>
     <t>https://video_non_presente=NO</t>
+  </si>
+  <si>
+    <t>novideo</t>
   </si>
 </sst>
 </file>
@@ -3053,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="I370" sqref="I370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,13 +3114,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3146,13 +3143,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3237,13 +3234,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3268,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3299,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3328,13 +3325,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3357,13 +3354,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3386,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3415,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3444,13 +3441,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3502,13 +3499,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3531,13 +3528,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3560,13 +3557,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3589,13 +3586,13 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3618,13 +3615,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3647,13 +3644,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3676,13 +3673,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3705,13 +3702,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,13 +3731,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3763,13 +3760,13 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,13 +3789,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3821,13 +3818,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3850,13 +3847,13 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3879,13 +3876,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,13 +3992,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,13 +4021,13 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4082,13 +4079,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,13 +4108,13 @@
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4140,13 +4137,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,13 +4166,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4198,13 +4195,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4227,13 +4224,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4256,13 +4253,13 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4285,13 +4282,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4314,13 +4311,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,13 +4340,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4372,13 +4369,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4401,13 +4398,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4430,13 +4427,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4459,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4488,13 +4485,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4517,13 +4514,13 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4546,13 +4543,13 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,13 +4572,13 @@
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4604,13 +4601,13 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4633,13 +4630,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,13 +4659,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4691,13 +4688,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4720,13 +4717,13 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4749,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4778,13 +4775,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4807,13 +4804,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4836,13 +4833,13 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4865,13 +4862,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4894,13 +4891,13 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,13 +4920,13 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4952,13 +4949,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,13 +4978,13 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5039,13 +5036,13 @@
         <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5068,13 +5065,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5097,13 +5094,13 @@
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5126,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5155,13 +5152,13 @@
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5184,13 +5181,13 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5213,13 +5210,13 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5271,13 +5268,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5300,13 +5297,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5445,13 +5442,13 @@
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5474,13 +5471,13 @@
         <v>1</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5503,13 +5500,13 @@
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5532,13 +5529,13 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5561,13 +5558,13 @@
         <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,13 +5587,13 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5619,13 +5616,13 @@
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5648,13 +5645,13 @@
         <v>2</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5677,13 +5674,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5706,13 +5703,13 @@
         <v>1</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5735,13 +5732,13 @@
         <v>1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5764,13 +5761,13 @@
         <v>2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5793,13 +5790,13 @@
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5822,13 +5819,13 @@
         <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5851,13 +5848,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5880,13 +5877,13 @@
         <v>2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,13 +5906,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5938,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5967,13 +5964,13 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5996,13 +5993,13 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6025,13 +6022,13 @@
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -6054,13 +6051,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -6083,13 +6080,13 @@
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -6112,13 +6109,13 @@
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -6141,13 +6138,13 @@
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -6170,13 +6167,13 @@
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6199,13 +6196,13 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6228,13 +6225,13 @@
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6257,13 +6254,13 @@
         <v>1</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -6286,13 +6283,13 @@
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -6315,13 +6312,13 @@
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -6344,13 +6341,13 @@
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -6373,13 +6370,13 @@
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -6402,13 +6399,13 @@
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -6431,13 +6428,13 @@
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6460,13 +6457,13 @@
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,13 +6486,13 @@
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6518,13 +6515,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -6547,13 +6544,13 @@
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6576,13 +6573,13 @@
         <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6605,13 +6602,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6634,13 +6631,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6663,13 +6660,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6692,13 +6689,13 @@
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6721,13 +6718,13 @@
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -6750,13 +6747,13 @@
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -6779,13 +6776,13 @@
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6808,13 +6805,13 @@
         <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6837,13 +6834,13 @@
         <v>2</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6866,13 +6863,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6895,13 +6892,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6924,13 +6921,13 @@
         <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6953,13 +6950,13 @@
         <v>2</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6982,13 +6979,13 @@
         <v>2</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -7011,13 +7008,13 @@
         <v>2</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -7069,13 +7066,13 @@
         <v>1</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -7098,13 +7095,13 @@
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -7127,13 +7124,13 @@
         <v>2</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -7156,13 +7153,13 @@
         <v>2</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -7185,13 +7182,13 @@
         <v>2</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -7214,13 +7211,13 @@
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -7243,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -7272,13 +7269,13 @@
         <v>1</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -7301,13 +7298,13 @@
         <v>2</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -7330,13 +7327,13 @@
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -7359,13 +7356,13 @@
         <v>2</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -7388,13 +7385,13 @@
         <v>2</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -7475,13 +7472,13 @@
         <v>2</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -7504,13 +7501,13 @@
         <v>2</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -7533,13 +7530,13 @@
         <v>2</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7562,13 +7559,13 @@
         <v>2</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7591,13 +7588,13 @@
         <v>2</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -7620,13 +7617,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -7649,13 +7646,13 @@
         <v>2</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -7678,13 +7675,13 @@
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7707,13 +7704,13 @@
         <v>2</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,13 +7733,13 @@
         <v>2</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7910,13 +7907,13 @@
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7939,13 +7936,13 @@
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7968,13 +7965,13 @@
         <v>2</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7997,13 +7994,13 @@
         <v>1</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -8026,13 +8023,13 @@
         <v>2</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -8055,13 +8052,13 @@
         <v>2</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -8084,13 +8081,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -8113,13 +8110,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -8142,13 +8139,13 @@
         <v>2</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -8171,13 +8168,13 @@
         <v>2</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -8200,13 +8197,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -8229,13 +8226,13 @@
         <v>2</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -8316,13 +8313,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -8345,13 +8342,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -8374,13 +8371,13 @@
         <v>2</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -8403,13 +8400,13 @@
         <v>2</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -8432,13 +8429,13 @@
         <v>2</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -8519,13 +8516,13 @@
         <v>1</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -8548,13 +8545,13 @@
         <v>2</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -8577,13 +8574,13 @@
         <v>2</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -8606,13 +8603,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8635,13 +8632,13 @@
         <v>2</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -8664,13 +8661,13 @@
         <v>2</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8693,13 +8690,13 @@
         <v>1</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8722,13 +8719,13 @@
         <v>2</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8751,13 +8748,13 @@
         <v>2</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8780,13 +8777,13 @@
         <v>2</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -8809,13 +8806,13 @@
         <v>1</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8838,13 +8835,13 @@
         <v>2</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8867,13 +8864,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8896,13 +8893,13 @@
         <v>2</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8925,13 +8922,13 @@
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8954,13 +8951,13 @@
         <v>2</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8983,13 +8980,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -9012,13 +9009,13 @@
         <v>1</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -9041,13 +9038,13 @@
         <v>2</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -9070,13 +9067,13 @@
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -9099,13 +9096,13 @@
         <v>2</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -9128,13 +9125,13 @@
         <v>1</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -9157,13 +9154,13 @@
         <v>2</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -9186,13 +9183,13 @@
         <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -9215,13 +9212,13 @@
         <v>2</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -9244,13 +9241,13 @@
         <v>2</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -9302,13 +9299,13 @@
         <v>1</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -9331,13 +9328,13 @@
         <v>1</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -9360,13 +9357,13 @@
         <v>2</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -9389,13 +9386,13 @@
         <v>2</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -9418,13 +9415,13 @@
         <v>1</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -9447,13 +9444,13 @@
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9476,13 +9473,13 @@
         <v>2</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9505,13 +9502,13 @@
         <v>1</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9534,13 +9531,13 @@
         <v>1</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -9563,13 +9560,13 @@
         <v>1</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -9592,13 +9589,13 @@
         <v>1</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -9621,13 +9618,13 @@
         <v>2</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9650,13 +9647,13 @@
         <v>2</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -9679,13 +9676,13 @@
         <v>2</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -9708,13 +9705,13 @@
         <v>2</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -9737,13 +9734,13 @@
         <v>2</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9766,13 +9763,13 @@
         <v>1</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -9795,13 +9792,13 @@
         <v>1</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -9824,13 +9821,13 @@
         <v>1</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -9853,13 +9850,13 @@
         <v>1</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -9882,13 +9879,13 @@
         <v>2</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -9911,13 +9908,13 @@
         <v>2</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -9940,13 +9937,13 @@
         <v>2</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -9969,13 +9966,13 @@
         <v>2</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9998,13 +9995,13 @@
         <v>2</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -10027,13 +10024,13 @@
         <v>2</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -10056,13 +10053,13 @@
         <v>2</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -10085,13 +10082,13 @@
         <v>1</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -10143,13 +10140,13 @@
         <v>1</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -10172,13 +10169,13 @@
         <v>2</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -10288,13 +10285,13 @@
         <v>1</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -10317,13 +10314,13 @@
         <v>1</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10346,13 +10343,13 @@
         <v>1</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10375,13 +10372,13 @@
         <v>2</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10404,13 +10401,13 @@
         <v>1</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,13 +10430,13 @@
         <v>1</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -10462,13 +10459,13 @@
         <v>1</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10491,13 +10488,13 @@
         <v>1</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H256" s="1">
+        <v>0</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10520,13 +10517,13 @@
         <v>2</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10549,13 +10546,13 @@
         <v>2</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H258" s="1">
+        <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10578,13 +10575,13 @@
         <v>2</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10607,13 +10604,13 @@
         <v>2</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10636,13 +10633,13 @@
         <v>1</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -10665,13 +10662,13 @@
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10694,13 +10691,13 @@
         <v>2</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10723,13 +10720,13 @@
         <v>1</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10752,13 +10749,13 @@
         <v>2</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10781,13 +10778,13 @@
         <v>2</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -10810,13 +10807,13 @@
         <v>2</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10839,13 +10836,13 @@
         <v>2</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10984,13 +10981,13 @@
         <v>2</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H273" s="1">
+        <v>0</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -11013,13 +11010,13 @@
         <v>1</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -11042,13 +11039,13 @@
         <v>2</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11071,13 +11068,13 @@
         <v>1</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H276" s="1">
+        <v>0</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -11100,13 +11097,13 @@
         <v>2</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H277" s="1">
+        <v>0</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -11129,13 +11126,13 @@
         <v>2</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H278" s="1">
+        <v>0</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -11274,13 +11271,13 @@
         <v>1</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -11303,13 +11300,13 @@
         <v>2</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H284" s="1">
+        <v>0</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -11332,13 +11329,13 @@
         <v>2</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H285" s="1">
+        <v>0</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -11361,13 +11358,13 @@
         <v>2</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H286" s="1">
+        <v>0</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -11390,13 +11387,13 @@
         <v>2</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H287" s="1">
+        <v>0</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -11419,13 +11416,13 @@
         <v>2</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H288" s="1">
+        <v>0</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -11448,13 +11445,13 @@
         <v>1</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H289" s="1">
+        <v>0</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -11477,13 +11474,13 @@
         <v>1</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H290" s="1">
+        <v>0</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -11506,13 +11503,13 @@
         <v>2</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H291" s="1">
+        <v>0</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -11593,13 +11590,13 @@
         <v>2</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H294" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -11622,13 +11619,13 @@
         <v>2</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H295" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H295" s="1">
+        <v>0</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -11651,13 +11648,13 @@
         <v>2</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H296" s="1">
+        <v>0</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -11680,13 +11677,13 @@
         <v>1</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H297" s="1">
+        <v>0</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -11709,13 +11706,13 @@
         <v>1</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H298" s="1">
+        <v>0</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11738,13 +11735,13 @@
         <v>2</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H299" s="1">
+        <v>0</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -11767,13 +11764,13 @@
         <v>2</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H300" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H300" s="1">
+        <v>0</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -11796,13 +11793,13 @@
         <v>2</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H301" s="1">
+        <v>0</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -11825,13 +11822,13 @@
         <v>2</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H302" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H302" s="1">
+        <v>0</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -11883,13 +11880,13 @@
         <v>2</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H304" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H304" s="1">
+        <v>0</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -11912,13 +11909,13 @@
         <v>2</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H305" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H305" s="1">
+        <v>0</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -11941,13 +11938,13 @@
         <v>1</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H306" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H306" s="1">
+        <v>0</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11970,13 +11967,13 @@
         <v>2</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H307" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H307" s="1">
+        <v>0</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11999,13 +11996,13 @@
         <v>2</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H308" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H308" s="1">
+        <v>0</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -12028,13 +12025,13 @@
         <v>2</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H309" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H309" s="1">
+        <v>0</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -12057,13 +12054,13 @@
         <v>2</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H310" s="1">
+        <v>0</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -12086,13 +12083,13 @@
         <v>1</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H311" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H311" s="1">
+        <v>0</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -12115,13 +12112,13 @@
         <v>2</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H312" s="1">
+        <v>0</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -12144,13 +12141,13 @@
         <v>2</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H313" s="1">
+        <v>0</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -12202,13 +12199,13 @@
         <v>1</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H315" s="1">
+        <v>0</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -12231,13 +12228,13 @@
         <v>1</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H316" s="1">
+        <v>0</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -12260,13 +12257,13 @@
         <v>2</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H317" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H317" s="1">
+        <v>0</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -12289,13 +12286,13 @@
         <v>2</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H318" s="1">
+        <v>0</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -12318,13 +12315,13 @@
         <v>1</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H319" s="1">
+        <v>0</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -12347,13 +12344,13 @@
         <v>1</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H320" s="1">
+        <v>0</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -12376,13 +12373,13 @@
         <v>2</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H321" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H321" s="1">
+        <v>0</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -12405,13 +12402,13 @@
         <v>1</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H322" s="1">
+        <v>0</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -12434,13 +12431,13 @@
         <v>1</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H323" s="1">
+        <v>0</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -12463,13 +12460,13 @@
         <v>2</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H324" s="1">
+        <v>0</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -12492,13 +12489,13 @@
         <v>2</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H325" s="1">
+        <v>0</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -12521,13 +12518,13 @@
         <v>2</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H326" s="1">
+        <v>0</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -12550,13 +12547,13 @@
         <v>2</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H327" s="1">
+        <v>0</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -12579,13 +12576,13 @@
         <v>1</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H328" s="1">
+        <v>0</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -12608,13 +12605,13 @@
         <v>2</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H329" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H329" s="1">
+        <v>0</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -12637,13 +12634,13 @@
         <v>1</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H330" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H330" s="1">
+        <v>0</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -12666,13 +12663,13 @@
         <v>2</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H331" s="1">
+        <v>0</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -12695,13 +12692,13 @@
         <v>1</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H332" s="1">
+        <v>0</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -12724,13 +12721,13 @@
         <v>1</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H333" s="1">
+        <v>0</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -12753,13 +12750,13 @@
         <v>1</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H334" s="1">
+        <v>0</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -12782,13 +12779,13 @@
         <v>2</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H335" s="1">
+        <v>0</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -12811,13 +12808,13 @@
         <v>1</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H336" s="1">
+        <v>0</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -12840,13 +12837,13 @@
         <v>1</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H337" s="1">
+        <v>0</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -12869,13 +12866,13 @@
         <v>2</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H338" s="1">
+        <v>0</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -12898,13 +12895,13 @@
         <v>2</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H339" s="1">
+        <v>0</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -12927,13 +12924,13 @@
         <v>2</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H340" s="1">
+        <v>0</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -12956,13 +12953,13 @@
         <v>2</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H341" s="1">
+        <v>0</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -13101,13 +13098,13 @@
         <v>1</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H346" s="1">
+        <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -13130,13 +13127,13 @@
         <v>2</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H347" s="1">
+        <v>0</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -13188,13 +13185,13 @@
         <v>1</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H349" s="1">
+        <v>0</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -13217,13 +13214,13 @@
         <v>2</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H350" s="1">
+        <v>0</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -13246,13 +13243,13 @@
         <v>2</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H351" s="1">
+        <v>0</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -13275,13 +13272,13 @@
         <v>1</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H352" s="1">
+        <v>0</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -13304,13 +13301,13 @@
         <v>1</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H353" s="1">
+        <v>0</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -13333,13 +13330,13 @@
         <v>1</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H354" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H354" s="1">
+        <v>0</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -13362,13 +13359,13 @@
         <v>2</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H355" s="1">
+        <v>0</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -13391,13 +13388,13 @@
         <v>1</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H356" s="1">
+        <v>0</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -13420,13 +13417,13 @@
         <v>1</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H357" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H357" s="1">
+        <v>0</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -13449,13 +13446,13 @@
         <v>1</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H358" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H358" s="1">
+        <v>0</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -13478,13 +13475,13 @@
         <v>2</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H359" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H359" s="1">
+        <v>0</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -13507,13 +13504,13 @@
         <v>2</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H360" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H360" s="1">
+        <v>0</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -13594,13 +13591,13 @@
         <v>1</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H363" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H363" s="1">
+        <v>0</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -13623,13 +13620,13 @@
         <v>2</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H364" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H364" s="1">
+        <v>0</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -13652,13 +13649,13 @@
         <v>1</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H365" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H365" s="1">
+        <v>0</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -13681,13 +13678,13 @@
         <v>2</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H366" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H366" s="1">
+        <v>0</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -13710,13 +13707,13 @@
         <v>2</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H367" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H367" s="1">
+        <v>0</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -13739,13 +13736,13 @@
         <v>2</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H368" s="1">
+        <v>0</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -13768,13 +13765,13 @@
         <v>1</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H369" s="1">
+        <v>0</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -13797,13 +13794,13 @@
         <v>2</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H370" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H370" s="1">
+        <v>0</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -13826,13 +13823,13 @@
         <v>1</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H371" s="1">
+        <v>0</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -13855,13 +13852,13 @@
         <v>1</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H372" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H372" s="1">
+        <v>0</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -13884,13 +13881,13 @@
         <v>1</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H373" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H373" s="1">
+        <v>0</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -13913,13 +13910,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H374" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H374" s="1">
+        <v>0</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -13942,13 +13939,13 @@
         <v>2</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H375" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H375" s="1">
+        <v>0</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -13971,13 +13968,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H376" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H376" s="1">
+        <v>0</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -14000,13 +13997,13 @@
         <v>2</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H377" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H377" s="1">
+        <v>0</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -14029,13 +14026,13 @@
         <v>2</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H378" s="1">
+        <v>0</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -14058,13 +14055,13 @@
         <v>1</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>246</v>
+        <v>246</v>
+      </c>
+      <c r="H379" s="1">
+        <v>0</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049EF73-2CD8-4A8B-9677-14FDF407F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B00EB-BB76-4255-931C-1B5006FD0681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="249">
   <si>
     <t>GIORNATA</t>
   </si>
@@ -765,6 +765,12 @@
   </si>
   <si>
     <t>novideo</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2T</t>
   </si>
 </sst>
 </file>
@@ -915,10 +921,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,18 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3051,7 +3057,7 @@
   <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F6" sqref="F6:F378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,8 +3116,8 @@
       <c r="E2" s="1">
         <v>29</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>246</v>
@@ -3139,8 +3145,8 @@
       <c r="E3" s="1">
         <v>44</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>246</v>
@@ -3168,8 +3174,8 @@
       <c r="E4" s="1">
         <v>26</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -3199,8 +3205,8 @@
       <c r="E5" s="1">
         <v>57</v>
       </c>
-      <c r="F5" s="1">
-        <v>2</v>
+      <c r="F5" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>246</v>
@@ -3230,8 +3236,8 @@
       <c r="E6" s="1">
         <v>73</v>
       </c>
-      <c r="F6" s="1">
-        <v>2</v>
+      <c r="F6" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>246</v>
@@ -3261,8 +3267,8 @@
       <c r="E7" s="1">
         <v>31</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>246</v>
@@ -3292,8 +3298,8 @@
       <c r="E8" s="1">
         <v>75</v>
       </c>
-      <c r="F8" s="1">
-        <v>2</v>
+      <c r="F8" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>246</v>
@@ -3321,8 +3327,8 @@
       <c r="E9" s="1">
         <v>90</v>
       </c>
-      <c r="F9" s="1">
-        <v>2</v>
+      <c r="F9" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>246</v>
@@ -3350,8 +3356,8 @@
       <c r="E10" s="1">
         <v>20</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
+      <c r="F10" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>246</v>
@@ -3379,8 +3385,8 @@
       <c r="E11" s="1">
         <v>36</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
+      <c r="F11" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>246</v>
@@ -3408,8 +3414,8 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
+      <c r="F12" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>246</v>
@@ -3437,8 +3443,8 @@
       <c r="E13" s="1">
         <v>63</v>
       </c>
-      <c r="F13" s="1">
-        <v>2</v>
+      <c r="F13" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>246</v>
@@ -3466,8 +3472,8 @@
       <c r="E14" s="1">
         <v>45</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>246</v>
@@ -3495,8 +3501,8 @@
       <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
+      <c r="F15" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>246</v>
@@ -3524,8 +3530,8 @@
       <c r="E16" s="1">
         <v>23</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
+      <c r="F16" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>246</v>
@@ -3553,8 +3559,8 @@
       <c r="E17" s="1">
         <v>41</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
+      <c r="F17" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>246</v>
@@ -3582,8 +3588,8 @@
       <c r="E18" s="1">
         <v>49</v>
       </c>
-      <c r="F18" s="1">
-        <v>2</v>
+      <c r="F18" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>246</v>
@@ -3611,8 +3617,8 @@
       <c r="E19" s="1">
         <v>91</v>
       </c>
-      <c r="F19" s="1">
-        <v>2</v>
+      <c r="F19" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>246</v>
@@ -3640,8 +3646,8 @@
       <c r="E20" s="1">
         <v>47</v>
       </c>
-      <c r="F20" s="1">
-        <v>2</v>
+      <c r="F20" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>246</v>
@@ -3669,8 +3675,8 @@
       <c r="E21" s="1">
         <v>88</v>
       </c>
-      <c r="F21" s="1">
-        <v>2</v>
+      <c r="F21" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>246</v>
@@ -3698,8 +3704,8 @@
       <c r="E22" s="1">
         <v>17</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
+      <c r="F22" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>246</v>
@@ -3727,8 +3733,8 @@
       <c r="E23" s="1">
         <v>46</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
+      <c r="F23" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>246</v>
@@ -3756,8 +3762,8 @@
       <c r="E24" s="1">
         <v>79</v>
       </c>
-      <c r="F24" s="1">
-        <v>2</v>
+      <c r="F24" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>246</v>
@@ -3785,8 +3791,8 @@
       <c r="E25" s="1">
         <v>84</v>
       </c>
-      <c r="F25" s="1">
-        <v>2</v>
+      <c r="F25" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>246</v>
@@ -3814,8 +3820,8 @@
       <c r="E26" s="1">
         <v>69</v>
       </c>
-      <c r="F26" s="1">
-        <v>2</v>
+      <c r="F26" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>246</v>
@@ -3843,8 +3849,8 @@
       <c r="E27" s="1">
         <v>83</v>
       </c>
-      <c r="F27" s="1">
-        <v>2</v>
+      <c r="F27" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>246</v>
@@ -3872,8 +3878,8 @@
       <c r="E28" s="1">
         <v>93</v>
       </c>
-      <c r="F28" s="1">
-        <v>2</v>
+      <c r="F28" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>246</v>
@@ -3901,8 +3907,8 @@
       <c r="E29" s="1">
         <v>45</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
+      <c r="F29" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>246</v>
@@ -3930,8 +3936,8 @@
       <c r="E30" s="1">
         <v>31</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
+      <c r="F30" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>246</v>
@@ -3959,8 +3965,8 @@
       <c r="E31" s="1">
         <v>40</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
+      <c r="F31" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>246</v>
@@ -3988,8 +3994,8 @@
       <c r="E32" s="1">
         <v>47</v>
       </c>
-      <c r="F32" s="1">
-        <v>2</v>
+      <c r="F32" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>246</v>
@@ -4017,8 +4023,8 @@
       <c r="E33" s="1">
         <v>60</v>
       </c>
-      <c r="F33" s="1">
-        <v>2</v>
+      <c r="F33" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>246</v>
@@ -4046,8 +4052,8 @@
       <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
+      <c r="F34" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>246</v>
@@ -4075,8 +4081,8 @@
       <c r="E35" s="1">
         <v>12</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
+      <c r="F35" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>246</v>
@@ -4104,8 +4110,8 @@
       <c r="E36" s="1">
         <v>48</v>
       </c>
-      <c r="F36" s="1">
-        <v>2</v>
+      <c r="F36" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>246</v>
@@ -4133,8 +4139,8 @@
       <c r="E37" s="1">
         <v>30</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
+      <c r="F37" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>246</v>
@@ -4162,8 +4168,8 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
+      <c r="F38" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>246</v>
@@ -4191,8 +4197,8 @@
       <c r="E39" s="1">
         <v>46</v>
       </c>
-      <c r="F39" s="1">
-        <v>2</v>
+      <c r="F39" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>246</v>
@@ -4220,8 +4226,8 @@
       <c r="E40" s="1">
         <v>54</v>
       </c>
-      <c r="F40" s="1">
-        <v>2</v>
+      <c r="F40" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>246</v>
@@ -4249,8 +4255,8 @@
       <c r="E41" s="1">
         <v>95</v>
       </c>
-      <c r="F41" s="1">
-        <v>2</v>
+      <c r="F41" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>246</v>
@@ -4278,8 +4284,8 @@
       <c r="E42" s="1">
         <v>15</v>
       </c>
-      <c r="F42" s="1">
-        <v>1</v>
+      <c r="F42" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>246</v>
@@ -4307,8 +4313,8 @@
       <c r="E43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
+      <c r="F43" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>246</v>
@@ -4336,8 +4342,8 @@
       <c r="E44" s="1">
         <v>89</v>
       </c>
-      <c r="F44" s="1">
-        <v>2</v>
+      <c r="F44" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>246</v>
@@ -4365,8 +4371,8 @@
       <c r="E45" s="1">
         <v>69</v>
       </c>
-      <c r="F45" s="1">
-        <v>2</v>
+      <c r="F45" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>246</v>
@@ -4394,8 +4400,8 @@
       <c r="E46" s="1">
         <v>12</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
+      <c r="F46" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>246</v>
@@ -4423,8 +4429,8 @@
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="1">
-        <v>1</v>
+      <c r="F47" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>246</v>
@@ -4452,8 +4458,8 @@
       <c r="E48" s="1">
         <v>23</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
+      <c r="F48" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>246</v>
@@ -4481,8 +4487,8 @@
       <c r="E49" s="1">
         <v>43</v>
       </c>
-      <c r="F49" s="1">
-        <v>1</v>
+      <c r="F49" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>246</v>
@@ -4510,8 +4516,8 @@
       <c r="E50" s="1">
         <v>61</v>
       </c>
-      <c r="F50" s="1">
-        <v>2</v>
+      <c r="F50" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>246</v>
@@ -4539,8 +4545,8 @@
       <c r="E51" s="1">
         <v>52</v>
       </c>
-      <c r="F51" s="1">
-        <v>2</v>
+      <c r="F51" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>246</v>
@@ -4568,8 +4574,8 @@
       <c r="E52" s="1">
         <v>70</v>
       </c>
-      <c r="F52" s="1">
-        <v>2</v>
+      <c r="F52" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>246</v>
@@ -4597,8 +4603,8 @@
       <c r="E53" s="1">
         <v>88</v>
       </c>
-      <c r="F53" s="1">
-        <v>2</v>
+      <c r="F53" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>246</v>
@@ -4626,8 +4632,8 @@
       <c r="E54" s="1">
         <v>16</v>
       </c>
-      <c r="F54" s="1">
-        <v>1</v>
+      <c r="F54" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>246</v>
@@ -4655,8 +4661,8 @@
       <c r="E55" s="1">
         <v>42</v>
       </c>
-      <c r="F55" s="1">
-        <v>1</v>
+      <c r="F55" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>246</v>
@@ -4684,8 +4690,8 @@
       <c r="E56" s="1">
         <v>35</v>
       </c>
-      <c r="F56" s="1">
-        <v>1</v>
+      <c r="F56" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>246</v>
@@ -4713,8 +4719,8 @@
       <c r="E57" s="1">
         <v>95</v>
       </c>
-      <c r="F57" s="1">
-        <v>2</v>
+      <c r="F57" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>246</v>
@@ -4742,8 +4748,8 @@
       <c r="E58" s="1">
         <v>8</v>
       </c>
-      <c r="F58" s="1">
-        <v>1</v>
+      <c r="F58" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>246</v>
@@ -4771,8 +4777,8 @@
       <c r="E59" s="1">
         <v>44</v>
       </c>
-      <c r="F59" s="1">
-        <v>1</v>
+      <c r="F59" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>246</v>
@@ -4800,8 +4806,8 @@
       <c r="E60" s="1">
         <v>41</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
+      <c r="F60" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>246</v>
@@ -4829,8 +4835,8 @@
       <c r="E61" s="1">
         <v>79</v>
       </c>
-      <c r="F61" s="1">
-        <v>2</v>
+      <c r="F61" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>246</v>
@@ -4858,8 +4864,8 @@
       <c r="E62" s="1">
         <v>85</v>
       </c>
-      <c r="F62" s="1">
-        <v>2</v>
+      <c r="F62" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>246</v>
@@ -4887,8 +4893,8 @@
       <c r="E63" s="1">
         <v>91</v>
       </c>
-      <c r="F63" s="1">
-        <v>2</v>
+      <c r="F63" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>246</v>
@@ -4916,8 +4922,8 @@
       <c r="E64" s="1">
         <v>50</v>
       </c>
-      <c r="F64" s="1">
-        <v>2</v>
+      <c r="F64" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>246</v>
@@ -4945,8 +4951,8 @@
       <c r="E65" s="1">
         <v>7</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
+      <c r="F65" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>246</v>
@@ -4974,8 +4980,8 @@
       <c r="E66" s="1">
         <v>55</v>
       </c>
-      <c r="F66" s="1">
-        <v>2</v>
+      <c r="F66" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>246</v>
@@ -5003,8 +5009,8 @@
       <c r="E67" s="1">
         <v>34</v>
       </c>
-      <c r="F67" s="1">
-        <v>1</v>
+      <c r="F67" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>246</v>
@@ -5032,8 +5038,8 @@
       <c r="E68" s="1">
         <v>42</v>
       </c>
-      <c r="F68" s="1">
-        <v>1</v>
+      <c r="F68" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>246</v>
@@ -5061,8 +5067,8 @@
       <c r="E69" s="1">
         <v>45</v>
       </c>
-      <c r="F69" s="1">
-        <v>1</v>
+      <c r="F69" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>246</v>
@@ -5090,8 +5096,8 @@
       <c r="E70" s="1">
         <v>50</v>
       </c>
-      <c r="F70" s="1">
-        <v>2</v>
+      <c r="F70" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>246</v>
@@ -5119,8 +5125,8 @@
       <c r="E71" s="1">
         <v>15</v>
       </c>
-      <c r="F71" s="1">
-        <v>1</v>
+      <c r="F71" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>246</v>
@@ -5148,8 +5154,8 @@
       <c r="E72" s="1">
         <v>53</v>
       </c>
-      <c r="F72" s="1">
-        <v>2</v>
+      <c r="F72" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>246</v>
@@ -5177,8 +5183,8 @@
       <c r="E73" s="1">
         <v>75</v>
       </c>
-      <c r="F73" s="1">
-        <v>2</v>
+      <c r="F73" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>246</v>
@@ -5206,8 +5212,8 @@
       <c r="E74" s="1">
         <v>7</v>
       </c>
-      <c r="F74" s="1">
-        <v>1</v>
+      <c r="F74" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>246</v>
@@ -5235,8 +5241,8 @@
       <c r="E75" s="1">
         <v>13</v>
       </c>
-      <c r="F75" s="1">
-        <v>1</v>
+      <c r="F75" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>246</v>
@@ -5264,8 +5270,8 @@
       <c r="E76" s="1">
         <v>18</v>
       </c>
-      <c r="F76" s="1">
-        <v>1</v>
+      <c r="F76" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>246</v>
@@ -5293,8 +5299,8 @@
       <c r="E77" s="1">
         <v>21</v>
       </c>
-      <c r="F77" s="1">
-        <v>1</v>
+      <c r="F77" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>246</v>
@@ -5322,8 +5328,8 @@
       <c r="E78" s="1">
         <v>29</v>
       </c>
-      <c r="F78" s="1">
-        <v>1</v>
+      <c r="F78" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>7</v>
@@ -5351,8 +5357,8 @@
       <c r="E79" s="1">
         <v>35</v>
       </c>
-      <c r="F79" s="1">
-        <v>1</v>
+      <c r="F79" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>8</v>
@@ -5380,8 +5386,8 @@
       <c r="E80" s="1">
         <v>37</v>
       </c>
-      <c r="F80" s="1">
-        <v>1</v>
+      <c r="F80" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>7</v>
@@ -5409,8 +5415,8 @@
       <c r="E81" s="1">
         <v>54</v>
       </c>
-      <c r="F81" s="1">
-        <v>2</v>
+      <c r="F81" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>7</v>
@@ -5438,8 +5444,8 @@
       <c r="E82" s="1">
         <v>4</v>
       </c>
-      <c r="F82" s="1">
-        <v>1</v>
+      <c r="F82" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>246</v>
@@ -5467,8 +5473,8 @@
       <c r="E83" s="1">
         <v>43</v>
       </c>
-      <c r="F83" s="1">
-        <v>1</v>
+      <c r="F83" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>246</v>
@@ -5496,8 +5502,8 @@
       <c r="E84" s="1">
         <v>64</v>
       </c>
-      <c r="F84" s="1">
-        <v>2</v>
+      <c r="F84" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>246</v>
@@ -5525,8 +5531,8 @@
       <c r="E85" s="1">
         <v>74</v>
       </c>
-      <c r="F85" s="1">
-        <v>2</v>
+      <c r="F85" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>246</v>
@@ -5554,8 +5560,8 @@
       <c r="E86" s="1">
         <v>72</v>
       </c>
-      <c r="F86" s="1">
-        <v>2</v>
+      <c r="F86" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>246</v>
@@ -5583,8 +5589,8 @@
       <c r="E87" s="1">
         <v>79</v>
       </c>
-      <c r="F87" s="1">
-        <v>2</v>
+      <c r="F87" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>246</v>
@@ -5612,8 +5618,8 @@
       <c r="E88" s="1">
         <v>53</v>
       </c>
-      <c r="F88" s="1">
-        <v>2</v>
+      <c r="F88" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>246</v>
@@ -5641,8 +5647,8 @@
       <c r="E89" s="1">
         <v>86</v>
       </c>
-      <c r="F89" s="1">
-        <v>2</v>
+      <c r="F89" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>246</v>
@@ -5670,8 +5676,8 @@
       <c r="E90" s="1">
         <v>18</v>
       </c>
-      <c r="F90" s="1">
-        <v>1</v>
+      <c r="F90" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>246</v>
@@ -5699,8 +5705,8 @@
       <c r="E91" s="1">
         <v>42</v>
       </c>
-      <c r="F91" s="1">
-        <v>1</v>
+      <c r="F91" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>246</v>
@@ -5728,8 +5734,8 @@
       <c r="E92" s="1">
         <v>5</v>
       </c>
-      <c r="F92" s="1">
-        <v>1</v>
+      <c r="F92" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>246</v>
@@ -5757,8 +5763,8 @@
       <c r="E93" s="1">
         <v>56</v>
       </c>
-      <c r="F93" s="1">
-        <v>2</v>
+      <c r="F93" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>246</v>
@@ -5786,8 +5792,8 @@
       <c r="E94" s="1">
         <v>63</v>
       </c>
-      <c r="F94" s="1">
-        <v>2</v>
+      <c r="F94" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>246</v>
@@ -5815,8 +5821,8 @@
       <c r="E95" s="1">
         <v>11</v>
       </c>
-      <c r="F95" s="1">
-        <v>1</v>
+      <c r="F95" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>246</v>
@@ -5844,8 +5850,8 @@
       <c r="E96" s="1">
         <v>44</v>
       </c>
-      <c r="F96" s="1">
-        <v>1</v>
+      <c r="F96" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>246</v>
@@ -5873,8 +5879,8 @@
       <c r="E97" s="1">
         <v>55</v>
       </c>
-      <c r="F97" s="1">
-        <v>2</v>
+      <c r="F97" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>246</v>
@@ -5902,8 +5908,8 @@
       <c r="E98" s="1">
         <v>7</v>
       </c>
-      <c r="F98" s="1">
-        <v>1</v>
+      <c r="F98" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>246</v>
@@ -5931,8 +5937,8 @@
       <c r="E99" s="1">
         <v>16</v>
       </c>
-      <c r="F99" s="1">
-        <v>1</v>
+      <c r="F99" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>246</v>
@@ -5960,8 +5966,8 @@
       <c r="E100" s="1">
         <v>57</v>
       </c>
-      <c r="F100" s="1">
-        <v>2</v>
+      <c r="F100" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>246</v>
@@ -5989,8 +5995,8 @@
       <c r="E101" s="1">
         <v>69</v>
       </c>
-      <c r="F101" s="1">
-        <v>2</v>
+      <c r="F101" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>246</v>
@@ -6018,8 +6024,8 @@
       <c r="E102" s="1">
         <v>67</v>
       </c>
-      <c r="F102" s="1">
-        <v>2</v>
+      <c r="F102" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>246</v>
@@ -6047,8 +6053,8 @@
       <c r="E103" s="1">
         <v>42</v>
       </c>
-      <c r="F103" s="1">
-        <v>1</v>
+      <c r="F103" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>246</v>
@@ -6076,8 +6082,8 @@
       <c r="E104" s="1">
         <v>77</v>
       </c>
-      <c r="F104" s="1">
-        <v>2</v>
+      <c r="F104" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>246</v>
@@ -6105,8 +6111,8 @@
       <c r="E105" s="1">
         <v>65</v>
       </c>
-      <c r="F105" s="1">
-        <v>2</v>
+      <c r="F105" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>246</v>
@@ -6134,8 +6140,8 @@
       <c r="E106" s="1">
         <v>75</v>
       </c>
-      <c r="F106" s="1">
-        <v>2</v>
+      <c r="F106" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>246</v>
@@ -6163,8 +6169,8 @@
       <c r="E107" s="1">
         <v>50</v>
       </c>
-      <c r="F107" s="1">
-        <v>2</v>
+      <c r="F107" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>246</v>
@@ -6192,8 +6198,8 @@
       <c r="E108" s="1">
         <v>53</v>
       </c>
-      <c r="F108" s="1">
-        <v>2</v>
+      <c r="F108" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>246</v>
@@ -6221,8 +6227,8 @@
       <c r="E109" s="1">
         <v>10</v>
       </c>
-      <c r="F109" s="1">
-        <v>1</v>
+      <c r="F109" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>246</v>
@@ -6250,8 +6256,8 @@
       <c r="E110" s="1">
         <v>44</v>
       </c>
-      <c r="F110" s="1">
-        <v>1</v>
+      <c r="F110" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>246</v>
@@ -6279,8 +6285,8 @@
       <c r="E111" s="1">
         <v>27</v>
       </c>
-      <c r="F111" s="1">
-        <v>1</v>
+      <c r="F111" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>246</v>
@@ -6308,8 +6314,8 @@
       <c r="E112" s="1">
         <v>49</v>
       </c>
-      <c r="F112" s="1">
-        <v>2</v>
+      <c r="F112" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>246</v>
@@ -6337,8 +6343,8 @@
       <c r="E113" s="1">
         <v>56</v>
       </c>
-      <c r="F113" s="1">
-        <v>2</v>
+      <c r="F113" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>246</v>
@@ -6366,8 +6372,8 @@
       <c r="E114" s="1">
         <v>66</v>
       </c>
-      <c r="F114" s="1">
-        <v>2</v>
+      <c r="F114" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>246</v>
@@ -6395,8 +6401,8 @@
       <c r="E115" s="1">
         <v>76</v>
       </c>
-      <c r="F115" s="1">
-        <v>2</v>
+      <c r="F115" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>246</v>
@@ -6424,8 +6430,8 @@
       <c r="E116" s="1">
         <v>90</v>
       </c>
-      <c r="F116" s="1">
-        <v>2</v>
+      <c r="F116" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>246</v>
@@ -6453,8 +6459,8 @@
       <c r="E117" s="1">
         <v>50</v>
       </c>
-      <c r="F117" s="1">
-        <v>2</v>
+      <c r="F117" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>246</v>
@@ -6482,8 +6488,8 @@
       <c r="E118" s="1">
         <v>69</v>
       </c>
-      <c r="F118" s="1">
-        <v>2</v>
+      <c r="F118" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>246</v>
@@ -6511,8 +6517,8 @@
       <c r="E119" s="1">
         <v>18</v>
       </c>
-      <c r="F119" s="1">
-        <v>1</v>
+      <c r="F119" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>246</v>
@@ -6540,8 +6546,8 @@
       <c r="E120" s="1">
         <v>49</v>
       </c>
-      <c r="F120" s="1">
-        <v>2</v>
+      <c r="F120" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>246</v>
@@ -6569,8 +6575,8 @@
       <c r="E121" s="1">
         <v>88</v>
       </c>
-      <c r="F121" s="1">
-        <v>2</v>
+      <c r="F121" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>246</v>
@@ -6598,8 +6604,8 @@
       <c r="E122" s="1">
         <v>12</v>
       </c>
-      <c r="F122" s="1">
-        <v>1</v>
+      <c r="F122" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>246</v>
@@ -6627,8 +6633,8 @@
       <c r="E123" s="1">
         <v>30</v>
       </c>
-      <c r="F123" s="1">
-        <v>1</v>
+      <c r="F123" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>246</v>
@@ -6656,8 +6662,8 @@
       <c r="E124" s="1">
         <v>32</v>
       </c>
-      <c r="F124" s="1">
-        <v>1</v>
+      <c r="F124" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>246</v>
@@ -6685,8 +6691,8 @@
       <c r="E125" s="1">
         <v>52</v>
       </c>
-      <c r="F125" s="1">
-        <v>2</v>
+      <c r="F125" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>246</v>
@@ -6714,8 +6720,8 @@
       <c r="E126" s="1">
         <v>70</v>
       </c>
-      <c r="F126" s="1">
-        <v>2</v>
+      <c r="F126" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>246</v>
@@ -6743,8 +6749,8 @@
       <c r="E127" s="1">
         <v>90</v>
       </c>
-      <c r="F127" s="1">
-        <v>2</v>
+      <c r="F127" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>246</v>
@@ -6772,8 +6778,8 @@
       <c r="E128" s="1">
         <v>82</v>
       </c>
-      <c r="F128" s="1">
-        <v>2</v>
+      <c r="F128" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>246</v>
@@ -6801,8 +6807,8 @@
       <c r="E129" s="1">
         <v>72</v>
       </c>
-      <c r="F129" s="1">
-        <v>2</v>
+      <c r="F129" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>246</v>
@@ -6830,8 +6836,8 @@
       <c r="E130" s="1">
         <v>95</v>
       </c>
-      <c r="F130" s="1">
-        <v>2</v>
+      <c r="F130" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>246</v>
@@ -6859,8 +6865,8 @@
       <c r="E131" s="1">
         <v>24</v>
       </c>
-      <c r="F131" s="1">
-        <v>1</v>
+      <c r="F131" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>246</v>
@@ -6888,8 +6894,8 @@
       <c r="E132" s="1">
         <v>41</v>
       </c>
-      <c r="F132" s="1">
-        <v>1</v>
+      <c r="F132" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>246</v>
@@ -6917,8 +6923,8 @@
       <c r="E133" s="1">
         <v>46</v>
       </c>
-      <c r="F133" s="1">
-        <v>2</v>
+      <c r="F133" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>246</v>
@@ -6946,8 +6952,8 @@
       <c r="E134" s="1">
         <v>49</v>
       </c>
-      <c r="F134" s="1">
-        <v>2</v>
+      <c r="F134" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>246</v>
@@ -6975,8 +6981,8 @@
       <c r="E135" s="1">
         <v>55</v>
       </c>
-      <c r="F135" s="1">
-        <v>2</v>
+      <c r="F135" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>246</v>
@@ -7004,8 +7010,8 @@
       <c r="E136" s="1">
         <v>68</v>
       </c>
-      <c r="F136" s="1">
-        <v>2</v>
+      <c r="F136" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>246</v>
@@ -7033,8 +7039,8 @@
       <c r="E137" s="1">
         <v>83</v>
       </c>
-      <c r="F137" s="1">
-        <v>2</v>
+      <c r="F137" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>7</v>
@@ -7062,8 +7068,8 @@
       <c r="E138" s="1">
         <v>18</v>
       </c>
-      <c r="F138" s="1">
-        <v>1</v>
+      <c r="F138" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>246</v>
@@ -7091,8 +7097,8 @@
       <c r="E139" s="1">
         <v>22</v>
       </c>
-      <c r="F139" s="1">
-        <v>1</v>
+      <c r="F139" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>246</v>
@@ -7120,8 +7126,8 @@
       <c r="E140" s="1">
         <v>84</v>
       </c>
-      <c r="F140" s="1">
-        <v>2</v>
+      <c r="F140" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>246</v>
@@ -7149,8 +7155,8 @@
       <c r="E141" s="1">
         <v>77</v>
       </c>
-      <c r="F141" s="1">
-        <v>2</v>
+      <c r="F141" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>246</v>
@@ -7178,8 +7184,8 @@
       <c r="E142" s="1">
         <v>87</v>
       </c>
-      <c r="F142" s="1">
-        <v>2</v>
+      <c r="F142" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>246</v>
@@ -7207,8 +7213,8 @@
       <c r="E143" s="1">
         <v>52</v>
       </c>
-      <c r="F143" s="1">
-        <v>2</v>
+      <c r="F143" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>246</v>
@@ -7236,8 +7242,8 @@
       <c r="E144" s="1">
         <v>16</v>
       </c>
-      <c r="F144" s="1">
-        <v>1</v>
+      <c r="F144" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>246</v>
@@ -7265,8 +7271,8 @@
       <c r="E145" s="1">
         <v>5</v>
       </c>
-      <c r="F145" s="1">
-        <v>1</v>
+      <c r="F145" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>246</v>
@@ -7294,8 +7300,8 @@
       <c r="E146" s="1">
         <v>71</v>
       </c>
-      <c r="F146" s="1">
-        <v>2</v>
+      <c r="F146" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>246</v>
@@ -7323,8 +7329,8 @@
       <c r="E147" s="1">
         <v>52</v>
       </c>
-      <c r="F147" s="1">
-        <v>2</v>
+      <c r="F147" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>246</v>
@@ -7352,8 +7358,8 @@
       <c r="E148" s="1">
         <v>57</v>
       </c>
-      <c r="F148" s="1">
-        <v>2</v>
+      <c r="F148" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>246</v>
@@ -7381,8 +7387,8 @@
       <c r="E149" s="1">
         <v>58</v>
       </c>
-      <c r="F149" s="1">
-        <v>2</v>
+      <c r="F149" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>246</v>
@@ -7410,8 +7416,8 @@
       <c r="E150" s="1">
         <v>4</v>
       </c>
-      <c r="F150" s="1">
-        <v>1</v>
+      <c r="F150" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>8</v>
@@ -7439,8 +7445,8 @@
       <c r="E151" s="1">
         <v>17</v>
       </c>
-      <c r="F151" s="1">
-        <v>1</v>
+      <c r="F151" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>8</v>
@@ -7468,8 +7474,8 @@
       <c r="E152" s="1">
         <v>88</v>
       </c>
-      <c r="F152" s="1">
-        <v>2</v>
+      <c r="F152" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>246</v>
@@ -7497,8 +7503,8 @@
       <c r="E153" s="1">
         <v>52</v>
       </c>
-      <c r="F153" s="1">
-        <v>2</v>
+      <c r="F153" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>246</v>
@@ -7526,8 +7532,8 @@
       <c r="E154" s="1">
         <v>56</v>
       </c>
-      <c r="F154" s="1">
-        <v>2</v>
+      <c r="F154" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>246</v>
@@ -7555,8 +7561,8 @@
       <c r="E155" s="1">
         <v>89</v>
       </c>
-      <c r="F155" s="1">
-        <v>2</v>
+      <c r="F155" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>246</v>
@@ -7584,8 +7590,8 @@
       <c r="E156" s="1">
         <v>92</v>
       </c>
-      <c r="F156" s="1">
-        <v>2</v>
+      <c r="F156" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>246</v>
@@ -7613,8 +7619,8 @@
       <c r="E157" s="1">
         <v>11</v>
       </c>
-      <c r="F157" s="1">
-        <v>1</v>
+      <c r="F157" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>246</v>
@@ -7642,8 +7648,8 @@
       <c r="E158" s="1">
         <v>85</v>
       </c>
-      <c r="F158" s="1">
-        <v>2</v>
+      <c r="F158" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>246</v>
@@ -7671,8 +7677,8 @@
       <c r="E159" s="1">
         <v>45</v>
       </c>
-      <c r="F159" s="1">
-        <v>1</v>
+      <c r="F159" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>246</v>
@@ -7700,8 +7706,8 @@
       <c r="E160" s="1">
         <v>56</v>
       </c>
-      <c r="F160" s="1">
-        <v>2</v>
+      <c r="F160" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>246</v>
@@ -7729,8 +7735,8 @@
       <c r="E161" s="1">
         <v>63</v>
       </c>
-      <c r="F161" s="1">
-        <v>2</v>
+      <c r="F161" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>246</v>
@@ -7758,8 +7764,8 @@
       <c r="E162" s="1">
         <v>34</v>
       </c>
-      <c r="F162" s="1">
-        <v>1</v>
+      <c r="F162" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>7</v>
@@ -7787,8 +7793,8 @@
       <c r="E163" s="1">
         <v>50</v>
       </c>
-      <c r="F163" s="1">
-        <v>2</v>
+      <c r="F163" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>7</v>
@@ -7816,8 +7822,8 @@
       <c r="E164" s="1">
         <v>11</v>
       </c>
-      <c r="F164" s="1">
-        <v>1</v>
+      <c r="F164" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>7</v>
@@ -7845,8 +7851,8 @@
       <c r="E165" s="1">
         <v>47</v>
       </c>
-      <c r="F165" s="1">
-        <v>2</v>
+      <c r="F165" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>7</v>
@@ -7874,8 +7880,8 @@
       <c r="E166" s="1">
         <v>95</v>
       </c>
-      <c r="F166" s="1">
-        <v>2</v>
+      <c r="F166" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>7</v>
@@ -7903,8 +7909,8 @@
       <c r="E167" s="1">
         <v>16</v>
       </c>
-      <c r="F167" s="1">
-        <v>1</v>
+      <c r="F167" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>246</v>
@@ -7932,8 +7938,8 @@
       <c r="E168" s="1">
         <v>48</v>
       </c>
-      <c r="F168" s="1">
-        <v>1</v>
+      <c r="F168" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>246</v>
@@ -7961,8 +7967,8 @@
       <c r="E169" s="1">
         <v>50</v>
       </c>
-      <c r="F169" s="1">
-        <v>2</v>
+      <c r="F169" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>246</v>
@@ -7990,8 +7996,8 @@
       <c r="E170" s="1">
         <v>32</v>
       </c>
-      <c r="F170" s="1">
-        <v>1</v>
+      <c r="F170" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>246</v>
@@ -8019,8 +8025,8 @@
       <c r="E171" s="1">
         <v>90</v>
       </c>
-      <c r="F171" s="1">
-        <v>2</v>
+      <c r="F171" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>246</v>
@@ -8048,8 +8054,8 @@
       <c r="E172" s="1">
         <v>80</v>
       </c>
-      <c r="F172" s="1">
-        <v>2</v>
+      <c r="F172" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>246</v>
@@ -8077,8 +8083,8 @@
       <c r="E173" s="1">
         <v>5</v>
       </c>
-      <c r="F173" s="1">
-        <v>1</v>
+      <c r="F173" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>246</v>
@@ -8106,8 +8112,8 @@
       <c r="E174" s="1">
         <v>45</v>
       </c>
-      <c r="F174" s="1">
-        <v>1</v>
+      <c r="F174" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>246</v>
@@ -8135,8 +8141,8 @@
       <c r="E175" s="1">
         <v>83</v>
       </c>
-      <c r="F175" s="1">
-        <v>2</v>
+      <c r="F175" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>246</v>
@@ -8164,8 +8170,8 @@
       <c r="E176" s="1">
         <v>91</v>
       </c>
-      <c r="F176" s="1">
-        <v>2</v>
+      <c r="F176" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>246</v>
@@ -8193,8 +8199,8 @@
       <c r="E177" s="1">
         <v>32</v>
       </c>
-      <c r="F177" s="1">
-        <v>1</v>
+      <c r="F177" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>246</v>
@@ -8222,8 +8228,8 @@
       <c r="E178" s="1">
         <v>52</v>
       </c>
-      <c r="F178" s="1">
-        <v>2</v>
+      <c r="F178" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>246</v>
@@ -8251,8 +8257,8 @@
       <c r="E179" s="1">
         <v>43</v>
       </c>
-      <c r="F179" s="1">
-        <v>1</v>
+      <c r="F179" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>7</v>
@@ -8280,8 +8286,8 @@
       <c r="E180" s="1">
         <v>45</v>
       </c>
-      <c r="F180" s="1">
-        <v>1</v>
+      <c r="F180" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>7</v>
@@ -8309,8 +8315,8 @@
       <c r="E181" s="1">
         <v>17</v>
       </c>
-      <c r="F181" s="1">
-        <v>1</v>
+      <c r="F181" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>246</v>
@@ -8338,8 +8344,8 @@
       <c r="E182" s="1">
         <v>39</v>
       </c>
-      <c r="F182" s="1">
-        <v>1</v>
+      <c r="F182" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>246</v>
@@ -8367,8 +8373,8 @@
       <c r="E183" s="1">
         <v>55</v>
       </c>
-      <c r="F183" s="1">
-        <v>2</v>
+      <c r="F183" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>246</v>
@@ -8396,8 +8402,8 @@
       <c r="E184" s="1">
         <v>61</v>
       </c>
-      <c r="F184" s="1">
-        <v>2</v>
+      <c r="F184" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>246</v>
@@ -8425,8 +8431,8 @@
       <c r="E185" s="1">
         <v>64</v>
       </c>
-      <c r="F185" s="1">
-        <v>2</v>
+      <c r="F185" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>246</v>
@@ -8454,8 +8460,8 @@
       <c r="E186" s="1">
         <v>23</v>
       </c>
-      <c r="F186" s="1">
-        <v>1</v>
+      <c r="F186" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>7</v>
@@ -8483,8 +8489,8 @@
       <c r="E187" s="1">
         <v>94</v>
       </c>
-      <c r="F187" s="1">
-        <v>2</v>
+      <c r="F187" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>8</v>
@@ -8512,8 +8518,8 @@
       <c r="E188" s="1">
         <v>30</v>
       </c>
-      <c r="F188" s="1">
-        <v>1</v>
+      <c r="F188" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>246</v>
@@ -8541,8 +8547,8 @@
       <c r="E189" s="1">
         <v>60</v>
       </c>
-      <c r="F189" s="1">
-        <v>2</v>
+      <c r="F189" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>246</v>
@@ -8570,8 +8576,8 @@
       <c r="E190" s="1">
         <v>95</v>
       </c>
-      <c r="F190" s="1">
-        <v>2</v>
+      <c r="F190" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>246</v>
@@ -8599,8 +8605,8 @@
       <c r="E191" s="1">
         <v>37</v>
       </c>
-      <c r="F191" s="1">
-        <v>1</v>
+      <c r="F191" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>246</v>
@@ -8628,8 +8634,8 @@
       <c r="E192" s="1">
         <v>48</v>
       </c>
-      <c r="F192" s="1">
-        <v>2</v>
+      <c r="F192" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>246</v>
@@ -8657,8 +8663,8 @@
       <c r="E193" s="1">
         <v>85</v>
       </c>
-      <c r="F193" s="1">
-        <v>2</v>
+      <c r="F193" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>246</v>
@@ -8686,8 +8692,8 @@
       <c r="E194" s="1">
         <v>24</v>
       </c>
-      <c r="F194" s="1">
-        <v>1</v>
+      <c r="F194" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>246</v>
@@ -8715,8 +8721,8 @@
       <c r="E195" s="1">
         <v>69</v>
       </c>
-      <c r="F195" s="1">
-        <v>2</v>
+      <c r="F195" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>246</v>
@@ -8744,8 +8750,8 @@
       <c r="E196" s="1">
         <v>70</v>
       </c>
-      <c r="F196" s="1">
-        <v>2</v>
+      <c r="F196" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>246</v>
@@ -8773,8 +8779,8 @@
       <c r="E197" s="1">
         <v>75</v>
       </c>
-      <c r="F197" s="1">
-        <v>2</v>
+      <c r="F197" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>246</v>
@@ -8802,8 +8808,8 @@
       <c r="E198" s="1">
         <v>5</v>
       </c>
-      <c r="F198" s="1">
-        <v>1</v>
+      <c r="F198" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>246</v>
@@ -8831,8 +8837,8 @@
       <c r="E199" s="1">
         <v>52</v>
       </c>
-      <c r="F199" s="1">
-        <v>2</v>
+      <c r="F199" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>246</v>
@@ -8860,8 +8866,8 @@
       <c r="E200" s="1">
         <v>31</v>
       </c>
-      <c r="F200" s="1">
-        <v>1</v>
+      <c r="F200" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>246</v>
@@ -8889,8 +8895,8 @@
       <c r="E201" s="1">
         <v>84</v>
       </c>
-      <c r="F201" s="1">
-        <v>2</v>
+      <c r="F201" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>246</v>
@@ -8918,8 +8924,8 @@
       <c r="E202" s="1">
         <v>37</v>
       </c>
-      <c r="F202" s="1">
-        <v>1</v>
+      <c r="F202" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>246</v>
@@ -8947,8 +8953,8 @@
       <c r="E203" s="1">
         <v>81</v>
       </c>
-      <c r="F203" s="1">
-        <v>2</v>
+      <c r="F203" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>246</v>
@@ -8976,8 +8982,8 @@
       <c r="E204" s="1">
         <v>90</v>
       </c>
-      <c r="F204" s="1">
-        <v>2</v>
+      <c r="F204" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>246</v>
@@ -9005,8 +9011,8 @@
       <c r="E205" s="1">
         <v>36</v>
       </c>
-      <c r="F205" s="1">
-        <v>1</v>
+      <c r="F205" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>246</v>
@@ -9034,8 +9040,8 @@
       <c r="E206" s="1">
         <v>92</v>
       </c>
-      <c r="F206" s="1">
-        <v>2</v>
+      <c r="F206" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>246</v>
@@ -9063,8 +9069,8 @@
       <c r="E207" s="1">
         <v>30</v>
       </c>
-      <c r="F207" s="1">
-        <v>1</v>
+      <c r="F207" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>246</v>
@@ -9092,8 +9098,8 @@
       <c r="E208" s="1">
         <v>88</v>
       </c>
-      <c r="F208" s="1">
-        <v>2</v>
+      <c r="F208" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>246</v>
@@ -9121,8 +9127,8 @@
       <c r="E209" s="1">
         <v>34</v>
       </c>
-      <c r="F209" s="1">
-        <v>1</v>
+      <c r="F209" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>246</v>
@@ -9150,8 +9156,8 @@
       <c r="E210" s="1">
         <v>80</v>
       </c>
-      <c r="F210" s="1">
-        <v>2</v>
+      <c r="F210" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>246</v>
@@ -9179,8 +9185,8 @@
       <c r="E211" s="1">
         <v>45</v>
       </c>
-      <c r="F211" s="1">
-        <v>1</v>
+      <c r="F211" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>246</v>
@@ -9208,8 +9214,8 @@
       <c r="E212" s="1">
         <v>85</v>
       </c>
-      <c r="F212" s="1">
-        <v>2</v>
+      <c r="F212" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>246</v>
@@ -9237,8 +9243,8 @@
       <c r="E213" s="1">
         <v>68</v>
       </c>
-      <c r="F213" s="1">
-        <v>2</v>
+      <c r="F213" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>246</v>
@@ -9266,8 +9272,8 @@
       <c r="E214" s="1">
         <v>76</v>
       </c>
-      <c r="F214" s="1">
-        <v>2</v>
+      <c r="F214" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>7</v>
@@ -9295,8 +9301,8 @@
       <c r="E215" s="1">
         <v>14</v>
       </c>
-      <c r="F215" s="1">
-        <v>1</v>
+      <c r="F215" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>246</v>
@@ -9324,8 +9330,8 @@
       <c r="E216" s="1">
         <v>44</v>
       </c>
-      <c r="F216" s="1">
-        <v>1</v>
+      <c r="F216" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>246</v>
@@ -9353,8 +9359,8 @@
       <c r="E217" s="1">
         <v>61</v>
       </c>
-      <c r="F217" s="1">
-        <v>2</v>
+      <c r="F217" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>246</v>
@@ -9382,8 +9388,8 @@
       <c r="E218" s="1">
         <v>89</v>
       </c>
-      <c r="F218" s="1">
-        <v>2</v>
+      <c r="F218" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>246</v>
@@ -9411,8 +9417,8 @@
       <c r="E219" s="1">
         <v>2</v>
       </c>
-      <c r="F219" s="1">
-        <v>1</v>
+      <c r="F219" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>246</v>
@@ -9440,8 +9446,8 @@
       <c r="E220" s="1">
         <v>45</v>
       </c>
-      <c r="F220" s="1">
-        <v>1</v>
+      <c r="F220" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>246</v>
@@ -9469,8 +9475,8 @@
       <c r="E221" s="1">
         <v>90</v>
       </c>
-      <c r="F221" s="1">
-        <v>2</v>
+      <c r="F221" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>246</v>
@@ -9498,8 +9504,8 @@
       <c r="E222" s="1">
         <v>38</v>
       </c>
-      <c r="F222" s="1">
-        <v>1</v>
+      <c r="F222" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>246</v>
@@ -9527,8 +9533,8 @@
       <c r="E223" s="1">
         <v>16</v>
       </c>
-      <c r="F223" s="1">
-        <v>1</v>
+      <c r="F223" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>246</v>
@@ -9556,8 +9562,8 @@
       <c r="E224" s="1">
         <v>7</v>
       </c>
-      <c r="F224" s="1">
-        <v>1</v>
+      <c r="F224" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>246</v>
@@ -9585,8 +9591,8 @@
       <c r="E225" s="1">
         <v>27</v>
       </c>
-      <c r="F225" s="1">
-        <v>1</v>
+      <c r="F225" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>246</v>
@@ -9614,8 +9620,8 @@
       <c r="E226" s="1">
         <v>64</v>
       </c>
-      <c r="F226" s="1">
-        <v>2</v>
+      <c r="F226" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>246</v>
@@ -9643,8 +9649,8 @@
       <c r="E227" s="1">
         <v>94</v>
       </c>
-      <c r="F227" s="1">
-        <v>2</v>
+      <c r="F227" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>246</v>
@@ -9672,8 +9678,8 @@
       <c r="E228" s="1">
         <v>67</v>
       </c>
-      <c r="F228" s="1">
-        <v>2</v>
+      <c r="F228" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>246</v>
@@ -9701,8 +9707,8 @@
       <c r="E229" s="1">
         <v>80</v>
       </c>
-      <c r="F229" s="1">
-        <v>2</v>
+      <c r="F229" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>246</v>
@@ -9730,8 +9736,8 @@
       <c r="E230" s="1">
         <v>92</v>
       </c>
-      <c r="F230" s="1">
-        <v>2</v>
+      <c r="F230" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>246</v>
@@ -9759,8 +9765,8 @@
       <c r="E231" s="1">
         <v>10</v>
       </c>
-      <c r="F231" s="1">
-        <v>1</v>
+      <c r="F231" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>246</v>
@@ -9788,8 +9794,8 @@
       <c r="E232" s="1">
         <v>23</v>
       </c>
-      <c r="F232" s="1">
-        <v>1</v>
+      <c r="F232" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>246</v>
@@ -9817,8 +9823,8 @@
       <c r="E233" s="1">
         <v>34</v>
       </c>
-      <c r="F233" s="1">
-        <v>1</v>
+      <c r="F233" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>246</v>
@@ -9846,8 +9852,8 @@
       <c r="E234" s="1">
         <v>44</v>
       </c>
-      <c r="F234" s="1">
-        <v>1</v>
+      <c r="F234" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>246</v>
@@ -9875,8 +9881,8 @@
       <c r="E235" s="1">
         <v>49</v>
       </c>
-      <c r="F235" s="1">
-        <v>2</v>
+      <c r="F235" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>246</v>
@@ -9904,8 +9910,8 @@
       <c r="E236" s="1">
         <v>54</v>
       </c>
-      <c r="F236" s="1">
-        <v>2</v>
+      <c r="F236" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>246</v>
@@ -9933,8 +9939,8 @@
       <c r="E237" s="1">
         <v>88</v>
       </c>
-      <c r="F237" s="1">
-        <v>2</v>
+      <c r="F237" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>246</v>
@@ -9962,8 +9968,8 @@
       <c r="E238" s="1">
         <v>64</v>
       </c>
-      <c r="F238" s="1">
-        <v>2</v>
+      <c r="F238" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>246</v>
@@ -9991,8 +9997,8 @@
       <c r="E239" s="1">
         <v>78</v>
       </c>
-      <c r="F239" s="1">
-        <v>2</v>
+      <c r="F239" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>246</v>
@@ -10020,8 +10026,8 @@
       <c r="E240" s="1">
         <v>82</v>
       </c>
-      <c r="F240" s="1">
-        <v>2</v>
+      <c r="F240" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>246</v>
@@ -10049,8 +10055,8 @@
       <c r="E241" s="1">
         <v>89</v>
       </c>
-      <c r="F241" s="1">
-        <v>2</v>
+      <c r="F241" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>246</v>
@@ -10078,8 +10084,8 @@
       <c r="E242" s="1">
         <v>27</v>
       </c>
-      <c r="F242" s="1">
-        <v>1</v>
+      <c r="F242" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>246</v>
@@ -10107,8 +10113,8 @@
       <c r="E243" s="1">
         <v>11</v>
       </c>
-      <c r="F243" s="1">
-        <v>1</v>
+      <c r="F243" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>7</v>
@@ -10136,8 +10142,8 @@
       <c r="E244" s="1">
         <v>6</v>
       </c>
-      <c r="F244" s="1">
-        <v>1</v>
+      <c r="F244" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>246</v>
@@ -10165,8 +10171,8 @@
       <c r="E245" s="1">
         <v>35</v>
       </c>
-      <c r="F245" s="1">
-        <v>2</v>
+      <c r="F245" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>246</v>
@@ -10194,8 +10200,8 @@
       <c r="E246" s="1">
         <v>47</v>
       </c>
-      <c r="F246" s="1">
-        <v>2</v>
+      <c r="F246" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>6</v>
@@ -10223,8 +10229,8 @@
       <c r="E247" s="1">
         <v>73</v>
       </c>
-      <c r="F247" s="1">
-        <v>2</v>
+      <c r="F247" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>7</v>
@@ -10252,8 +10258,8 @@
       <c r="E248" s="1">
         <v>79</v>
       </c>
-      <c r="F248" s="1">
-        <v>2</v>
+      <c r="F248" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>8</v>
@@ -10281,8 +10287,8 @@
       <c r="E249" s="1">
         <v>21</v>
       </c>
-      <c r="F249" s="1">
-        <v>1</v>
+      <c r="F249" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>246</v>
@@ -10310,8 +10316,8 @@
       <c r="E250" s="1">
         <v>41</v>
       </c>
-      <c r="F250" s="1">
-        <v>1</v>
+      <c r="F250" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>246</v>
@@ -10339,8 +10345,8 @@
       <c r="E251" s="1">
         <v>29</v>
       </c>
-      <c r="F251" s="1">
-        <v>1</v>
+      <c r="F251" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>246</v>
@@ -10368,8 +10374,8 @@
       <c r="E252" s="1">
         <v>90</v>
       </c>
-      <c r="F252" s="1">
-        <v>2</v>
+      <c r="F252" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>246</v>
@@ -10397,8 +10403,8 @@
       <c r="E253" s="1">
         <v>1</v>
       </c>
-      <c r="F253" s="1">
-        <v>1</v>
+      <c r="F253" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>246</v>
@@ -10426,8 +10432,8 @@
       <c r="E254" s="1">
         <v>8</v>
       </c>
-      <c r="F254" s="1">
-        <v>1</v>
+      <c r="F254" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>246</v>
@@ -10455,8 +10461,8 @@
       <c r="E255" s="1">
         <v>18</v>
       </c>
-      <c r="F255" s="1">
-        <v>1</v>
+      <c r="F255" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>246</v>
@@ -10484,8 +10490,8 @@
       <c r="E256" s="1">
         <v>38</v>
       </c>
-      <c r="F256" s="1">
-        <v>1</v>
+      <c r="F256" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>246</v>
@@ -10513,8 +10519,8 @@
       <c r="E257" s="1">
         <v>70</v>
       </c>
-      <c r="F257" s="1">
-        <v>2</v>
+      <c r="F257" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>246</v>
@@ -10542,8 +10548,8 @@
       <c r="E258" s="1">
         <v>73</v>
       </c>
-      <c r="F258" s="1">
-        <v>2</v>
+      <c r="F258" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>246</v>
@@ -10571,8 +10577,8 @@
       <c r="E259" s="1">
         <v>61</v>
       </c>
-      <c r="F259" s="1">
-        <v>2</v>
+      <c r="F259" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>246</v>
@@ -10600,8 +10606,8 @@
       <c r="E260" s="1">
         <v>51</v>
       </c>
-      <c r="F260" s="1">
-        <v>2</v>
+      <c r="F260" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>246</v>
@@ -10629,8 +10635,8 @@
       <c r="E261" s="1">
         <v>1</v>
       </c>
-      <c r="F261" s="1">
-        <v>1</v>
+      <c r="F261" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>246</v>
@@ -10658,8 +10664,8 @@
       <c r="E262" s="1">
         <v>28</v>
       </c>
-      <c r="F262" s="1">
-        <v>1</v>
+      <c r="F262" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>246</v>
@@ -10687,8 +10693,8 @@
       <c r="E263" s="1">
         <v>75</v>
       </c>
-      <c r="F263" s="1">
-        <v>2</v>
+      <c r="F263" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>246</v>
@@ -10716,8 +10722,8 @@
       <c r="E264" s="1">
         <v>2</v>
       </c>
-      <c r="F264" s="1">
-        <v>1</v>
+      <c r="F264" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>246</v>
@@ -10745,8 +10751,8 @@
       <c r="E265" s="1">
         <v>56</v>
       </c>
-      <c r="F265" s="1">
-        <v>2</v>
+      <c r="F265" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>246</v>
@@ -10774,8 +10780,8 @@
       <c r="E266" s="1">
         <v>69</v>
       </c>
-      <c r="F266" s="1">
-        <v>2</v>
+      <c r="F266" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>246</v>
@@ -10803,8 +10809,8 @@
       <c r="E267" s="1">
         <v>84</v>
       </c>
-      <c r="F267" s="1">
-        <v>2</v>
+      <c r="F267" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>246</v>
@@ -10832,8 +10838,8 @@
       <c r="E268" s="1">
         <v>90</v>
       </c>
-      <c r="F268" s="1">
-        <v>2</v>
+      <c r="F268" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>246</v>
@@ -10861,8 +10867,8 @@
       <c r="E269" s="1">
         <v>36</v>
       </c>
-      <c r="F269" s="1">
-        <v>1</v>
+      <c r="F269" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>7</v>
@@ -10890,8 +10896,8 @@
       <c r="E270" s="1">
         <v>71</v>
       </c>
-      <c r="F270" s="1">
-        <v>2</v>
+      <c r="F270" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>7</v>
@@ -10919,8 +10925,8 @@
       <c r="E271" s="1">
         <v>92</v>
       </c>
-      <c r="F271" s="1">
-        <v>2</v>
+      <c r="F271" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>7</v>
@@ -10948,8 +10954,8 @@
       <c r="E272" s="1">
         <v>76</v>
       </c>
-      <c r="F272" s="1">
-        <v>2</v>
+      <c r="F272" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>6</v>
@@ -10977,8 +10983,8 @@
       <c r="E273" s="1">
         <v>90</v>
       </c>
-      <c r="F273" s="1">
-        <v>2</v>
+      <c r="F273" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>246</v>
@@ -11006,8 +11012,8 @@
       <c r="E274" s="1">
         <v>12</v>
       </c>
-      <c r="F274" s="1">
-        <v>1</v>
+      <c r="F274" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>246</v>
@@ -11035,8 +11041,8 @@
       <c r="E275" s="1">
         <v>74</v>
       </c>
-      <c r="F275" s="1">
-        <v>2</v>
+      <c r="F275" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>246</v>
@@ -11064,8 +11070,8 @@
       <c r="E276" s="1">
         <v>33</v>
       </c>
-      <c r="F276" s="1">
-        <v>1</v>
+      <c r="F276" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>246</v>
@@ -11093,8 +11099,8 @@
       <c r="E277" s="1">
         <v>78</v>
       </c>
-      <c r="F277" s="1">
-        <v>2</v>
+      <c r="F277" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>246</v>
@@ -11122,8 +11128,8 @@
       <c r="E278" s="1">
         <v>75</v>
       </c>
-      <c r="F278" s="1">
-        <v>2</v>
+      <c r="F278" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>246</v>
@@ -11151,8 +11157,8 @@
       <c r="E279" s="1">
         <v>40</v>
       </c>
-      <c r="F279" s="1">
-        <v>1</v>
+      <c r="F279" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>7</v>
@@ -11180,8 +11186,8 @@
       <c r="E280" s="1">
         <v>49</v>
       </c>
-      <c r="F280" s="1">
-        <v>2</v>
+      <c r="F280" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>7</v>
@@ -11209,8 +11215,8 @@
       <c r="E281" s="1">
         <v>68</v>
       </c>
-      <c r="F281" s="1">
-        <v>2</v>
+      <c r="F281" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>6</v>
@@ -11238,8 +11244,8 @@
       <c r="E282" s="1">
         <v>81</v>
       </c>
-      <c r="F282" s="1">
-        <v>2</v>
+      <c r="F282" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>7</v>
@@ -11267,8 +11273,8 @@
       <c r="E283" s="1">
         <v>41</v>
       </c>
-      <c r="F283" s="1">
-        <v>1</v>
+      <c r="F283" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>246</v>
@@ -11296,8 +11302,8 @@
       <c r="E284" s="1">
         <v>63</v>
       </c>
-      <c r="F284" s="1">
-        <v>2</v>
+      <c r="F284" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>246</v>
@@ -11325,8 +11331,8 @@
       <c r="E285" s="1">
         <v>48</v>
       </c>
-      <c r="F285" s="1">
-        <v>2</v>
+      <c r="F285" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>246</v>
@@ -11354,8 +11360,8 @@
       <c r="E286" s="1">
         <v>73</v>
       </c>
-      <c r="F286" s="1">
-        <v>2</v>
+      <c r="F286" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>246</v>
@@ -11383,8 +11389,8 @@
       <c r="E287" s="1">
         <v>65</v>
       </c>
-      <c r="F287" s="1">
-        <v>2</v>
+      <c r="F287" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>246</v>
@@ -11412,8 +11418,8 @@
       <c r="E288" s="1">
         <v>71</v>
       </c>
-      <c r="F288" s="1">
-        <v>2</v>
+      <c r="F288" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>246</v>
@@ -11441,8 +11447,8 @@
       <c r="E289" s="1">
         <v>8</v>
       </c>
-      <c r="F289" s="1">
-        <v>1</v>
+      <c r="F289" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>246</v>
@@ -11470,8 +11476,8 @@
       <c r="E290" s="1">
         <v>33</v>
       </c>
-      <c r="F290" s="1">
-        <v>1</v>
+      <c r="F290" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>246</v>
@@ -11499,8 +11505,8 @@
       <c r="E291" s="1">
         <v>48</v>
       </c>
-      <c r="F291" s="1">
-        <v>2</v>
+      <c r="F291" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>246</v>
@@ -11528,8 +11534,8 @@
       <c r="E292" s="1">
         <v>15</v>
       </c>
-      <c r="F292" s="1">
-        <v>1</v>
+      <c r="F292" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>7</v>
@@ -11557,8 +11563,8 @@
       <c r="E293" s="1">
         <v>42</v>
       </c>
-      <c r="F293" s="1">
-        <v>1</v>
+      <c r="F293" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>7</v>
@@ -11586,8 +11592,8 @@
       <c r="E294" s="1">
         <v>55</v>
       </c>
-      <c r="F294" s="1">
-        <v>2</v>
+      <c r="F294" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>246</v>
@@ -11615,8 +11621,8 @@
       <c r="E295" s="1">
         <v>64</v>
       </c>
-      <c r="F295" s="1">
-        <v>2</v>
+      <c r="F295" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>246</v>
@@ -11644,8 +11650,8 @@
       <c r="E296" s="1">
         <v>92</v>
       </c>
-      <c r="F296" s="1">
-        <v>2</v>
+      <c r="F296" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>246</v>
@@ -11673,8 +11679,8 @@
       <c r="E297" s="1">
         <v>13</v>
       </c>
-      <c r="F297" s="1">
-        <v>1</v>
+      <c r="F297" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>246</v>
@@ -11702,8 +11708,8 @@
       <c r="E298" s="1">
         <v>21</v>
       </c>
-      <c r="F298" s="1">
-        <v>1</v>
+      <c r="F298" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>246</v>
@@ -11731,8 +11737,8 @@
       <c r="E299" s="1">
         <v>54</v>
       </c>
-      <c r="F299" s="1">
-        <v>2</v>
+      <c r="F299" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>246</v>
@@ -11760,8 +11766,8 @@
       <c r="E300" s="1">
         <v>57</v>
       </c>
-      <c r="F300" s="1">
-        <v>2</v>
+      <c r="F300" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>246</v>
@@ -11789,8 +11795,8 @@
       <c r="E301" s="1">
         <v>74</v>
       </c>
-      <c r="F301" s="1">
-        <v>2</v>
+      <c r="F301" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>246</v>
@@ -11818,8 +11824,8 @@
       <c r="E302" s="1">
         <v>76</v>
       </c>
-      <c r="F302" s="1">
-        <v>2</v>
+      <c r="F302" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>246</v>
@@ -11847,8 +11853,8 @@
       <c r="E303" s="1">
         <v>9</v>
       </c>
-      <c r="F303" s="1">
-        <v>1</v>
+      <c r="F303" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>7</v>
@@ -11876,8 +11882,8 @@
       <c r="E304" s="1">
         <v>47</v>
       </c>
-      <c r="F304" s="1">
-        <v>2</v>
+      <c r="F304" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>246</v>
@@ -11905,8 +11911,8 @@
       <c r="E305" s="1">
         <v>72</v>
       </c>
-      <c r="F305" s="1">
-        <v>2</v>
+      <c r="F305" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>246</v>
@@ -11934,8 +11940,8 @@
       <c r="E306" s="1">
         <v>7</v>
       </c>
-      <c r="F306" s="1">
-        <v>1</v>
+      <c r="F306" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>246</v>
@@ -11963,8 +11969,8 @@
       <c r="E307" s="1">
         <v>77</v>
       </c>
-      <c r="F307" s="1">
-        <v>2</v>
+      <c r="F307" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>246</v>
@@ -11992,8 +11998,8 @@
       <c r="E308" s="1">
         <v>87</v>
       </c>
-      <c r="F308" s="1">
-        <v>2</v>
+      <c r="F308" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>246</v>
@@ -12021,8 +12027,8 @@
       <c r="E309" s="1">
         <v>53</v>
       </c>
-      <c r="F309" s="1">
-        <v>2</v>
+      <c r="F309" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>246</v>
@@ -12050,8 +12056,8 @@
       <c r="E310" s="1">
         <v>62</v>
       </c>
-      <c r="F310" s="1">
-        <v>2</v>
+      <c r="F310" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>246</v>
@@ -12079,8 +12085,8 @@
       <c r="E311" s="1">
         <v>11</v>
       </c>
-      <c r="F311" s="1">
-        <v>1</v>
+      <c r="F311" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>246</v>
@@ -12108,8 +12114,8 @@
       <c r="E312" s="1">
         <v>75</v>
       </c>
-      <c r="F312" s="1">
-        <v>2</v>
+      <c r="F312" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>246</v>
@@ -12137,8 +12143,8 @@
       <c r="E313" s="1">
         <v>95</v>
       </c>
-      <c r="F313" s="1">
-        <v>2</v>
+      <c r="F313" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>246</v>
@@ -12166,8 +12172,8 @@
       <c r="E314" s="1">
         <v>40</v>
       </c>
-      <c r="F314" s="1">
-        <v>1</v>
+      <c r="F314" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>7</v>
@@ -12195,8 +12201,8 @@
       <c r="E315" s="1">
         <v>23</v>
       </c>
-      <c r="F315" s="1">
-        <v>1</v>
+      <c r="F315" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>246</v>
@@ -12224,8 +12230,8 @@
       <c r="E316" s="1">
         <v>7</v>
       </c>
-      <c r="F316" s="1">
-        <v>1</v>
+      <c r="F316" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>246</v>
@@ -12253,8 +12259,8 @@
       <c r="E317" s="1">
         <v>70</v>
       </c>
-      <c r="F317" s="1">
-        <v>2</v>
+      <c r="F317" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>246</v>
@@ -12282,8 +12288,8 @@
       <c r="E318" s="1">
         <v>87</v>
       </c>
-      <c r="F318" s="1">
-        <v>2</v>
+      <c r="F318" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>246</v>
@@ -12311,8 +12317,8 @@
       <c r="E319" s="1">
         <v>19</v>
       </c>
-      <c r="F319" s="1">
-        <v>1</v>
+      <c r="F319" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>246</v>
@@ -12340,8 +12346,8 @@
       <c r="E320" s="1">
         <v>25</v>
       </c>
-      <c r="F320" s="1">
-        <v>1</v>
+      <c r="F320" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>246</v>
@@ -12369,8 +12375,8 @@
       <c r="E321" s="1">
         <v>66</v>
       </c>
-      <c r="F321" s="1">
-        <v>2</v>
+      <c r="F321" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>246</v>
@@ -12398,8 +12404,8 @@
       <c r="E322" s="1">
         <v>45</v>
       </c>
-      <c r="F322" s="1">
-        <v>1</v>
+      <c r="F322" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>246</v>
@@ -12427,8 +12433,8 @@
       <c r="E323" s="1">
         <v>7</v>
       </c>
-      <c r="F323" s="1">
-        <v>1</v>
+      <c r="F323" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>246</v>
@@ -12456,8 +12462,8 @@
       <c r="E324" s="1">
         <v>50</v>
       </c>
-      <c r="F324" s="1">
-        <v>2</v>
+      <c r="F324" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>246</v>
@@ -12485,8 +12491,8 @@
       <c r="E325" s="1">
         <v>71</v>
       </c>
-      <c r="F325" s="1">
-        <v>2</v>
+      <c r="F325" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>246</v>
@@ -12514,8 +12520,8 @@
       <c r="E326" s="1">
         <v>91</v>
       </c>
-      <c r="F326" s="1">
-        <v>2</v>
+      <c r="F326" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>246</v>
@@ -12543,8 +12549,8 @@
       <c r="E327" s="1">
         <v>78</v>
       </c>
-      <c r="F327" s="1">
-        <v>2</v>
+      <c r="F327" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>246</v>
@@ -12572,8 +12578,8 @@
       <c r="E328" s="1">
         <v>30</v>
       </c>
-      <c r="F328" s="1">
-        <v>1</v>
+      <c r="F328" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>246</v>
@@ -12601,8 +12607,8 @@
       <c r="E329" s="1">
         <v>64</v>
       </c>
-      <c r="F329" s="1">
-        <v>2</v>
+      <c r="F329" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>246</v>
@@ -12630,8 +12636,8 @@
       <c r="E330" s="1">
         <v>5</v>
       </c>
-      <c r="F330" s="1">
-        <v>1</v>
+      <c r="F330" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>246</v>
@@ -12659,8 +12665,8 @@
       <c r="E331" s="1">
         <v>83</v>
       </c>
-      <c r="F331" s="1">
-        <v>2</v>
+      <c r="F331" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>246</v>
@@ -12688,8 +12694,8 @@
       <c r="E332" s="1">
         <v>13</v>
       </c>
-      <c r="F332" s="1">
-        <v>1</v>
+      <c r="F332" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>246</v>
@@ -12717,8 +12723,8 @@
       <c r="E333" s="1">
         <v>20</v>
       </c>
-      <c r="F333" s="1">
-        <v>1</v>
+      <c r="F333" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>246</v>
@@ -12746,8 +12752,8 @@
       <c r="E334" s="1">
         <v>45</v>
       </c>
-      <c r="F334" s="1">
-        <v>1</v>
+      <c r="F334" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>246</v>
@@ -12775,8 +12781,8 @@
       <c r="E335" s="1">
         <v>81</v>
       </c>
-      <c r="F335" s="1">
-        <v>2</v>
+      <c r="F335" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>246</v>
@@ -12804,8 +12810,8 @@
       <c r="E336" s="1">
         <v>8</v>
       </c>
-      <c r="F336" s="1">
-        <v>1</v>
+      <c r="F336" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>246</v>
@@ -12833,8 +12839,8 @@
       <c r="E337" s="1">
         <v>14</v>
       </c>
-      <c r="F337" s="1">
-        <v>1</v>
+      <c r="F337" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>246</v>
@@ -12862,8 +12868,8 @@
       <c r="E338" s="1">
         <v>50</v>
       </c>
-      <c r="F338" s="1">
-        <v>2</v>
+      <c r="F338" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>246</v>
@@ -12891,8 +12897,8 @@
       <c r="E339" s="1">
         <v>57</v>
       </c>
-      <c r="F339" s="1">
-        <v>2</v>
+      <c r="F339" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>246</v>
@@ -12920,8 +12926,8 @@
       <c r="E340" s="1">
         <v>61</v>
       </c>
-      <c r="F340" s="1">
-        <v>2</v>
+      <c r="F340" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>246</v>
@@ -12949,8 +12955,8 @@
       <c r="E341" s="1">
         <v>91</v>
       </c>
-      <c r="F341" s="1">
-        <v>2</v>
+      <c r="F341" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>246</v>
@@ -12978,8 +12984,8 @@
       <c r="E342" s="1">
         <v>36</v>
       </c>
-      <c r="F342" s="1">
-        <v>1</v>
+      <c r="F342" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>7</v>
@@ -13007,8 +13013,8 @@
       <c r="E343" s="1">
         <v>89</v>
       </c>
-      <c r="F343" s="1">
-        <v>2</v>
+      <c r="F343" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>7</v>
@@ -13036,8 +13042,8 @@
       <c r="E344" s="1">
         <v>7</v>
       </c>
-      <c r="F344" s="1">
-        <v>1</v>
+      <c r="F344" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>7</v>
@@ -13065,8 +13071,8 @@
       <c r="E345" s="1">
         <v>20</v>
       </c>
-      <c r="F345" s="1">
-        <v>1</v>
+      <c r="F345" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>8</v>
@@ -13094,8 +13100,8 @@
       <c r="E346" s="1">
         <v>10</v>
       </c>
-      <c r="F346" s="1">
-        <v>1</v>
+      <c r="F346" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>246</v>
@@ -13123,8 +13129,8 @@
       <c r="E347" s="1">
         <v>55</v>
       </c>
-      <c r="F347" s="1">
-        <v>2</v>
+      <c r="F347" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>246</v>
@@ -13152,8 +13158,8 @@
       <c r="E348" s="1">
         <v>10</v>
       </c>
-      <c r="F348" s="1">
-        <v>1</v>
+      <c r="F348" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>7</v>
@@ -13181,8 +13187,8 @@
       <c r="E349" s="1">
         <v>21</v>
       </c>
-      <c r="F349" s="1">
-        <v>1</v>
+      <c r="F349" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>246</v>
@@ -13210,8 +13216,8 @@
       <c r="E350" s="1">
         <v>78</v>
       </c>
-      <c r="F350" s="1">
-        <v>2</v>
+      <c r="F350" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>246</v>
@@ -13239,8 +13245,8 @@
       <c r="E351" s="1">
         <v>50</v>
       </c>
-      <c r="F351" s="1">
-        <v>2</v>
+      <c r="F351" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>246</v>
@@ -13268,8 +13274,8 @@
       <c r="E352" s="1">
         <v>45</v>
       </c>
-      <c r="F352" s="1">
-        <v>1</v>
+      <c r="F352" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>246</v>
@@ -13297,8 +13303,8 @@
       <c r="E353" s="1">
         <v>24</v>
       </c>
-      <c r="F353" s="1">
-        <v>1</v>
+      <c r="F353" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>246</v>
@@ -13326,8 +13332,8 @@
       <c r="E354" s="1">
         <v>39</v>
       </c>
-      <c r="F354" s="1">
-        <v>1</v>
+      <c r="F354" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>246</v>
@@ -13355,8 +13361,8 @@
       <c r="E355" s="1">
         <v>74</v>
       </c>
-      <c r="F355" s="1">
-        <v>2</v>
+      <c r="F355" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G355" s="1" t="s">
         <v>246</v>
@@ -13384,8 +13390,8 @@
       <c r="E356" s="1">
         <v>16</v>
       </c>
-      <c r="F356" s="1">
-        <v>1</v>
+      <c r="F356" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G356" s="1" t="s">
         <v>246</v>
@@ -13413,8 +13419,8 @@
       <c r="E357" s="1">
         <v>45</v>
       </c>
-      <c r="F357" s="1">
-        <v>1</v>
+      <c r="F357" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>246</v>
@@ -13442,8 +13448,8 @@
       <c r="E358" s="1">
         <v>17</v>
       </c>
-      <c r="F358" s="1">
-        <v>1</v>
+      <c r="F358" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G358" s="1" t="s">
         <v>246</v>
@@ -13471,8 +13477,8 @@
       <c r="E359" s="1">
         <v>82</v>
       </c>
-      <c r="F359" s="1">
-        <v>2</v>
+      <c r="F359" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G359" s="1" t="s">
         <v>246</v>
@@ -13500,8 +13506,8 @@
       <c r="E360" s="1">
         <v>88</v>
       </c>
-      <c r="F360" s="1">
-        <v>2</v>
+      <c r="F360" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G360" s="1" t="s">
         <v>246</v>
@@ -13529,8 +13535,8 @@
       <c r="E361" s="1">
         <v>29</v>
       </c>
-      <c r="F361" s="1">
-        <v>1</v>
+      <c r="F361" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G361" s="1" t="s">
         <v>7</v>
@@ -13558,8 +13564,8 @@
       <c r="E362" s="1">
         <v>91</v>
       </c>
-      <c r="F362" s="1">
-        <v>2</v>
+      <c r="F362" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>7</v>
@@ -13587,8 +13593,8 @@
       <c r="E363" s="1">
         <v>44</v>
       </c>
-      <c r="F363" s="1">
-        <v>1</v>
+      <c r="F363" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>246</v>
@@ -13616,8 +13622,8 @@
       <c r="E364" s="1">
         <v>59</v>
       </c>
-      <c r="F364" s="1">
-        <v>2</v>
+      <c r="F364" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>246</v>
@@ -13645,8 +13651,8 @@
       <c r="E365" s="1">
         <v>37</v>
       </c>
-      <c r="F365" s="1">
-        <v>1</v>
+      <c r="F365" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G365" s="1" t="s">
         <v>246</v>
@@ -13674,8 +13680,8 @@
       <c r="E366" s="1">
         <v>89</v>
       </c>
-      <c r="F366" s="1">
-        <v>2</v>
+      <c r="F366" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>246</v>
@@ -13703,8 +13709,8 @@
       <c r="E367" s="1">
         <v>93</v>
       </c>
-      <c r="F367" s="1">
-        <v>2</v>
+      <c r="F367" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>246</v>
@@ -13732,8 +13738,8 @@
       <c r="E368" s="1">
         <v>75</v>
       </c>
-      <c r="F368" s="1">
-        <v>2</v>
+      <c r="F368" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G368" s="1" t="s">
         <v>246</v>
@@ -13761,8 +13767,8 @@
       <c r="E369" s="1">
         <v>13</v>
       </c>
-      <c r="F369" s="1">
-        <v>1</v>
+      <c r="F369" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>246</v>
@@ -13790,8 +13796,8 @@
       <c r="E370" s="1">
         <v>73</v>
       </c>
-      <c r="F370" s="1">
-        <v>2</v>
+      <c r="F370" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>246</v>
@@ -13819,8 +13825,8 @@
       <c r="E371" s="1">
         <v>21</v>
       </c>
-      <c r="F371" s="1">
-        <v>1</v>
+      <c r="F371" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G371" s="1" t="s">
         <v>246</v>
@@ -13848,8 +13854,8 @@
       <c r="E372" s="1">
         <v>2</v>
       </c>
-      <c r="F372" s="1">
-        <v>1</v>
+      <c r="F372" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G372" s="1" t="s">
         <v>246</v>
@@ -13877,8 +13883,8 @@
       <c r="E373" s="1">
         <v>27</v>
       </c>
-      <c r="F373" s="1">
-        <v>1</v>
+      <c r="F373" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>246</v>
@@ -13906,8 +13912,8 @@
       <c r="E374" s="1">
         <v>30</v>
       </c>
-      <c r="F374" s="1">
-        <v>1</v>
+      <c r="F374" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>246</v>
@@ -13935,8 +13941,8 @@
       <c r="E375" s="1">
         <v>92</v>
       </c>
-      <c r="F375" s="1">
-        <v>2</v>
+      <c r="F375" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>246</v>
@@ -13964,8 +13970,8 @@
       <c r="E376" s="1">
         <v>39</v>
       </c>
-      <c r="F376" s="1">
-        <v>1</v>
+      <c r="F376" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G376" s="1" t="s">
         <v>246</v>
@@ -13993,8 +13999,8 @@
       <c r="E377" s="1">
         <v>71</v>
       </c>
-      <c r="F377" s="1">
-        <v>2</v>
+      <c r="F377" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>246</v>
@@ -14022,8 +14028,8 @@
       <c r="E378" s="1">
         <v>92</v>
       </c>
-      <c r="F378" s="1">
-        <v>2</v>
+      <c r="F378" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>246</v>
@@ -14051,8 +14057,8 @@
       <c r="E379" s="1">
         <v>5</v>
       </c>
-      <c r="F379" s="1">
-        <v>1</v>
+      <c r="F379" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>246</v>
@@ -14176,24 +14182,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
@@ -15166,96 +15172,96 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="15"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="R32" s="15"/>
+      <c r="R32" s="18"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="14">
+      <c r="D33" s="17">
         <f>COUNTIF($I$3:$I$20,"1")</f>
         <v>6</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="14">
+      <c r="H33" s="17">
         <f>COUNTIF($I$3:$I$20,"2")</f>
         <v>12</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="14">
+      <c r="M33" s="17">
         <f>COUNTIF($R$3:$R$27,"1")</f>
         <v>12</v>
       </c>
-      <c r="N33" s="15"/>
+      <c r="N33" s="18"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="14">
+      <c r="Q33" s="17">
         <f>COUNTIF($R$3:$R$27,"2")</f>
         <v>13</v>
       </c>
-      <c r="R33" s="15"/>
+      <c r="R33" s="18"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="21"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="16"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
@@ -15350,86 +15356,86 @@
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="21"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="14" t="s">
+      <c r="N38" s="18"/>
+      <c r="O38" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="14" t="s">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="R38" s="15"/>
+      <c r="R38" s="18"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="14">
+      <c r="D39" s="17">
         <f>COUNTIF($H$3:$H$20,"&lt;=29")</f>
         <v>5</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="14">
+      <c r="E39" s="18"/>
+      <c r="F39" s="17">
         <f>E30-D39-H39</f>
         <v>8</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="14">
+      <c r="G39" s="18"/>
+      <c r="H39" s="17">
         <f>COUNTIF($H$3:$H$20,"&gt;=60")</f>
         <v>5</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="14">
+      <c r="M39" s="17">
         <f>COUNTIF($Q$3:$Q$27,"&lt;=29")</f>
         <v>7</v>
       </c>
-      <c r="N39" s="15"/>
-      <c r="O39" s="14">
+      <c r="N39" s="18"/>
+      <c r="O39" s="17">
         <f>N30-M39-Q39</f>
         <v>9</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="14">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="17">
         <f>COUNTIF($Q$3:$Q$27,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="R39" s="15"/>
+      <c r="R39" s="18"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
@@ -15625,11 +15631,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
@@ -15646,13 +15654,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/DATABASE/GOL.xlsx
+++ b/DATABASE/GOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C0C9B-0AB9-4178-B38F-FA64C1F8078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA2113-595E-4BC5-A1A1-A492F0150623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="GOL SUBITI" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$J$473</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$J$498</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GOL FATTI'!$A$1:$P$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'GOL FATTI'!$A$1:$P$38</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="443">
   <si>
     <t>GIORNATA</t>
   </si>
@@ -1252,6 +1252,111 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aD0_EQi2ZYBG0_69z6G-rsJmsu4Y3zk4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Mozzo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13bNP-LaHeTBo9ddlY5kNkwNxZ_raBrSb/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Castellani</t>
+  </si>
+  <si>
+    <t>Delle Donne</t>
+  </si>
+  <si>
+    <t>Mion</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>Vitucci</t>
+  </si>
+  <si>
+    <t>Guarneri</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XyEiU2wbP1vcziYQgbqEDSC8rDWWt6wa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wg783alaAhdFk39e6zA3xvj6s71KNeht/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16D2-ZdJJMx-70NP5kI5FgJwoirRow-qD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZXkft6pjtKSMmLK6-ZbzR2PfIk7xWjJJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11rcg4nT3_yWaf7d25b3uEL09PRD92IKy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AB3vf0cN-0ixBNJaE5tXC6ebbrXsLTv5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13uOWUeBnzV8WlWL27I_xrWosuOe90GoG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kB-nYdM1ABrrEofitiNlgEQnth9cj0Sv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lECVCvgqu3w_BC0GITUXWn1a9aXznUUQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1swtdCIGNhpDcrOPZ-6RxNLPd7jWrjt1Y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oEca5UTnON_BO0Bp3hH6vCA4xHCS-jEA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g2UEIaSdWroOZBdm9j8i9CKfdPjJdQtU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jfKspJ7_-V1ha9Mw_XVltyaJSvb-niJO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11B-QuiCeTQ3kESAat_RHoo_0ic7uFKhY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kev0m3zmDBpY49rSLronbJ7wx6Bx9eCa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C9R-0kflEn2bmGthWaDch5yhWG9AnMF4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1778TGrTFOn9UCRdmT2iH4pG_OtUL3isY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SKI3N5ZIqchsWOVTJw602uyaRHakh48C/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MrOqfDJLShVsws-utmwLHWKKHCKQ8tuj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19zUd-2HRWb_z2ncARK7uuvXqU2mDkO41/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DeqxqYIDv_L-QJwnourRPQut2rlKEAfQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K25tYaQGW8xHGOgYwUrZahy3Uztp9cLX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MtmpfcHQXz-gpf8Z6iTj-8MhcTsyPh1S/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17n1hSv3ddt09vbL_-f-ecXZjaCnDyS-G/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fJDOdv7-OX2P8dA47MaEiCX3vcnCh6Fg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y2jpx_iTJm0_kv7DulzppM7mccD85fNR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MqPbCteJU-exL1e6Os9rs62aLaou0xMB/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1562,22 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,18 +1588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2371,40 +2476,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
@@ -2416,7 +2521,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,40 +2677,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7</c:v>
@@ -3086,25 +3191,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -3122,10 +3227,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7</c:v>
@@ -3287,46 +3392,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>9</c:v>
@@ -6173,10 +6278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P473"/>
+  <dimension ref="A1:P498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A383" sqref="A383:XFD460"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="M437" sqref="M437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6227,21 +6332,21 @@
       </c>
       <c r="L1">
         <f>COUNTIF(E:E,"&gt;0")</f>
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>282</v>
       </c>
       <c r="N1">
         <f>L1-P1</f>
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="O1" t="s">
         <v>281</v>
       </c>
       <c r="P1">
         <f>COUNTIF(I:I,"https://video_non_presente=NO")</f>
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -6277,7 +6382,7 @@
       </c>
       <c r="L2">
         <f>MAX(A:A)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10308,13 +10413,13 @@
         <v>245</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H128" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>242</v>
+        <v>428</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>367</v>
@@ -10340,13 +10445,13 @@
         <v>245</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H129" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>367</v>
@@ -11748,13 +11853,13 @@
         <v>245</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>366</v>
@@ -11780,13 +11885,13 @@
         <v>244</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H174" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>242</v>
+        <v>431</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>367</v>
@@ -11812,13 +11917,13 @@
         <v>244</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H175" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>242</v>
+        <v>432</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>367</v>
@@ -12548,13 +12653,13 @@
         <v>244</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H198" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>242</v>
+        <v>433</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>366</v>
@@ -12580,13 +12685,13 @@
         <v>245</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H199" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>242</v>
+        <v>434</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>366</v>
@@ -12644,13 +12749,13 @@
         <v>245</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H201" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>367</v>
@@ -13380,13 +13485,13 @@
         <v>244</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H224" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>366</v>
@@ -13412,13 +13517,13 @@
         <v>244</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H225" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>242</v>
+        <v>436</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>366</v>
@@ -13444,13 +13549,13 @@
         <v>245</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H226" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>366</v>
@@ -13476,13 +13581,13 @@
         <v>245</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H227" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>242</v>
+        <v>438</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>366</v>
@@ -14532,13 +14637,13 @@
         <v>245</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H260" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>242</v>
+        <v>439</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>366</v>
@@ -16100,13 +16205,13 @@
         <v>245</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H309" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>367</v>
@@ -18468,13 +18573,13 @@
         <v>244</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H383" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>242</v>
+        <v>423</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>367</v>
@@ -18500,13 +18605,13 @@
         <v>245</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H384" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>242</v>
+        <v>424</v>
       </c>
       <c r="J384" s="1" t="s">
         <v>367</v>
@@ -18890,7 +18995,7 @@
         <v>15</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>242</v>
+        <v>440</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>366</v>
@@ -18916,13 +19021,13 @@
         <v>245</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H397" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>242</v>
+        <v>441</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>367</v>
@@ -20164,13 +20269,13 @@
         <v>245</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H436" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>242</v>
+        <v>418</v>
       </c>
       <c r="J436" s="1" t="s">
         <v>366</v>
@@ -20196,13 +20301,13 @@
         <v>245</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H437" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="J437" s="1" t="s">
         <v>366</v>
@@ -20228,13 +20333,13 @@
         <v>245</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H438" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>242</v>
+        <v>420</v>
       </c>
       <c r="J438" s="1" t="s">
         <v>366</v>
@@ -20260,13 +20365,13 @@
         <v>245</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H439" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="J439" s="1" t="s">
         <v>367</v>
@@ -20859,7 +20964,7 @@
         <v>26</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E458" s="1">
         <v>5</v>
@@ -20868,13 +20973,13 @@
         <v>244</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H458" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="J458" s="1" t="s">
         <v>366</v>
@@ -20900,13 +21005,13 @@
         <v>244</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H459" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>242</v>
+        <v>425</v>
       </c>
       <c r="J459" s="1" t="s">
         <v>366</v>
@@ -20932,13 +21037,13 @@
         <v>245</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H460" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="J460" s="1" t="s">
         <v>366</v>
@@ -20970,7 +21075,7 @@
         <v>17</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>242</v>
+        <v>426</v>
       </c>
       <c r="J461" s="1" t="s">
         <v>367</v>
@@ -21002,7 +21107,7 @@
         <v>17</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>242</v>
+        <v>427</v>
       </c>
       <c r="J462" s="1" t="s">
         <v>367</v>
@@ -21360,266 +21465,810 @@
         <v>367</v>
       </c>
     </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>20</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E474" s="1">
+        <v>4</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>20</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E475" s="1">
+        <v>52</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H475" s="1">
+        <v>0</v>
+      </c>
+      <c r="I475" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>20</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E476" s="1">
+        <v>22</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H476" s="1">
+        <v>0</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>20</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E477" s="1">
+        <v>59</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H477" s="1">
+        <v>0</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>20</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E478" s="1">
+        <v>80</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H478" s="1">
+        <v>0</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>20</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E479" s="1">
+        <v>93</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H479" s="1">
+        <v>0</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>20</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E480" s="1">
+        <v>7</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H480" s="1">
+        <v>0</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>20</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E481" s="1">
+        <v>85</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H481" s="1">
+        <v>0</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>20</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E482" s="1">
+        <v>33</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H482" s="1">
+        <v>0</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>20</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E483" s="1">
+        <v>83</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H483" s="1">
+        <v>0</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>20</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E484" s="1">
+        <v>95</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H484" s="1">
+        <v>0</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>20</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E485" s="1">
+        <v>32</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H485" s="1">
+        <v>0</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>20</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E486" s="1">
+        <v>39</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H486" s="1">
+        <v>0</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>20</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E487" s="1">
+        <v>43</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H487" s="1">
+        <v>0</v>
+      </c>
+      <c r="I487" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>20</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E488" s="1">
+        <v>74</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H488" s="1">
+        <v>0</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>20</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E489" s="1">
+        <v>9</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H489" s="1">
+        <v>0</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>20</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E490" s="1">
+        <v>15</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H490" s="1">
+        <v>0</v>
+      </c>
+      <c r="I490" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>20</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E491" s="1">
+        <v>86</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H491" s="1">
+        <v>0</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>20</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E492" s="1">
+        <v>11</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H492" s="1">
+        <v>0</v>
+      </c>
+      <c r="I492" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>20</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E493" s="1">
+        <v>45</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H493" s="1">
+        <v>0</v>
+      </c>
+      <c r="I493" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>20</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E494" s="1">
+        <v>76</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H494" s="1">
+        <v>0</v>
+      </c>
+      <c r="I494" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>20</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E495" s="1">
+        <v>16</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H495" s="1">
+        <v>0</v>
+      </c>
+      <c r="I495" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>20</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E496" s="1">
+        <v>36</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H496" s="1">
+        <v>0</v>
+      </c>
+      <c r="I496" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>20</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E497" s="1">
+        <v>50</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H497" s="1">
+        <v>0</v>
+      </c>
+      <c r="I497" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>20</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E498" s="1">
+        <v>90</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H498" s="1">
+        <v>0</v>
+      </c>
+      <c r="I498" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J473" xr:uid="{D45B37B9-6856-4292-927C-257F71D47E79}"/>
-  <hyperlinks>
-    <hyperlink ref="I165" r:id="rId1" xr:uid="{A78B4D43-7D8D-47D7-9586-64DFA15B02FE}"/>
-    <hyperlink ref="I166" r:id="rId2" xr:uid="{30861605-7589-4CA0-9146-86B004FC5D04}"/>
-    <hyperlink ref="I167" r:id="rId3" xr:uid="{570C5F5F-F246-4CC7-BCA6-8412CBD20F4A}"/>
-    <hyperlink ref="I279" r:id="rId4" xr:uid="{64AB65D8-1627-4403-81F3-155F339ECE93}"/>
-    <hyperlink ref="I280" r:id="rId5" xr:uid="{AA93A46A-98D0-48A2-87AF-1E50FF6B9931}"/>
-    <hyperlink ref="I281" r:id="rId6" xr:uid="{D402221C-F5A2-42D1-B2CA-670A8D4DD455}"/>
-    <hyperlink ref="I282" r:id="rId7" xr:uid="{F5DD479A-BCA1-4989-A509-DDBB9940238C}"/>
-    <hyperlink ref="I148" r:id="rId8" xr:uid="{884842D8-219C-4281-B074-9FE44EBCFAC0}"/>
-    <hyperlink ref="I149" r:id="rId9" xr:uid="{D62004AC-61F4-4399-82D3-D11EA7057AD1}"/>
-    <hyperlink ref="I249" r:id="rId10" xr:uid="{20B295E7-AE09-4936-92FE-5DA2E4D9AC57}"/>
-    <hyperlink ref="I163" r:id="rId11" xr:uid="{1FFB49E1-E3B3-4BCE-93BC-3B57AE1AA0FD}"/>
-    <hyperlink ref="I164" r:id="rId12" xr:uid="{68BCD805-CF1C-4951-84F4-D199F3D6A749}"/>
-    <hyperlink ref="I247" r:id="rId13" xr:uid="{DE570A13-430E-48AB-9195-4E3821054A7B}"/>
-    <hyperlink ref="I248" r:id="rId14" xr:uid="{0DF9893C-64E3-4A97-BE90-1E0D240C47D0}"/>
-    <hyperlink ref="I348" r:id="rId15" xr:uid="{B711BA0A-DCA4-4F73-B884-157B1AEA9FFB}"/>
-    <hyperlink ref="I4" r:id="rId16" xr:uid="{5EF57F45-25E1-44CE-B642-2555B92C063F}"/>
-    <hyperlink ref="I361" r:id="rId17" xr:uid="{FD6BF532-57C0-42D9-BE41-A3B27865B3B3}"/>
-    <hyperlink ref="I344" r:id="rId18" xr:uid="{C05AA2BD-AAE1-40BB-93EF-082EBC8B379D}"/>
-    <hyperlink ref="I345" r:id="rId19" xr:uid="{64A5D99C-9D24-495C-8F18-62F525706E5D}"/>
-    <hyperlink ref="I244" r:id="rId20" xr:uid="{AA2435E7-67DD-4A1B-9C21-3B149875D897}"/>
-    <hyperlink ref="I186" r:id="rId21" xr:uid="{CFE14CB5-2D70-412E-9575-0C63F8D1A557}"/>
-    <hyperlink ref="I187" r:id="rId22" xr:uid="{382393D9-B609-42E9-9121-1F38AF039A54}"/>
-    <hyperlink ref="I273" r:id="rId23" xr:uid="{D7C23383-9532-446D-9624-15FDB612A1BB}"/>
-    <hyperlink ref="I314" r:id="rId24" xr:uid="{29E3826C-A1BD-4256-BB55-8B648759F504}"/>
-    <hyperlink ref="I215" r:id="rId25" xr:uid="{849BC339-7158-4982-B457-F2A0AE50B8FF}"/>
-    <hyperlink ref="I178" r:id="rId26" xr:uid="{FECD5725-41F9-4DC0-881D-9326F31146E0}"/>
-    <hyperlink ref="I179" r:id="rId27" xr:uid="{B8B3F291-5A40-4043-9CA8-FE54ECF14991}"/>
-    <hyperlink ref="I137" r:id="rId28" xr:uid="{277EA5FB-CD01-46E5-9D32-6394E4381C64}"/>
-    <hyperlink ref="I76" r:id="rId29" xr:uid="{5A6AE7FC-B395-4B0D-8663-24B86AAA335F}"/>
-    <hyperlink ref="I77" r:id="rId30" xr:uid="{6E96D512-F388-442C-A247-4F480E3BFFFE}"/>
-    <hyperlink ref="I78" r:id="rId31" xr:uid="{11542ECC-287A-4B3B-B2D2-6ECDCB46491A}"/>
-    <hyperlink ref="I294" r:id="rId32" xr:uid="{EDB2A065-6104-4337-9EEF-C4C4E019CE98}"/>
-    <hyperlink ref="I295" r:id="rId33" xr:uid="{876C07D3-9A94-4F23-AF38-02DC484D63E1}"/>
-    <hyperlink ref="I79" r:id="rId34" xr:uid="{B9A59E94-0F34-47A5-9246-422F1A3E101C}"/>
-    <hyperlink ref="I362" r:id="rId35" xr:uid="{84261679-21A3-4B8D-B933-85BF096BADD5}"/>
-    <hyperlink ref="I342" r:id="rId36" xr:uid="{F80D9D50-28F0-4E39-8E1B-0306284C7F3F}"/>
-    <hyperlink ref="I343" r:id="rId37" xr:uid="{D37D20A1-2C93-45B4-A790-4556BFCD8293}"/>
-    <hyperlink ref="I270" r:id="rId38" xr:uid="{E3F99E50-AD59-44C4-AB85-5A280CCC69C5}"/>
-    <hyperlink ref="I271" r:id="rId39" xr:uid="{BB2C0349-5313-46A2-9406-69D5707FEDD7}"/>
-    <hyperlink ref="I272" r:id="rId40" xr:uid="{AA260070-2A35-4376-8AAF-CE768079B4F8}"/>
-    <hyperlink ref="I305" r:id="rId41" xr:uid="{7328BAE7-7BDD-4BC4-821E-EABB464003D7}"/>
-    <hyperlink ref="I2" r:id="rId42" xr:uid="{0F5F7454-BC9E-47A6-8A89-25D72A9FD088}"/>
-    <hyperlink ref="I3" r:id="rId43" xr:uid="{261BAB5B-5416-4392-8FF9-8832E75A309B}"/>
-    <hyperlink ref="I5:I77" r:id="rId44" display="https://video_non_presente=NO" xr:uid="{E3AC5AE0-287F-48A3-80F8-4891F26F57E7}"/>
-    <hyperlink ref="I82:I136" r:id="rId45" display="https://video_non_presente=NO" xr:uid="{D7FA44DD-A0D3-490A-98D9-C3116D4148D3}"/>
-    <hyperlink ref="I138:I149" r:id="rId46" display="https://video_non_presente=NO" xr:uid="{777B68BF-3EDF-4231-9B5E-7E110B1F8985}"/>
-    <hyperlink ref="I152:I161" r:id="rId47" display="https://video_non_presente=NO" xr:uid="{DA12F5CA-869A-4031-8FD0-7AD8619F89E0}"/>
-    <hyperlink ref="I167:I178" r:id="rId48" display="https://video_non_presente=NO" xr:uid="{56B20CA1-DA0F-4527-A8E3-A472E7319B55}"/>
-    <hyperlink ref="I181:I185" r:id="rId49" display="https://video_non_presente=NO" xr:uid="{234F997E-8A34-4E8D-A3BF-4A8E86ED3CB6}"/>
-    <hyperlink ref="I215:I242" r:id="rId50" display="https://video_non_presente=NO" xr:uid="{AB67ABF5-6100-4196-83D6-BD142B005978}"/>
-    <hyperlink ref="I244:I245" r:id="rId51" display="https://video_non_presente=NO" xr:uid="{FAF95B93-E36F-4436-BE81-6EF97072C8B2}"/>
-    <hyperlink ref="I249:I268" r:id="rId52" display="https://video_non_presente=NO" xr:uid="{A7F103E0-6129-49BC-AD80-AAD78E2F2B0A}"/>
-    <hyperlink ref="I273:I278" r:id="rId53" display="https://video_non_presente=NO" xr:uid="{B4D97DCE-A35D-459F-B748-3770CDD3C518}"/>
-    <hyperlink ref="I283:I291" r:id="rId54" display="https://video_non_presente=NO" xr:uid="{3E9B8E64-377F-4399-A023-92CB8E9D2030}"/>
-    <hyperlink ref="I294:I302" r:id="rId55" display="https://video_non_presente=NO" xr:uid="{511C2CBC-E1B3-4449-9C1D-7EF745F73C74}"/>
-    <hyperlink ref="I304:I313" r:id="rId56" display="https://video_non_presente=NO" xr:uid="{677552EF-316E-4376-B2AA-CBC1B5D42A11}"/>
-    <hyperlink ref="I315:I341" r:id="rId57" display="https://video_non_presente=NO" xr:uid="{9727F3C4-0936-4020-B3E4-57909B2D2A54}"/>
-    <hyperlink ref="I346:I347" r:id="rId58" display="https://video_non_presente=NO" xr:uid="{7D1AD430-9D94-4C1E-82A2-34E88BBF0C09}"/>
-    <hyperlink ref="I349:I360" r:id="rId59" display="https://video_non_presente=NO" xr:uid="{E4B6D057-B235-4761-B9D4-0D3183444B49}"/>
-    <hyperlink ref="I363" r:id="rId60" xr:uid="{1866B4DB-7650-4DB6-AEC7-E241F1716376}"/>
-    <hyperlink ref="I364" r:id="rId61" xr:uid="{3A2CA22D-8557-4ED8-B2F8-5146E6AC57B7}"/>
-    <hyperlink ref="I365" r:id="rId62" xr:uid="{173DCA44-5B6E-4040-9314-97CB315F0413}"/>
-    <hyperlink ref="I366" r:id="rId63" xr:uid="{5D31142B-E504-48FC-928D-4872B461798F}"/>
-    <hyperlink ref="I367" r:id="rId64" xr:uid="{400DEB08-43A6-49C1-8832-7E0E1BF13865}"/>
-    <hyperlink ref="I368" r:id="rId65" xr:uid="{C30578ED-E32B-46F2-8089-C7986264C171}"/>
-    <hyperlink ref="I369" r:id="rId66" xr:uid="{B52F242D-8B94-438B-ADD0-0E9246E35F98}"/>
-    <hyperlink ref="I370" r:id="rId67" xr:uid="{9A396E56-E02E-4DD1-84D5-FF08C303862D}"/>
-    <hyperlink ref="I371" r:id="rId68" xr:uid="{4C0A792F-AF70-4A40-A928-76477A192676}"/>
-    <hyperlink ref="I372" r:id="rId69" xr:uid="{627A3FA8-50E7-430E-82A1-A4CCA8A43704}"/>
-    <hyperlink ref="I373" r:id="rId70" xr:uid="{9F46E9D9-40DA-4B6D-92EB-C62025206431}"/>
-    <hyperlink ref="I374" r:id="rId71" xr:uid="{702B6EAD-3BF0-4DC9-BEEA-D95575FFE51A}"/>
-    <hyperlink ref="I375" r:id="rId72" xr:uid="{E37D8155-D549-49FA-B51A-E9E768C7AC95}"/>
-    <hyperlink ref="I376" r:id="rId73" xr:uid="{447D599A-4245-4193-91E8-A390541C4AA4}"/>
-    <hyperlink ref="I377" r:id="rId74" xr:uid="{76004F12-91EE-48C2-B86B-2B51C80B0ABD}"/>
-    <hyperlink ref="I378" r:id="rId75" xr:uid="{83ED0139-F7AF-4DD2-B6BA-850FBD2F66B1}"/>
-    <hyperlink ref="I379" r:id="rId76" xr:uid="{F9817051-95F2-4B53-901C-BE8E05B3669B}"/>
-    <hyperlink ref="I383" r:id="rId77" xr:uid="{5511239D-55F5-42BF-9460-B0505998B16B}"/>
-    <hyperlink ref="I384" r:id="rId78" xr:uid="{3C143A31-7D69-40E2-B5CD-EC2323369D30}"/>
-    <hyperlink ref="I389" r:id="rId79" xr:uid="{F5D4F686-A19D-414D-9C69-B4E5B28E7B63}"/>
-    <hyperlink ref="I390" r:id="rId80" xr:uid="{92343389-B2D3-4D6E-B9ED-966908F714D7}"/>
-    <hyperlink ref="I391" r:id="rId81" xr:uid="{36F9EFE4-2E51-4112-AE96-7510B92DCCD4}"/>
-    <hyperlink ref="I392" r:id="rId82" xr:uid="{51AC3092-45B3-4B08-8D68-27361FFE2F0D}"/>
-    <hyperlink ref="I385" r:id="rId83" xr:uid="{BA4F3A26-1EB9-4746-8269-1DE5263D8BFC}"/>
-    <hyperlink ref="I381" r:id="rId84" xr:uid="{2C3ECDDE-94A9-4A56-B65C-6B949876BCD8}"/>
-    <hyperlink ref="I86" r:id="rId85" xr:uid="{BF6D78C5-7A30-48E8-A02B-7B3F9AC90A19}"/>
-    <hyperlink ref="I382" r:id="rId86" xr:uid="{AB1BB097-8054-4048-984A-1A23A78EFC26}"/>
-    <hyperlink ref="I188" r:id="rId87" xr:uid="{162FE48F-165E-45EE-9599-0A653D7EC404}"/>
-    <hyperlink ref="I189" r:id="rId88" xr:uid="{F2530C94-3E55-449E-B9B7-D3E65CCE08FF}"/>
-    <hyperlink ref="I190" r:id="rId89" xr:uid="{4C03A951-BD37-42BE-A7F6-6759B81FE49E}"/>
-    <hyperlink ref="I214" r:id="rId90" xr:uid="{E49965F0-FE0D-4A29-8276-58FDCA16FACD}"/>
-    <hyperlink ref="I194" r:id="rId91" xr:uid="{014F7D43-7BCA-4C9E-8BF8-902811BC667B}"/>
-    <hyperlink ref="I191" r:id="rId92" xr:uid="{291834A7-04B0-4DF4-B106-433E6B21BC5F}"/>
-    <hyperlink ref="I195" r:id="rId93" xr:uid="{662D5A17-1FE8-465B-94BF-157C1610F79A}"/>
-    <hyperlink ref="I196" r:id="rId94" xr:uid="{3F90113E-60B6-4984-914C-B1FDED844774}"/>
-    <hyperlink ref="I197" r:id="rId95" xr:uid="{F02E6ED9-50FF-4DA4-9E3A-A0CA5ECAF615}"/>
-    <hyperlink ref="I385:I387" r:id="rId96" display="https://video_non_presente=NO" xr:uid="{99D3AFA8-06A7-448F-ACE9-A107EEFC947F}"/>
-    <hyperlink ref="I330" r:id="rId97" xr:uid="{F46EDC23-4936-4275-A33A-AEA6608FE0CC}"/>
-    <hyperlink ref="I353" r:id="rId98" xr:uid="{187BB257-F6D8-47FA-BA09-A3FE137C82BF}"/>
-    <hyperlink ref="I354" r:id="rId99" xr:uid="{E738601F-1195-4511-AFAD-90C76D46179E}"/>
-    <hyperlink ref="I355" r:id="rId100" xr:uid="{617038B2-8192-453B-8124-23827FD01F1E}"/>
-    <hyperlink ref="I380" r:id="rId101" xr:uid="{37894BCA-6304-4DC1-B2CB-4BF1CA59F620}"/>
-    <hyperlink ref="I393" r:id="rId102" xr:uid="{809E37C5-03AE-445C-B733-B2A1CAC3A625}"/>
-    <hyperlink ref="I352" r:id="rId103" xr:uid="{84EB353D-5703-4236-9BFA-8A73CCC70341}"/>
-    <hyperlink ref="I223" r:id="rId104" xr:uid="{8649E968-24F7-42DB-BDB2-AA9A31A4A4C2}"/>
-    <hyperlink ref="I118" r:id="rId105" xr:uid="{64706713-A598-4421-97E6-A277B238FD74}"/>
-    <hyperlink ref="I119" r:id="rId106" xr:uid="{DBC3B935-98F1-44CB-8D35-5AD4179B6A57}"/>
-    <hyperlink ref="I120" r:id="rId107" xr:uid="{57209A38-BDB1-4616-AF4D-58B5A20BC3FB}"/>
-    <hyperlink ref="I13" r:id="rId108" xr:uid="{E1CB829D-B4EC-4607-9A41-F3CDFFEDC24C}"/>
-    <hyperlink ref="I251:I252" r:id="rId109" display="https://video_non_presente=NO" xr:uid="{478454D7-CC7E-4588-ABE5-E67F056AB8A9}"/>
-    <hyperlink ref="I252" r:id="rId110" xr:uid="{4937FA89-C6B2-466B-8AB4-A266CB4E53CA}"/>
-    <hyperlink ref="I253" r:id="rId111" xr:uid="{5525628C-76B6-490C-9CE8-DB706371C2A1}"/>
-    <hyperlink ref="I97" r:id="rId112" xr:uid="{E39B857D-22EF-4404-99A9-C18A934A2B53}"/>
-    <hyperlink ref="I98" r:id="rId113" xr:uid="{F6B60137-BEDF-47BB-B563-EA658F8F42F0}"/>
-    <hyperlink ref="I316" r:id="rId114" xr:uid="{B47DAE06-852A-4885-8FBE-C08570B71FB7}"/>
-    <hyperlink ref="I317" r:id="rId115" xr:uid="{40AA7635-F497-4CF7-87CD-89AF2BE28282}"/>
-    <hyperlink ref="I318" r:id="rId116" xr:uid="{86D48E5C-8B52-497C-B5C3-355DB16E8149}"/>
-    <hyperlink ref="I117" r:id="rId117" xr:uid="{309603A1-821F-4991-90EC-E10BAE97590E}"/>
-    <hyperlink ref="I176" r:id="rId118" xr:uid="{ABCD9C9C-273C-4E8F-BEFB-D52B1D60C42D}"/>
-    <hyperlink ref="I177" r:id="rId119" xr:uid="{EE7F5214-B750-4EC6-B542-46121F7D0623}"/>
-    <hyperlink ref="I332" r:id="rId120" xr:uid="{FEED08BF-BF8B-42E8-A454-63CCD0112087}"/>
-    <hyperlink ref="I333" r:id="rId121" xr:uid="{D9969682-4B08-4888-A0DC-A6A7A9695241}"/>
-    <hyperlink ref="I334" r:id="rId122" xr:uid="{A0D717A0-4D03-42EA-8808-A414EDA8A358}"/>
-    <hyperlink ref="I335" r:id="rId123" xr:uid="{1C627D51-D03D-4C02-8609-8FBD8E23AABE}"/>
-    <hyperlink ref="I212" r:id="rId124" xr:uid="{3B56AC21-FFFA-4805-A06F-65993861362E}"/>
-    <hyperlink ref="I213" r:id="rId125" xr:uid="{262DA96D-3C79-4AA4-AD71-356ADEF175E7}"/>
-    <hyperlink ref="I310" r:id="rId126" xr:uid="{D2BE57F8-6BCB-460E-A355-86A4D03760AF}"/>
-    <hyperlink ref="I289" r:id="rId127" xr:uid="{177C10FB-1EBA-42BE-AE6F-6810CC7CAB8D}"/>
-    <hyperlink ref="I290" r:id="rId128" xr:uid="{0CEE9E6D-80AE-4B77-A202-B181FC8B89B2}"/>
-    <hyperlink ref="I291" r:id="rId129" xr:uid="{BFFAD774-287F-4BA4-B6D6-6876644235A9}"/>
-    <hyperlink ref="I192" r:id="rId130" xr:uid="{AEA12BF0-6C37-4DB8-99BE-689942791D29}"/>
-    <hyperlink ref="I193" r:id="rId131" xr:uid="{2C8D5BB5-7399-464E-8870-F11C6FBAFC08}"/>
-    <hyperlink ref="I331" r:id="rId132" xr:uid="{927EEE40-9058-4A5E-B224-737C2286A1F9}"/>
-    <hyperlink ref="I11" r:id="rId133" xr:uid="{728191CF-14CF-48F9-ACFD-16AE9C3DA008}"/>
-    <hyperlink ref="I12" r:id="rId134" xr:uid="{D3B743CD-4DF5-4F2A-8DE0-A72B20EC4702}"/>
-    <hyperlink ref="I84" r:id="rId135" xr:uid="{0C6B11D3-C106-48C0-8B3D-A7E0186BF4D4}"/>
-    <hyperlink ref="I85" r:id="rId136" xr:uid="{7CF82B0C-DA3A-4DF7-8CBD-A10847360EF6}"/>
-    <hyperlink ref="I209" r:id="rId137" xr:uid="{E85DC5A1-BD5D-4759-A71D-EF9C026A28D1}"/>
-    <hyperlink ref="I319" r:id="rId138" xr:uid="{98A87312-A87E-4D6D-B29A-94E4A0DF19CD}"/>
-    <hyperlink ref="I320" r:id="rId139" xr:uid="{026943FA-49F0-4900-A4FD-4975470E9B53}"/>
-    <hyperlink ref="I321" r:id="rId140" xr:uid="{509D9DE1-7C0F-4BE0-B2C7-76CC89D307D2}"/>
-    <hyperlink ref="I51" r:id="rId141" xr:uid="{75A26726-D7D4-4E4A-8F36-EA6731DD817B}"/>
-    <hyperlink ref="I52" r:id="rId142" xr:uid="{C9E04139-D2AB-4500-9F85-EDCC4673F6D1}"/>
-    <hyperlink ref="I53" r:id="rId143" xr:uid="{54503982-BBA8-4CE7-8E56-6C8D7053EF92}"/>
-    <hyperlink ref="I275" r:id="rId144" xr:uid="{796E29EB-5EBB-4B99-B69A-7A928EF83DA6}"/>
-    <hyperlink ref="I276" r:id="rId145" xr:uid="{5D3F8923-97C2-43FA-8A04-B16B36F885F7}"/>
-    <hyperlink ref="I349" r:id="rId146" xr:uid="{12E6365A-66EA-49B7-B113-8F505206F45F}"/>
-    <hyperlink ref="I350" r:id="rId147" xr:uid="{3C1808A6-6D4C-4EDD-9A9C-415AA9C2851E}"/>
-    <hyperlink ref="I9" r:id="rId148" xr:uid="{868F47EF-72D1-4375-91B9-8B259B903321}"/>
-    <hyperlink ref="I351" r:id="rId149" xr:uid="{B2F4D580-E42F-4024-9864-B58E682214A6}"/>
-    <hyperlink ref="I216" r:id="rId150" xr:uid="{844D669D-88E8-4984-8556-F6A5EC913064}"/>
-    <hyperlink ref="I217" r:id="rId151" xr:uid="{FC54428B-2ABE-4E45-95F8-1521A87EBB19}"/>
-    <hyperlink ref="I218" r:id="rId152" xr:uid="{F076BDD2-76BC-4801-89A1-060C0CE35812}"/>
-    <hyperlink ref="I219" r:id="rId153" xr:uid="{38321D90-8F50-4FC9-9CF3-759CBAFAFA98}"/>
-    <hyperlink ref="I204" r:id="rId154" xr:uid="{E71BA14D-39A9-48EB-AB47-79B445970DBF}"/>
-    <hyperlink ref="I245" r:id="rId155" xr:uid="{93A5A277-77AB-41E7-92AA-808D6BCB2FA0}"/>
-    <hyperlink ref="I246" r:id="rId156" xr:uid="{9E9B7F57-4CE7-4BAA-9B30-6E039EED4562}"/>
-    <hyperlink ref="I40" r:id="rId157" xr:uid="{F716B326-1322-44AA-955D-E6033ACDEDD9}"/>
-    <hyperlink ref="I138" r:id="rId158" xr:uid="{2C9D29ED-1BD6-4FE8-97DC-06D6B4510BC6}"/>
-    <hyperlink ref="I139" r:id="rId159" xr:uid="{69A28059-602C-42D1-AE8D-B05CF2181B6E}"/>
-    <hyperlink ref="I168" r:id="rId160" xr:uid="{C30E4AB6-3707-4FD0-8ADD-A6FFC691264C}"/>
-    <hyperlink ref="I169" r:id="rId161" xr:uid="{CEDABB85-989C-4D3D-B431-1754AB46BCFB}"/>
-    <hyperlink ref="I110" r:id="rId162" xr:uid="{F51B780B-7C39-4049-B2CA-9347D2200E4F}"/>
-    <hyperlink ref="I111" r:id="rId163" xr:uid="{18614FEF-EA45-4071-BB83-F59940B0EE10}"/>
-    <hyperlink ref="I112" r:id="rId164" xr:uid="{2D33DEA8-F59A-45CF-889E-8B54A3F297A2}"/>
-    <hyperlink ref="I250" r:id="rId165" xr:uid="{A71C169F-7899-46ED-B32C-4BC9B388AB01}"/>
-    <hyperlink ref="I251" r:id="rId166" xr:uid="{2D0FE325-F308-45B9-A9F4-20A0F675355E}"/>
-    <hyperlink ref="I203" r:id="rId167" xr:uid="{32A1A626-E847-4460-882B-E1B6C0DA9635}"/>
-    <hyperlink ref="I116" r:id="rId168" xr:uid="{18CC9417-C7D9-44CC-BE41-607A4C6DA350}"/>
-    <hyperlink ref="I306" r:id="rId169" xr:uid="{81BCCE4B-0B90-4070-A56B-047A861F5693}"/>
-    <hyperlink ref="I307" r:id="rId170" xr:uid="{F2B967A2-A954-4F0D-995B-C2A380405A21}"/>
-    <hyperlink ref="I44" r:id="rId171" xr:uid="{479D9979-0F3A-499C-A19A-9FE8FB25EA8B}"/>
-    <hyperlink ref="I220" r:id="rId172" xr:uid="{B67DA890-E653-4496-9B1A-2E35DA1A8F04}"/>
-    <hyperlink ref="I221" r:id="rId173" xr:uid="{A9843A68-72F3-42EF-9A71-256F90307EA8}"/>
-    <hyperlink ref="I222" r:id="rId174" xr:uid="{10C3D77D-77DE-4917-8CC9-3F864D08A50E}"/>
-    <hyperlink ref="I315" r:id="rId175" xr:uid="{F5DA444C-98E0-4BE1-8E04-C55E440C5A9D}"/>
-    <hyperlink ref="I394" r:id="rId176" xr:uid="{2E1BACA8-5A19-4246-A2C4-D70FC0374BC7}"/>
-    <hyperlink ref="I55" r:id="rId177" xr:uid="{E9DB0C06-8325-4872-914D-1A2E55F89ABD}"/>
-    <hyperlink ref="I56" r:id="rId178" xr:uid="{A753A153-2EB7-42C6-A90D-B479CE8E6D0F}"/>
-    <hyperlink ref="I57" r:id="rId179" xr:uid="{2B1AE498-7A49-4CB6-9A46-58685E7446A9}"/>
-    <hyperlink ref="I58" r:id="rId180" xr:uid="{DC22E97C-F80B-4829-823C-8286041AA778}"/>
-    <hyperlink ref="I54" r:id="rId181" xr:uid="{57B8151C-A82A-4326-8F67-EF4162DB1FC1}"/>
-    <hyperlink ref="I395" r:id="rId182" xr:uid="{4553A1DD-C45E-4BDA-B590-BA4F717D89CA}"/>
-    <hyperlink ref="I396" r:id="rId183" xr:uid="{27697410-15C6-439C-8EC5-F7AD38D97B90}"/>
-    <hyperlink ref="I397" r:id="rId184" xr:uid="{6B3401C1-97F7-45D5-8E0C-93F3081D6D3C}"/>
-    <hyperlink ref="I398" r:id="rId185" xr:uid="{52928069-ECDA-437C-B135-4ED78DBDB3FC}"/>
-    <hyperlink ref="I399" r:id="rId186" xr:uid="{5E022744-F5F4-4751-82E1-9898AADA34E2}"/>
-    <hyperlink ref="I400" r:id="rId187" xr:uid="{60E09183-436B-4BDE-938B-E6EDBE022944}"/>
-    <hyperlink ref="I401" r:id="rId188" xr:uid="{CC04BCF3-A222-4277-A74D-58A183A7B36D}"/>
-    <hyperlink ref="I402" r:id="rId189" xr:uid="{B07C2FA3-A39E-46DF-BA6D-7D86A40C3000}"/>
-    <hyperlink ref="I404" r:id="rId190" xr:uid="{DC3A9E9F-D9BB-41D3-A30C-BBC948E9FBC8}"/>
-    <hyperlink ref="I405" r:id="rId191" xr:uid="{38E9543F-1C74-4D2F-8E8B-2E68E36F2541}"/>
-    <hyperlink ref="I406" r:id="rId192" xr:uid="{CC315CF9-DD9C-4C50-ACDE-44D195D32744}"/>
-    <hyperlink ref="I407" r:id="rId193" xr:uid="{680743E3-D17C-4130-8CDC-75FA137CF186}"/>
-    <hyperlink ref="I408" r:id="rId194" xr:uid="{54C5C483-6368-4C5B-885A-BAD6A66BF235}"/>
-    <hyperlink ref="I409" r:id="rId195" xr:uid="{CE484E86-5957-492E-BF8F-D69F3DA3CE9F}"/>
-    <hyperlink ref="I410" r:id="rId196" xr:uid="{18DE9FC1-C9D0-46FA-9F0D-4077260661BC}"/>
-    <hyperlink ref="I411" r:id="rId197" xr:uid="{C243BBAE-73E3-4EA8-B64E-F469E6EA4530}"/>
-    <hyperlink ref="I412" r:id="rId198" xr:uid="{B13E3ED4-6D81-4477-AAD4-B3C4175E9F99}"/>
-    <hyperlink ref="I413" r:id="rId199" xr:uid="{0DF136B6-DAA4-4211-B9FB-E3A781557F07}"/>
-    <hyperlink ref="I415" r:id="rId200" xr:uid="{97BA5EDD-9DB7-4DE4-8A4B-69B339ADD633}"/>
-    <hyperlink ref="I416" r:id="rId201" xr:uid="{5811F2A4-C836-4122-A6D9-036CF8D5A390}"/>
-    <hyperlink ref="I403" r:id="rId202" xr:uid="{795F91B3-51A8-4362-90D3-F29B707EE525}"/>
-    <hyperlink ref="I414" r:id="rId203" xr:uid="{B7BF4813-6E35-4CE2-985C-3E85E368D1B5}"/>
-    <hyperlink ref="I346" r:id="rId204" xr:uid="{0BE2FC38-7A16-40E2-A431-207870BB774A}"/>
-    <hyperlink ref="I347" r:id="rId205" xr:uid="{282BE874-F37D-450C-A49B-BE6507497190}"/>
-    <hyperlink ref="I274" r:id="rId206" xr:uid="{477E7A31-CD48-4F69-8FD9-F24FFAC5EDCA}"/>
-    <hyperlink ref="I424" r:id="rId207" xr:uid="{2068050E-9F15-4F75-A842-C5B427A438FB}"/>
-    <hyperlink ref="I425" r:id="rId208" xr:uid="{EE8ABDBA-218F-4A6B-B205-677266B69C32}"/>
-    <hyperlink ref="I426" r:id="rId209" xr:uid="{52A5AB3A-ABE4-4DDF-8213-3076E3D30380}"/>
-    <hyperlink ref="I427" r:id="rId210" xr:uid="{6D3A7A9A-F4BC-4487-A0F9-839208DE296E}"/>
-    <hyperlink ref="I428" r:id="rId211" xr:uid="{9E869920-5E4D-43BF-B6B6-2A5B54A06649}"/>
-    <hyperlink ref="I423" r:id="rId212" xr:uid="{971EE070-D884-4C4D-8760-01FA4FC591E1}"/>
-    <hyperlink ref="I429" r:id="rId213" xr:uid="{E62104D4-9914-4951-B58B-E268E289A649}"/>
-    <hyperlink ref="I430" r:id="rId214" xr:uid="{9155EA3A-E33F-49DC-813E-3033DCDE3F84}"/>
-    <hyperlink ref="I431" r:id="rId215" xr:uid="{845F8D5E-22D5-4284-ACBC-3CF242DF301E}"/>
-    <hyperlink ref="I432" r:id="rId216" xr:uid="{53EEAC46-6E8E-40EB-9EC6-4292989D6A46}"/>
-    <hyperlink ref="I435" r:id="rId217" xr:uid="{0AB88BE3-A3D3-4216-B254-98BF582F62C8}"/>
-    <hyperlink ref="I433" r:id="rId218" xr:uid="{BD12E692-56DE-4682-8106-C7E33AFF9505}"/>
-    <hyperlink ref="I434" r:id="rId219" xr:uid="{74914BBE-3D4C-409F-9690-1D949FE61FEE}"/>
-    <hyperlink ref="I439" r:id="rId220" xr:uid="{E3BF1EFC-39D9-4E13-A188-9E654373C9A8}"/>
-    <hyperlink ref="I436" r:id="rId221" xr:uid="{8D9EE7A1-A988-4A35-9BBF-57FD3E4C63B3}"/>
-    <hyperlink ref="I437" r:id="rId222" xr:uid="{A2A381CB-2697-4902-8F65-86560DFAA851}"/>
-    <hyperlink ref="I438" r:id="rId223" xr:uid="{4639BFA8-B671-456A-BDD1-CB9C93C26743}"/>
-    <hyperlink ref="I441" r:id="rId224" xr:uid="{3C3F1654-11B8-4BDE-A605-5C55F789C5CB}"/>
-    <hyperlink ref="I442" r:id="rId225" xr:uid="{BB393BCF-A8D2-4302-8E4A-7C24BBCA4667}"/>
-    <hyperlink ref="I440" r:id="rId226" xr:uid="{0F5C4443-B4BC-4E7E-9A84-A4846BCEB2F3}"/>
-    <hyperlink ref="I443" r:id="rId227" xr:uid="{8A974D8B-E9F7-44A9-9DEE-E0C813B58BE8}"/>
-    <hyperlink ref="I444" r:id="rId228" xr:uid="{B18B2854-967B-4D5A-8E1B-E3DCDE8B8098}"/>
-    <hyperlink ref="I445" r:id="rId229" xr:uid="{EDAFA1B3-A1C9-40F3-BFEC-C315EAFEF0AC}"/>
-    <hyperlink ref="I446" r:id="rId230" xr:uid="{46AD881F-C9BB-4CE7-A6A0-1DAD61ED8F4D}"/>
-    <hyperlink ref="I447" r:id="rId231" xr:uid="{8A121407-2303-43B5-9DA2-94116224C496}"/>
-    <hyperlink ref="I448" r:id="rId232" xr:uid="{BCCB59A6-D96D-420F-A43E-5BE809EDBE2C}"/>
-    <hyperlink ref="I449" r:id="rId233" xr:uid="{850ED331-45A4-4343-AD86-84AF93670AA9}"/>
-    <hyperlink ref="I450" r:id="rId234" xr:uid="{20AFC604-215E-4DE0-9581-9CCCD8A2A063}"/>
-    <hyperlink ref="I451" r:id="rId235" xr:uid="{AE53D822-385E-4225-9513-3A0AD473A859}"/>
-    <hyperlink ref="I452" r:id="rId236" xr:uid="{2EC93F96-F2FC-4837-BE20-7ED5C2591D49}"/>
-    <hyperlink ref="I417" r:id="rId237" xr:uid="{53082C9E-AD16-44CD-9970-C1EF31152789}"/>
-    <hyperlink ref="I418" r:id="rId238" xr:uid="{C1577A7E-2916-476F-B8C0-9B47035A8AF2}"/>
-    <hyperlink ref="I419" r:id="rId239" xr:uid="{9442C260-ACC1-445F-95C0-4888E3C9AD3A}"/>
-    <hyperlink ref="I420" r:id="rId240" xr:uid="{01690DBA-4302-454E-A342-4E1F090055FA}"/>
-    <hyperlink ref="I421" r:id="rId241" xr:uid="{14BF7698-EEDA-49E8-AE8C-719A472E604C}"/>
-    <hyperlink ref="I422" r:id="rId242" xr:uid="{20B4CF3D-99FB-43E5-BBE4-EB6C2DF98E15}"/>
-    <hyperlink ref="I453" r:id="rId243" xr:uid="{7C202A0E-F55B-48E9-BD60-814AA4EB1986}"/>
-    <hyperlink ref="I454" r:id="rId244" xr:uid="{070AE68C-C8A7-4E8A-AD81-C531E624C356}"/>
-    <hyperlink ref="I455" r:id="rId245" xr:uid="{19F224F8-299A-4E16-8CE5-4D601A2E30C9}"/>
-    <hyperlink ref="I456" r:id="rId246" xr:uid="{ED8D9381-D118-414D-8E38-8769B22B2135}"/>
-    <hyperlink ref="I457" r:id="rId247" xr:uid="{9958DCEB-4387-4B04-BC0B-08D494B33C85}"/>
-    <hyperlink ref="I458" r:id="rId248" xr:uid="{C6C55B93-B523-4097-BCA3-C60069109340}"/>
-    <hyperlink ref="I459" r:id="rId249" xr:uid="{499C8FEE-FAD8-4DAA-9729-24E0BF0B5D87}"/>
-    <hyperlink ref="I460" r:id="rId250" xr:uid="{31EFAFA7-80C3-4981-944C-5F0C569D0EB5}"/>
-    <hyperlink ref="I471" r:id="rId251" xr:uid="{18C6870D-EE83-40B6-9564-44E654D61716}"/>
-    <hyperlink ref="I472" r:id="rId252" xr:uid="{02877274-0AEA-4D31-B9EA-51ABF955E49C}"/>
-    <hyperlink ref="I473" r:id="rId253" xr:uid="{70A9763D-9256-4C42-B0B3-7DDA982291B4}"/>
-    <hyperlink ref="I461:I470" r:id="rId254" display="https://video_non_presente=NO" xr:uid="{89D83614-AAE1-410A-98F9-CD8DCD717366}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:J498" xr:uid="{D45B37B9-6856-4292-927C-257F71D47E79}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId255"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21651,24 +22300,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
@@ -22686,96 +23335,96 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="32"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="28"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="R32" s="25"/>
+      <c r="R32" s="28"/>
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" s="24">
+      <c r="D33" s="27">
         <f>COUNTIF($I$3:$I$21,"1T")</f>
         <v>7</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="24">
+      <c r="H33" s="27">
         <f>COUNTIF($I$3:$I$21,"2T")</f>
         <v>12</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="M33" s="24">
+      <c r="M33" s="27">
         <f>COUNTIF($R$3:$R$28,"1T")</f>
         <v>16</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="24">
+      <c r="Q33" s="27">
         <f>COUNTIF($R$3:$R$28,"2T")</f>
         <v>10</v>
       </c>
-      <c r="R33" s="25"/>
+      <c r="R33" s="28"/>
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="31"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
@@ -22870,86 +23519,86 @@
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="31"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="24" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="N38" s="25"/>
-      <c r="O38" s="24" t="s">
+      <c r="N38" s="28"/>
+      <c r="O38" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="24" t="s">
+      <c r="P38" s="28"/>
+      <c r="Q38" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="R38" s="25"/>
+      <c r="R38" s="28"/>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="24">
+      <c r="D39" s="27">
         <f>COUNTIF($H$3:$H$21,"&lt;=29")</f>
         <v>4</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="24">
+      <c r="E39" s="28"/>
+      <c r="F39" s="27">
         <f>E30-D39-H39</f>
         <v>5</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="24">
+      <c r="G39" s="28"/>
+      <c r="H39" s="27">
         <f>COUNTIF($H$3:$H$21,"&gt;=60")</f>
         <v>10</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="M39" s="24">
+      <c r="M39" s="27">
         <f>COUNTIF($Q$3:$Q$28,"&lt;=29")</f>
         <v>11</v>
       </c>
-      <c r="N39" s="25"/>
-      <c r="O39" s="24">
+      <c r="N39" s="28"/>
+      <c r="O39" s="27">
         <f>N30-M39-Q39</f>
         <v>9</v>
       </c>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="24">
+      <c r="P39" s="28"/>
+      <c r="Q39" s="27">
         <f>COUNTIF($Q$3:$Q$28,"&gt;=60")</f>
         <v>6</v>
       </c>
-      <c r="R39" s="25"/>
+      <c r="R39" s="28"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
@@ -23145,11 +23794,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D34:I34"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
@@ -23166,13 +23817,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -23188,7 +23837,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23257,23 +23906,23 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A2)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!F:F,"1T")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!F:F,"2T")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="16">
         <f>B2/MAX(Foglio1!A:A)</f>
-        <v>1.1052631578947369</v>
+        <v>1.25</v>
       </c>
       <c r="F2" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!J:J,"C")</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!J:J,"T")</f>
@@ -23285,7 +23934,7 @@
       </c>
       <c r="I2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
@@ -23293,7 +23942,7 @@
       </c>
       <c r="K2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
@@ -23301,19 +23950,19 @@
       </c>
       <c r="M2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&gt;74")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&lt;=29")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" ref="O2:O17" si="0">B2-N2-P2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A2,Foglio1!E:E,"&gt;=60")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -23322,7 +23971,7 @@
       </c>
       <c r="B3" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!F:F,"1T")</f>
@@ -23330,15 +23979,15 @@
       </c>
       <c r="D3" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!F:F,"2T")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="16">
         <f>B3/MAX(Foglio1!A:A)</f>
-        <v>1.1052631578947369</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!J:J,"C")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!J:J,"T")</f>
@@ -23366,7 +24015,7 @@
       </c>
       <c r="M3" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!E:E,"&gt;74")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!E:E,"&lt;=29")</f>
@@ -23378,7 +24027,7 @@
       </c>
       <c r="P3" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A3,Foglio1!E:E,"&gt;=60")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -23387,19 +24036,19 @@
       </c>
       <c r="B4" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A4)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!F:F,"1T")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!F:F,"2T")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="16">
         <f>B4/MAX(Foglio1!A:A)</f>
-        <v>1.4210526315789473</v>
+        <v>1.45</v>
       </c>
       <c r="F4" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!J:J,"C")</f>
@@ -23407,11 +24056,11 @@
       </c>
       <c r="G4" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!J:J,"T")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!E:E,"&lt;=14")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
@@ -23431,11 +24080,11 @@
       </c>
       <c r="M4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!E:E,"&gt;74")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!E:E,"&lt;=29")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
@@ -23443,7 +24092,7 @@
       </c>
       <c r="P4" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A4,Foglio1!E:E,"&gt;=60")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -23464,7 +24113,7 @@
       </c>
       <c r="E5" s="16">
         <f>B5/MAX(Foglio1!A:A)</f>
-        <v>1.0526315789473684</v>
+        <v>1</v>
       </c>
       <c r="F5" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A5,Foglio1!J:J,"C")</f>
@@ -23517,19 +24166,19 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A6)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!F:F,"1T")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!F:F,"2T")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="16">
         <f>B6/MAX(Foglio1!A:A)</f>
-        <v>2.0526315789473686</v>
+        <v>2.15</v>
       </c>
       <c r="F6" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!J:J,"C")</f>
@@ -23537,7 +24186,7 @@
       </c>
       <c r="G6" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!J:J,"T")</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&lt;=14")</f>
@@ -23545,15 +24194,15 @@
       </c>
       <c r="I6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
@@ -23561,19 +24210,19 @@
       </c>
       <c r="M6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&gt;74")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&lt;=29")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P6" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A6,Foglio1!E:E,"&gt;=60")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -23594,7 +24243,7 @@
       </c>
       <c r="E7" s="16">
         <f>B7/MAX(Foglio1!A:A)</f>
-        <v>1.5263157894736843</v>
+        <v>1.45</v>
       </c>
       <c r="F7" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A7,Foglio1!J:J,"C")</f>
@@ -23647,23 +24296,23 @@
       </c>
       <c r="B8" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A8)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!F:F,"1T")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!F:F,"2T")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="16">
         <f>B8/MAX(Foglio1!A:A)</f>
-        <v>1.0526315789473684</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F8" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!J:J,"C")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!J:J,"T")</f>
@@ -23671,7 +24320,7 @@
       </c>
       <c r="H8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&lt;=14")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
@@ -23679,7 +24328,7 @@
       </c>
       <c r="J8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
@@ -23691,19 +24340,19 @@
       </c>
       <c r="M8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&gt;74")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&lt;=29")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A8,Foglio1!E:E,"&gt;=60")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -23712,7 +24361,7 @@
       </c>
       <c r="B9" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A9)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!F:F,"1T")</f>
@@ -23720,11 +24369,11 @@
       </c>
       <c r="D9" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!F:F,"2T")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="16">
         <f>B9/MAX(Foglio1!A:A)</f>
-        <v>2.736842105263158</v>
+        <v>2.65</v>
       </c>
       <c r="F9" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!J:J,"C")</f>
@@ -23732,7 +24381,7 @@
       </c>
       <c r="G9" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!J:J,"T")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!E:E,"&lt;=14")</f>
@@ -23748,7 +24397,7 @@
       </c>
       <c r="K9" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
@@ -23764,7 +24413,7 @@
       </c>
       <c r="O9" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P9" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A9,Foglio1!E:E,"&gt;=60")</f>
@@ -23777,19 +24426,19 @@
       </c>
       <c r="B10" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A10)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!F:F,"1T")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!F:F,"2T")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="16">
         <f>B10/MAX(Foglio1!A:A)</f>
-        <v>1.4210526315789473</v>
+        <v>1.55</v>
       </c>
       <c r="F10" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!J:J,"C")</f>
@@ -23797,7 +24446,7 @@
       </c>
       <c r="G10" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!J:J,"T")</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!E:E,"&lt;=14")</f>
@@ -23809,7 +24458,7 @@
       </c>
       <c r="J10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
@@ -23817,7 +24466,7 @@
       </c>
       <c r="L10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!E:E,"&gt;74")</f>
@@ -23829,11 +24478,11 @@
       </c>
       <c r="O10" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P10" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A10,Foglio1!E:E,"&gt;=60")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -23842,19 +24491,19 @@
       </c>
       <c r="B11" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A11)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!F:F,"1T")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!F:F,"2T")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="16">
         <f>B11/MAX(Foglio1!A:A)</f>
-        <v>2.5789473684210527</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!J:J,"C")</f>
@@ -23862,7 +24511,7 @@
       </c>
       <c r="G11" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!J:J,"T")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!E:E,"&lt;=14")</f>
@@ -23874,7 +24523,7 @@
       </c>
       <c r="J11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
@@ -23886,7 +24535,7 @@
       </c>
       <c r="M11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!E:E,"&gt;74")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!E:E,"&lt;=29")</f>
@@ -23894,11 +24543,11 @@
       </c>
       <c r="O11" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A11,Foglio1!E:E,"&gt;=60")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -23919,7 +24568,7 @@
       </c>
       <c r="E12" s="16">
         <f>B12/MAX(Foglio1!A:A)</f>
-        <v>1.0526315789473684</v>
+        <v>1</v>
       </c>
       <c r="F12" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A12,Foglio1!J:J,"C")</f>
@@ -23972,19 +24621,19 @@
       </c>
       <c r="B13" s="5">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A13)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!F:F,"1T")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!F:F,"2T")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="16">
         <f>B13/MAX(Foglio1!A:A)</f>
-        <v>2.1052631578947367</v>
+        <v>2.15</v>
       </c>
       <c r="F13" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!J:J,"C")</f>
@@ -23992,15 +24641,15 @@
       </c>
       <c r="G13" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!J:J,"T")</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!E:E,"&lt;=14")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
@@ -24016,11 +24665,11 @@
       </c>
       <c r="M13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!E:E,"&gt;74")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!E:E,"&lt;=29")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="0"/>
@@ -24028,7 +24677,7 @@
       </c>
       <c r="P13" s="5">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A13,Foglio1!E:E,"&gt;=60")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -24049,7 +24698,7 @@
       </c>
       <c r="E14" s="16">
         <f>B14/MAX(Foglio1!A:A)</f>
-        <v>0.84210526315789469</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A14,Foglio1!J:J,"C")</f>
@@ -24114,7 +24763,7 @@
       </c>
       <c r="E15" s="16">
         <f>B15/MAX(Foglio1!A:A)</f>
-        <v>1.1578947368421053</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F15" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A15,Foglio1!J:J,"C")</f>
@@ -24179,7 +24828,7 @@
       </c>
       <c r="E16" s="16">
         <f>B16/MAX(Foglio1!A:A)</f>
-        <v>1.7894736842105263</v>
+        <v>1.7</v>
       </c>
       <c r="F16" s="19">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A16,Foglio1!J:J,"C")</f>
@@ -24232,11 +24881,11 @@
       </c>
       <c r="B17" s="21">
         <f>COUNTIF(Foglio1!B:B,'GOL FATTI'!A17)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="21">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!F:F,"1T")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="21">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!F:F,"2T")</f>
@@ -24244,7 +24893,7 @@
       </c>
       <c r="E17" s="22">
         <f>B17/MAX(Foglio1!A:A)</f>
-        <v>1.8421052631578947</v>
+        <v>1.8</v>
       </c>
       <c r="F17" s="23">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!J:J,"C")</f>
@@ -24252,11 +24901,11 @@
       </c>
       <c r="G17" s="23">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!J:J,"T")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="21">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!E:E,"&lt;=14")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="21">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
@@ -24280,7 +24929,7 @@
       </c>
       <c r="N17" s="21">
         <f>COUNTIFS(Foglio1!B:B,'GOL FATTI'!A17,Foglio1!E:E,"&lt;=29")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="0"/>
@@ -24297,63 +24946,63 @@
       </c>
       <c r="B18" s="16">
         <f t="shared" ref="B18:P18" si="1">AVERAGEA(B2:B17)</f>
-        <v>29.5</v>
+        <v>31.0625</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
-        <v>13.125</v>
+        <v>13.9375</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="1"/>
-        <v>16.375</v>
+        <v>17.125</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="1"/>
-        <v>1.5526315789473684</v>
+        <v>1.5531250000000001</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="1"/>
-        <v>14.625</v>
+        <v>15.125</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="1"/>
-        <v>14.875</v>
+        <v>15.9375</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
+        <v>4.3125</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.1875</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="1"/>
-        <v>5.0625</v>
+        <v>5.4375</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="1"/>
-        <v>4.5625</v>
+        <v>4.75</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="1"/>
-        <v>4.3125</v>
+        <v>4.375</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N18" s="16">
         <f t="shared" si="1"/>
-        <v>8.0625</v>
+        <v>8.5</v>
       </c>
       <c r="O18" s="16">
         <f t="shared" si="1"/>
-        <v>9.625</v>
+        <v>10.1875</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="1"/>
-        <v>11.8125</v>
+        <v>12.375</v>
       </c>
     </row>
   </sheetData>
@@ -24395,7 +25044,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24466,15 +25115,15 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A2)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A2,Foglio1!F:F,"1T")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A2,Foglio1!F:F,"2T")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="16">
         <f>B2/MAX(Foglio1!A:A)</f>
@@ -24482,7 +25131,7 @@
       </c>
       <c r="F2" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A2,Foglio1!J:J,"T")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A2,Foglio1!J:J,"C")</f>
@@ -24490,7 +25139,7 @@
       </c>
       <c r="H2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A2,Foglio1!E:E,"&lt;=14")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A2,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
@@ -24510,11 +25159,11 @@
       </c>
       <c r="M2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A2,Foglio1!E:E,"&gt;74")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A2,Foglio1!E:E,"&lt;=29")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" ref="O2:O17" si="0">B2-N2-P2</f>
@@ -24522,7 +25171,7 @@
       </c>
       <c r="P2" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A2,Foglio1!E:E,"&gt;=60")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -24531,23 +25180,23 @@
       </c>
       <c r="B3" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A3)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A3,Foglio1!F:F,"1T")</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A3,Foglio1!F:F,"2T")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="16">
         <f>B3/MAX(Foglio1!A:A)</f>
-        <v>2.1052631578947367</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F3" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A3,Foglio1!J:J,"T")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A3,Foglio1!J:J,"C")</f>
@@ -24563,7 +25212,7 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A3,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A3,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
@@ -24571,7 +25220,7 @@
       </c>
       <c r="L3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A3,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A3,Foglio1!E:E,"&gt;74")</f>
@@ -24583,11 +25232,11 @@
       </c>
       <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P3" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A3,Foglio1!E:E,"&gt;=60")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -24596,19 +25245,19 @@
       </c>
       <c r="B4" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A4)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!F:F,"1T")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!F:F,"2T")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="16">
         <f>B4/MAX(Foglio1!A:A)</f>
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F4" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A4,Foglio1!J:J,"T")</f>
@@ -24616,7 +25265,7 @@
       </c>
       <c r="G4" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A4,Foglio1!J:J,"C")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!E:E,"&lt;=14")</f>
@@ -24624,7 +25273,7 @@
       </c>
       <c r="I4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
@@ -24632,7 +25281,7 @@
       </c>
       <c r="K4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
@@ -24640,19 +25289,19 @@
       </c>
       <c r="M4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A4,Foglio1!E:E,"&gt;74")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A4,Foglio1!E:E,"&lt;=29")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A4,Foglio1!E:E,"&gt;=60")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -24661,11 +25310,11 @@
       </c>
       <c r="B5" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A5)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A5,Foglio1!F:F,"1T")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A5,Foglio1!F:F,"2T")</f>
@@ -24673,11 +25322,11 @@
       </c>
       <c r="E5" s="16">
         <f>B5/MAX(Foglio1!A:A)</f>
-        <v>1.5789473684210527</v>
+        <v>1.55</v>
       </c>
       <c r="F5" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A5,Foglio1!J:J,"T")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A5,Foglio1!J:J,"C")</f>
@@ -24685,7 +25334,7 @@
       </c>
       <c r="H5" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A5,Foglio1!E:E,"&lt;=14")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A5,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
@@ -24709,7 +25358,7 @@
       </c>
       <c r="N5" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A5,Foglio1!E:E,"&lt;=29")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="0"/>
@@ -24726,19 +25375,19 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A6)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!F:F,"1T")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!F:F,"2T")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="16">
         <f>B6/MAX(Foglio1!A:A)</f>
-        <v>1.7894736842105263</v>
+        <v>1.85</v>
       </c>
       <c r="F6" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A6,Foglio1!J:J,"T")</f>
@@ -24746,11 +25395,11 @@
       </c>
       <c r="G6" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A6,Foglio1!J:J,"C")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!E:E,"&lt;=14")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
@@ -24758,7 +25407,7 @@
       </c>
       <c r="J6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
@@ -24770,19 +25419,19 @@
       </c>
       <c r="M6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A6,Foglio1!E:E,"&gt;74")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A6,Foglio1!E:E,"&lt;=29")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A6,Foglio1!E:E,"&gt;=60")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -24803,7 +25452,7 @@
       </c>
       <c r="E7" s="16">
         <f>B7/MAX(Foglio1!A:A)</f>
-        <v>1.0526315789473684</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A7,Foglio1!J:J,"T")</f>
@@ -24856,23 +25505,23 @@
       </c>
       <c r="B8" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A8)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!F:F,"1T")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!F:F,"2T")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="16">
         <f>B8/MAX(Foglio1!A:A)</f>
-        <v>1.7894736842105263</v>
+        <v>1.9</v>
       </c>
       <c r="F8" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A8,Foglio1!J:J,"T")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A8,Foglio1!J:J,"C")</f>
@@ -24884,15 +25533,15 @@
       </c>
       <c r="I8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
@@ -24900,19 +25549,19 @@
       </c>
       <c r="M8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A8,Foglio1!E:E,"&gt;74")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A8,Foglio1!E:E,"&lt;=29")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P8" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A8,Foglio1!E:E,"&gt;=60")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -24933,7 +25582,7 @@
       </c>
       <c r="E9" s="16">
         <f>B9/MAX(Foglio1!A:A)</f>
-        <v>0.73684210526315785</v>
+        <v>0.7</v>
       </c>
       <c r="F9" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A9,Foglio1!J:J,"T")</f>
@@ -24986,7 +25635,7 @@
       </c>
       <c r="B10" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A10)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A10,Foglio1!F:F,"1T")</f>
@@ -24994,11 +25643,11 @@
       </c>
       <c r="D10" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A10,Foglio1!F:F,"2T")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="16">
         <f>B10/MAX(Foglio1!A:A)</f>
-        <v>1.4736842105263157</v>
+        <v>1.45</v>
       </c>
       <c r="F10" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A10,Foglio1!J:J,"T")</f>
@@ -25006,7 +25655,7 @@
       </c>
       <c r="G10" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A10,Foglio1!J:J,"C")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A10,Foglio1!E:E,"&lt;=14")</f>
@@ -25030,7 +25679,7 @@
       </c>
       <c r="M10" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A10,Foglio1!E:E,"&gt;74")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A10,Foglio1!E:E,"&lt;=29")</f>
@@ -25042,7 +25691,7 @@
       </c>
       <c r="P10" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A10,Foglio1!E:E,"&gt;=60")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -25063,7 +25712,7 @@
       </c>
       <c r="E11" s="16">
         <f>B11/MAX(Foglio1!A:A)</f>
-        <v>1.263157894736842</v>
+        <v>1.2</v>
       </c>
       <c r="F11" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A11,Foglio1!J:J,"T")</f>
@@ -25116,7 +25765,7 @@
       </c>
       <c r="B12" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A12)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A12,Foglio1!F:F,"1T")</f>
@@ -25124,15 +25773,15 @@
       </c>
       <c r="D12" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A12,Foglio1!F:F,"2T")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="16">
         <f>B12/MAX(Foglio1!A:A)</f>
-        <v>1.631578947368421</v>
+        <v>1.6</v>
       </c>
       <c r="F12" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A12,Foglio1!J:J,"T")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A12,Foglio1!J:J,"C")</f>
@@ -25152,7 +25801,7 @@
       </c>
       <c r="K12" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A12,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A12,Foglio1!E:E,"&gt;=60",Foglio1!E:E,"&lt;=74")</f>
@@ -25168,7 +25817,7 @@
       </c>
       <c r="O12" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A12,Foglio1!E:E,"&gt;=60")</f>
@@ -25193,7 +25842,7 @@
       </c>
       <c r="E13" s="16">
         <f>B13/MAX(Foglio1!A:A)</f>
-        <v>0.78947368421052633</v>
+        <v>0.75</v>
       </c>
       <c r="F13" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A13,Foglio1!J:J,"T")</f>
@@ -25246,23 +25895,23 @@
       </c>
       <c r="B14" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A14)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A14,Foglio1!F:F,"1T")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A14,Foglio1!F:F,"2T")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="16">
         <f>B14/MAX(Foglio1!A:A)</f>
-        <v>2.736842105263158</v>
+        <v>2.7</v>
       </c>
       <c r="F14" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A14,Foglio1!J:J,"T")</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A14,Foglio1!J:J,"C")</f>
@@ -25278,7 +25927,7 @@
       </c>
       <c r="J14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A14,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A14,Foglio1!E:E,"&gt;=46",Foglio1!E:E,"&lt;=59")</f>
@@ -25290,7 +25939,7 @@
       </c>
       <c r="M14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A14,Foglio1!E:E,"&gt;74")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A14,Foglio1!E:E,"&lt;=29")</f>
@@ -25298,11 +25947,11 @@
       </c>
       <c r="O14" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P14" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A14,Foglio1!E:E,"&gt;=60")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -25311,23 +25960,23 @@
       </c>
       <c r="B15" s="5">
         <f>COUNTIF(Foglio1!C:C,'GOL SUBITI'!A15)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A15,Foglio1!F:F,"1T")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A15,Foglio1!F:F,"2T")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="16">
         <f>B15/MAX(Foglio1!A:A)</f>
-        <v>2.1052631578947367</v>
+        <v>2.15</v>
       </c>
       <c r="F15" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A15,Foglio1!J:J,"T")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A15,Foglio1!J:J,"C")</f>
@@ -25335,11 +25984,11 @@
       </c>
       <c r="H15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A15,Foglio1!E:E,"&lt;=14")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A15,Foglio1!E:E,"&gt;14",Foglio1!E:E,"&lt;=29")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A15,Foglio1!E:E,"&gt;29",Foglio1!E:E,"&lt;=45")</f>
@@ -25355,11 +26004,11 @@
       </c>
       <c r="M15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL SUBITI'!A15,Foglio1!E:E,"&gt;74")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A15,Foglio1!E:E,"&lt;=29")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="0"/>
@@ -25367,7 +26016,7 @@
       </c>
       <c r="P15" s="5">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A15,Foglio1!E:E,"&gt;=60")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -25388,7 +26037,7 @@
       </c>
       <c r="E16" s="16">
         <f>B16/MAX(Foglio1!A:A)</f>
-        <v>0.84210526315789469</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="19">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A16,Foglio1!J:J,"T")</f>
@@ -25453,7 +26102,7 @@
       </c>
       <c r="E17" s="22">
         <f>B17/MAX(Foglio1!A:A)</f>
-        <v>0.94736842105263153</v>
+        <v>0.9</v>
       </c>
       <c r="F17" s="23">
         <f>COUNTIFS(Foglio1!C:C,'GOL FATTI'!A17,Foglio1!J:J,"T")</f>
@@ -25506,63 +26155,63 @@
       </c>
       <c r="B18" s="16">
         <f t="shared" ref="B18:P18" si="1">AVERAGEA(B2:B17)</f>
-        <v>29.5</v>
+        <v>31.0625</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
-        <v>13.125</v>
+        <v>13.9375</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="1"/>
-        <v>16.375</v>
+        <v>17.125</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="1"/>
-        <v>1.5526315789473681</v>
+        <v>1.5531249999999999</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="1"/>
-        <v>14.875</v>
+        <v>15.9375</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="1"/>
-        <v>14.625</v>
+        <v>15.125</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
+        <v>4.3125</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.1875</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="1"/>
-        <v>5.0625</v>
+        <v>5.4375</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="1"/>
-        <v>4.5625</v>
+        <v>4.75</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="1"/>
-        <v>4.3125</v>
+        <v>4.375</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N18" s="16">
         <f t="shared" si="1"/>
-        <v>8.0625</v>
+        <v>8.5</v>
       </c>
       <c r="O18" s="16">
         <f t="shared" si="1"/>
-        <v>9.625</v>
+        <v>10.1875</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="1"/>
-        <v>11.8125</v>
+        <v>12.375</v>
       </c>
     </row>
   </sheetData>
